--- a/Results/BITCOIN(06-2018-06-2022)Results.xlsx
+++ b/Results/BITCOIN(06-2018-06-2022)Results.xlsx
@@ -4506,10 +4506,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.892900987971625</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1025830.739434732</v>
+        <v>1000000</v>
       </c>
       <c r="D3" t="n">
         <v>6770.759766</v>
@@ -4518,13 +4518,13 @@
         <v>0.02635789738237993</v>
       </c>
       <c r="F3" t="n">
-        <v>527.1579476475987</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.892900987971625</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>26357.89738237993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-13.198294150492</v>
+        <v>16.32761682002611</v>
       </c>
       <c r="C4" t="n">
-        <v>919761.2800886907</v>
+        <v>898628.8263472853</v>
       </c>
       <c r="D4" t="n">
         <v>6084.399902</v>
@@ -4546,13 +4546,13 @@
         <v>-0.1013711736527147</v>
       </c>
       <c r="F4" t="n">
-        <v>2079.79332051062</v>
+        <v>2027.423473054294</v>
       </c>
       <c r="G4" t="n">
-        <v>-17.09119513846363</v>
+        <v>16.32761682002611</v>
       </c>
       <c r="H4" t="n">
-        <v>-103989.666025531</v>
+        <v>101371.1736527147</v>
       </c>
     </row>
     <row r="5">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-13.198294150492</v>
+        <v>6.021060032873116</v>
       </c>
       <c r="C5" t="n">
-        <v>919761.2800886907</v>
+        <v>898628.8263472853</v>
       </c>
       <c r="D5" t="n">
         <v>6550.870117</v>
@@ -4574,13 +4574,13 @@
         <v>0.07666659366795846</v>
       </c>
       <c r="F5" t="n">
-        <v>1410.29928664162</v>
+        <v>1377.896221757635</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.306556787153</v>
       </c>
       <c r="H5" t="n">
-        <v>70514.96433208098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4590,10 +4590,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.07964283015418</v>
+        <v>10.69487085243951</v>
       </c>
       <c r="C6" t="n">
-        <v>888240.5302927514</v>
+        <v>868436.1514333439</v>
       </c>
       <c r="D6" t="n">
         <v>6330.77002</v>
@@ -4602,13 +4602,13 @@
         <v>-0.03359860492865278</v>
       </c>
       <c r="F6" t="n">
-        <v>618.0539175674376</v>
+        <v>603.8534982788274</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.881348679662175</v>
+        <v>4.673810819566391</v>
       </c>
       <c r="H6" t="n">
-        <v>-30902.69587837188</v>
+        <v>30192.67491394137</v>
       </c>
     </row>
     <row r="7">
@@ -4618,10 +4618,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8036801327750283</v>
+        <v>10.69487085243951</v>
       </c>
       <c r="C7" t="n">
-        <v>1023615.326170188</v>
+        <v>868436.1514333439</v>
       </c>
       <c r="D7" t="n">
         <v>7315.319824</v>
@@ -4630,13 +4630,13 @@
         <v>0.1555181756547208</v>
       </c>
       <c r="F7" t="n">
-        <v>2762.750936274209</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-18.88332296292921</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138137.5468137104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4646,10 +4646,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.57655058950186</v>
+        <v>10.69487085243951</v>
       </c>
       <c r="C8" t="n">
-        <v>1169567.328305691</v>
+        <v>868436.1514333439</v>
       </c>
       <c r="D8" t="n">
         <v>8379.660156</v>
@@ -4658,13 +4658,13 @@
         <v>0.1454947094053396</v>
       </c>
       <c r="F8" t="n">
-        <v>2978.612288479666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-17.77287045672683</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>148930.6144239833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.606652313259191</v>
+        <v>18.67741524289169</v>
       </c>
       <c r="C9" t="n">
-        <v>1082637.23823155</v>
+        <v>805153.7976872228</v>
       </c>
       <c r="D9" t="n">
         <v>7769.04</v>
@@ -4686,13 +4686,13 @@
         <v>-0.07286932221980195</v>
       </c>
       <c r="F9" t="n">
-        <v>1704.511570081206</v>
+        <v>1265.647074922421</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.96989827624266</v>
+        <v>7.982544390452183</v>
       </c>
       <c r="H9" t="n">
-        <v>-85225.57850406031</v>
+        <v>63282.35374612106</v>
       </c>
     </row>
     <row r="10">
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.50616436054405</v>
+        <v>34.06491776543848</v>
       </c>
       <c r="C10" t="n">
-        <v>937343.3309123873</v>
+        <v>699217.908509422</v>
       </c>
       <c r="D10" t="n">
         <v>6746.85</v>
@@ -4714,13 +4714,13 @@
         <v>-0.1315722405857094</v>
       </c>
       <c r="F10" t="n">
-        <v>2848.900143512989</v>
+        <v>2118.717783556017</v>
       </c>
       <c r="G10" t="n">
-        <v>-21.11281667380324</v>
+        <v>15.38750252254679</v>
       </c>
       <c r="H10" t="n">
-        <v>-142445.0071756494</v>
+        <v>105935.8891778009</v>
       </c>
     </row>
     <row r="11">
@@ -4730,10 +4730,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.23954024408648</v>
+        <v>42.64246085876638</v>
       </c>
       <c r="C11" t="n">
-        <v>862885.1063352111</v>
+        <v>644764.3389668791</v>
       </c>
       <c r="D11" t="n">
         <v>6221.42</v>
@@ -4742,13 +4742,13 @@
         <v>-0.07787782446623243</v>
       </c>
       <c r="F11" t="n">
-        <v>1459.96518778777</v>
+        <v>1089.071390850859</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.73337588354243</v>
+        <v>8.577543093327902</v>
       </c>
       <c r="H11" t="n">
-        <v>-72998.25938938852</v>
+        <v>54453.56954254293</v>
       </c>
     </row>
     <row r="12">
@@ -4758,10 +4758,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-25.23954024408648</v>
+        <v>38.49568023337602</v>
       </c>
       <c r="C12" t="n">
-        <v>862885.1063352111</v>
+        <v>672210.3143050814</v>
       </c>
       <c r="D12" t="n">
         <v>6486.25</v>
@@ -4770,13 +4770,13 @@
         <v>0.04256745244654756</v>
       </c>
       <c r="F12" t="n">
-        <v>734.6164146151647</v>
+        <v>548.919506764046</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4.146780625390364</v>
       </c>
       <c r="H12" t="n">
-        <v>36730.82073075823</v>
+        <v>27445.9753382023</v>
       </c>
     </row>
     <row r="13">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.23954024408648</v>
+        <v>29.8246230015183</v>
       </c>
       <c r="C13" t="n">
-        <v>862885.1063352111</v>
+        <v>734957.8890823649</v>
       </c>
       <c r="D13" t="n">
         <v>7091.71</v>
@@ -4798,13 +4798,13 @@
         <v>0.09334515320871074</v>
       </c>
       <c r="F13" t="n">
-        <v>1610.922849047499</v>
+        <v>1254.951495545668</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>8.671057231857725</v>
       </c>
       <c r="H13" t="n">
-        <v>80546.14245237494</v>
+        <v>62747.57477728342</v>
       </c>
     </row>
     <row r="14">
@@ -4814,10 +4814,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-25.23954024408648</v>
+        <v>26.10297700434933</v>
       </c>
       <c r="C14" t="n">
-        <v>862885.1063352111</v>
+        <v>762913.7545337112</v>
       </c>
       <c r="D14" t="n">
         <v>7361.46</v>
@@ -4826,13 +4826,13 @@
         <v>0.03803737039444648</v>
       </c>
       <c r="F14" t="n">
-        <v>656.4376079504752</v>
+        <v>559.1173090269284</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.721645997168971</v>
       </c>
       <c r="H14" t="n">
-        <v>32821.88039752376</v>
+        <v>27955.86545134642</v>
       </c>
     </row>
     <row r="15">
@@ -4842,10 +4842,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-44.62004599864864</v>
+        <v>42.8954111481213</v>
       </c>
       <c r="C15" t="n">
-        <v>738009.7207054519</v>
+        <v>654670.9235025388</v>
       </c>
       <c r="D15" t="n">
         <v>6317.01</v>
@@ -4854,13 +4854,13 @@
         <v>-0.1418808225542215</v>
       </c>
       <c r="F15" t="n">
-        <v>2448.536973132534</v>
+        <v>2164.856620623449</v>
       </c>
       <c r="G15" t="n">
-        <v>-19.38050575456215</v>
+        <v>16.79243414377197</v>
       </c>
       <c r="H15" t="n">
-        <v>-122426.8486566267</v>
+        <v>108242.8310311724</v>
       </c>
     </row>
     <row r="16">
@@ -4870,10 +4870,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-44.62004599864864</v>
+        <v>42.02129434943254</v>
       </c>
       <c r="C16" t="n">
-        <v>738009.7207054519</v>
+        <v>660354.3328124622</v>
       </c>
       <c r="D16" t="n">
         <v>6371.85</v>
@@ -4882,13 +4882,13 @@
         <v>0.008681322334458889</v>
       </c>
       <c r="F16" t="n">
-        <v>128.1380054281601</v>
+        <v>113.6681861984683</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.8741167986887558</v>
       </c>
       <c r="H16" t="n">
-        <v>6406.900271408007</v>
+        <v>5683.409309923417</v>
       </c>
     </row>
     <row r="17">
@@ -4898,10 +4898,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-44.62004599864864</v>
+        <v>40.74734185836076</v>
       </c>
       <c r="C17" t="n">
-        <v>738009.7207054519</v>
+        <v>668742.646990894</v>
       </c>
       <c r="D17" t="n">
         <v>6452.79</v>
@@ -4910,13 +4910,13 @@
         <v>0.01270274723981255</v>
       </c>
       <c r="F17" t="n">
-        <v>187.4950188529202</v>
+        <v>167.7662835686353</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.273952491071789</v>
       </c>
       <c r="H17" t="n">
-        <v>9374.750942646011</v>
+        <v>8388.314178431763</v>
       </c>
     </row>
     <row r="18">
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-44.62004599864864</v>
+        <v>39.18108613983645</v>
       </c>
       <c r="C18" t="n">
-        <v>738009.7207054519</v>
+        <v>679217.1579127386</v>
       </c>
       <c r="D18" t="n">
         <v>6553.86</v>
@@ -4938,13 +4938,13 @@
         <v>0.01566299228705718</v>
       </c>
       <c r="F18" t="n">
-        <v>231.1888112636543</v>
+        <v>209.4902184368915</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.566255718524302</v>
       </c>
       <c r="H18" t="n">
-        <v>11559.44056318272</v>
+        <v>10474.51092184458</v>
       </c>
     </row>
     <row r="19">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-44.62004599864864</v>
+        <v>37.85913613643259</v>
       </c>
       <c r="C19" t="n">
-        <v>738009.7207054519</v>
+        <v>688174.4348393739</v>
       </c>
       <c r="D19" t="n">
         <v>6640.29</v>
@@ -4966,13 +4966,13 @@
         <v>0.01318764819510949</v>
       </c>
       <c r="F19" t="n">
-        <v>194.6522512246903</v>
+        <v>179.1455385327065</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.32195000340386</v>
       </c>
       <c r="H19" t="n">
-        <v>9732.612561234513</v>
+        <v>8957.276926635326</v>
       </c>
     </row>
     <row r="20">
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-45.45935715126785</v>
+        <v>38.6261187555841</v>
       </c>
       <c r="C20" t="n">
-        <v>732367.5938291408</v>
+        <v>683016.4610728734</v>
       </c>
       <c r="D20" t="n">
         <v>6590.52</v>
@@ -4994,13 +4994,13 @@
         <v>-0.007495154579092107</v>
       </c>
       <c r="F20" t="n">
-        <v>110.6299387511991</v>
+        <v>103.1594753300091</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8393111526192097</v>
+        <v>0.7669826191515157</v>
       </c>
       <c r="H20" t="n">
-        <v>-5531.496937559955</v>
+        <v>5157.973766500456</v>
       </c>
     </row>
     <row r="21">
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-47.37400873426805</v>
+        <v>40.37603749617108</v>
       </c>
       <c r="C21" t="n">
-        <v>719714.6804946649</v>
+        <v>671447.5518594024</v>
       </c>
       <c r="D21" t="n">
         <v>6478.89</v>
@@ -5022,13 +5022,13 @@
         <v>-0.0169379654412702</v>
       </c>
       <c r="F21" t="n">
-        <v>248.096339891684</v>
+        <v>231.3781842694201</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.914651583000205</v>
+        <v>1.749918740586981</v>
       </c>
       <c r="H21" t="n">
-        <v>-12404.8169945842</v>
+        <v>11568.90921347101</v>
       </c>
     </row>
     <row r="22">
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-49.86148604790567</v>
+        <v>42.6502808676858</v>
       </c>
       <c r="C22" t="n">
-        <v>703636.2992556815</v>
+        <v>656741.5748156728</v>
       </c>
       <c r="D22" t="n">
         <v>6336.99</v>
@@ -5050,13 +5050,13 @@
         <v>-0.02190189986247653</v>
       </c>
       <c r="F22" t="n">
-        <v>315.2623772349688</v>
+        <v>294.1195408745929</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.487477313637616</v>
+        <v>2.274243371514718</v>
       </c>
       <c r="H22" t="n">
-        <v>-15763.11886174844</v>
+        <v>14705.97704372965</v>
       </c>
     </row>
     <row r="23">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-49.86148604790567</v>
+        <v>40.58541065538144</v>
       </c>
       <c r="C23" t="n">
-        <v>703636.2992556815</v>
+        <v>670370.7717220921</v>
       </c>
       <c r="D23" t="n">
         <v>6468.5</v>
@@ -5078,13 +5078,13 @@
         <v>0.02075275485680114</v>
       </c>
       <c r="F23" t="n">
-        <v>292.0478325359985</v>
+        <v>272.5839381283836</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.064870212304367</v>
       </c>
       <c r="H23" t="n">
-        <v>14602.39162679992</v>
+        <v>13629.19690641918</v>
       </c>
     </row>
     <row r="24">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-51.86982041016157</v>
+        <v>42.46053006660445</v>
       </c>
       <c r="C24" t="n">
-        <v>690625.7774500486</v>
+        <v>658218.3906921573</v>
       </c>
       <c r="D24" t="n">
         <v>6351.24</v>
@@ -5106,13 +5106,13 @@
         <v>-0.01812785035170445</v>
       </c>
       <c r="F24" t="n">
-        <v>255.1082706986824</v>
+        <v>243.0476205986942</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.008334362255894</v>
+        <v>1.875119411223007</v>
       </c>
       <c r="H24" t="n">
-        <v>-12755.41353493412</v>
+        <v>12152.38102993471</v>
       </c>
     </row>
     <row r="25">
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-97.78781127355171</v>
+        <v>85.34856827201564</v>
       </c>
       <c r="C25" t="n">
-        <v>481476.1800315433</v>
+        <v>462791.6048474717</v>
       </c>
       <c r="D25" t="n">
         <v>4465.54</v>
@@ -5134,13 +5134,13 @@
         <v>-0.2969026520805386</v>
       </c>
       <c r="F25" t="n">
-        <v>4100.972498402065</v>
+        <v>3908.535716893712</v>
       </c>
       <c r="G25" t="n">
-        <v>-45.91799086339014</v>
+        <v>42.88803820541119</v>
       </c>
       <c r="H25" t="n">
-        <v>-205048.6249201032</v>
+        <v>195426.7858446856</v>
       </c>
     </row>
     <row r="26">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-115.9268800048451</v>
+        <v>102.435013864159</v>
       </c>
       <c r="C26" t="n">
-        <v>410753.4130571702</v>
+        <v>396146.2725182878</v>
       </c>
       <c r="D26" t="n">
         <v>3822.47</v>
@@ -5162,13 +5162,13 @@
         <v>-0.1440072197315443</v>
       </c>
       <c r="F26" t="n">
-        <v>1386.72092106614</v>
+        <v>1332.906646583677</v>
       </c>
       <c r="G26" t="n">
-        <v>-18.13906873129338</v>
+        <v>17.08644559214335</v>
       </c>
       <c r="H26" t="n">
-        <v>-69336.04605330701</v>
+        <v>66645.33232918386</v>
       </c>
     </row>
     <row r="27">
@@ -5178,10 +5178,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-115.9268800048451</v>
+        <v>98.93510530525521</v>
       </c>
       <c r="C27" t="n">
-        <v>410753.4130571702</v>
+        <v>410284.8128568863</v>
       </c>
       <c r="D27" t="n">
         <v>3958.894725</v>
@@ -5190,13 +5190,13 @@
         <v>0.03569020162355763</v>
       </c>
       <c r="F27" t="n">
-        <v>293.197442591497</v>
+        <v>282.7708067719699</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.49990855890378</v>
       </c>
       <c r="H27" t="n">
-        <v>14659.87212957485</v>
+        <v>14138.5403385985</v>
       </c>
     </row>
     <row r="28">
@@ -5206,10 +5206,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-132.2244556584357</v>
+        <v>114.8885085228719</v>
       </c>
       <c r="C28" t="n">
-        <v>353876.7068439999</v>
+        <v>354586.9505948864</v>
       </c>
       <c r="D28" t="n">
         <v>3421.458373</v>
@@ -5218,13 +5218,13 @@
         <v>-0.1357541408227268</v>
       </c>
       <c r="F28" t="n">
-        <v>1115.229533591575</v>
+        <v>1113.957245239997</v>
       </c>
       <c r="G28" t="n">
-        <v>-16.29757565359067</v>
+        <v>15.95340321761671</v>
       </c>
       <c r="H28" t="n">
-        <v>-55761.47667957874</v>
+        <v>55697.86226199984</v>
       </c>
     </row>
     <row r="29">
@@ -5234,10 +5234,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-132.2244556584357</v>
+        <v>107.0697382732452</v>
       </c>
       <c r="C29" t="n">
-        <v>353876.7068439999</v>
+        <v>384161.2484089244</v>
       </c>
       <c r="D29" t="n">
         <v>3706.82485</v>
@@ -5246,13 +5246,13 @@
         <v>0.08340492441817589</v>
       </c>
       <c r="F29" t="n">
-        <v>590.3011997535359</v>
+        <v>591.4859562807594</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.81877024962677</v>
       </c>
       <c r="H29" t="n">
-        <v>29515.0599876768</v>
+        <v>29574.29781403797</v>
       </c>
     </row>
     <row r="30">
@@ -5262,10 +5262,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-132.2244556584357</v>
+        <v>104.0693168378534</v>
       </c>
       <c r="C30" t="n">
-        <v>353876.7068439999</v>
+        <v>395855.7482208919</v>
       </c>
       <c r="D30" t="n">
         <v>3819.666691</v>
@@ -5274,13 +5274,13 @@
         <v>0.03044164360773613</v>
       </c>
       <c r="F30" t="n">
-        <v>215.4517718164872</v>
+        <v>233.8899962393493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.000421435391708</v>
       </c>
       <c r="H30" t="n">
-        <v>10772.58859082436</v>
+        <v>11694.49981196747</v>
       </c>
     </row>
     <row r="31">
@@ -5290,10 +5290,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-132.2244556584357</v>
+        <v>103.2896329204452</v>
       </c>
       <c r="C31" t="n">
-        <v>353876.7068439999</v>
+        <v>398918.1687604035</v>
       </c>
       <c r="D31" t="n">
         <v>3849.216409</v>
@@ -5302,13 +5302,13 @@
         <v>0.0077362032843405</v>
       </c>
       <c r="F31" t="n">
-        <v>54.75324283476304</v>
+        <v>61.24841079023061</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.7796839174082664</v>
       </c>
       <c r="H31" t="n">
-        <v>2737.662141738152</v>
+        <v>3062.42053951153</v>
       </c>
     </row>
     <row r="32">
@@ -5318,10 +5318,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-132.2244556584357</v>
+        <v>98.69620629365255</v>
       </c>
       <c r="C32" t="n">
-        <v>353876.7068439999</v>
+        <v>417814.7385334584</v>
       </c>
       <c r="D32" t="n">
         <v>4031.552016</v>
@@ -5330,13 +5330,13 @@
         <v>0.04736953905051276</v>
       </c>
       <c r="F32" t="n">
-        <v>335.2595296782741</v>
+        <v>377.9313954610994</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.59342662679262</v>
       </c>
       <c r="H32" t="n">
-        <v>16762.97648391371</v>
+        <v>18896.56977305497</v>
       </c>
     </row>
     <row r="33">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-141.8938267484016</v>
+        <v>109.8842996665449</v>
       </c>
       <c r="C33" t="n">
-        <v>318060.0019532355</v>
+        <v>376355.8900423073</v>
       </c>
       <c r="D33" t="n">
         <v>3631.509871</v>
@@ -5358,13 +5358,13 @@
         <v>-0.09922782675564018</v>
       </c>
       <c r="F33" t="n">
-        <v>702.2883311914577</v>
+        <v>829.1769698230222</v>
       </c>
       <c r="G33" t="n">
-        <v>-9.669371089965814</v>
+        <v>11.18809337289231</v>
       </c>
       <c r="H33" t="n">
-        <v>-35114.41655957288</v>
+        <v>41458.84849115111</v>
       </c>
     </row>
     <row r="34">
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-142.5242533056402</v>
+        <v>110.6153549758161</v>
       </c>
       <c r="C34" t="n">
-        <v>315741.5022749223</v>
+        <v>373666.2353445386</v>
       </c>
       <c r="D34" t="n">
         <v>3605.557022</v>
@@ -5386,13 +5386,13 @@
         <v>-0.007146572616324369</v>
       </c>
       <c r="F34" t="n">
-        <v>45.46077800614136</v>
+        <v>53.79309395537477</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.6304265572386414</v>
+        <v>0.7310553092712574</v>
       </c>
       <c r="H34" t="n">
-        <v>-2273.038900307068</v>
+        <v>2689.654697768739</v>
       </c>
     </row>
     <row r="35">
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-146.6349137857923</v>
+        <v>115.3828458347129</v>
       </c>
       <c r="C35" t="n">
-        <v>301301.6768934376</v>
+        <v>356912.4110975319</v>
       </c>
       <c r="D35" t="n">
         <v>3443.897062</v>
@@ -5414,13 +5414,13 @@
         <v>-0.04483633430662741</v>
       </c>
       <c r="F35" t="n">
-        <v>283.1338310095035</v>
+        <v>335.076484940133</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.110660480152056</v>
+        <v>4.767490858896791</v>
       </c>
       <c r="H35" t="n">
-        <v>-14156.69155047518</v>
+        <v>16753.82424700665</v>
       </c>
     </row>
     <row r="36">
@@ -5430,10 +5430,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-146.6349137857923</v>
+        <v>114.6452305221639</v>
       </c>
       <c r="C36" t="n">
-        <v>301301.6768934376</v>
+        <v>359523.4877906894</v>
       </c>
       <c r="D36" t="n">
         <v>3469.091701</v>
@@ -5442,13 +5442,13 @@
         <v>0.007315735211135595</v>
       </c>
       <c r="F36" t="n">
-        <v>44.08486573647043</v>
+        <v>52.22153386315033</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.7376153125490316</v>
       </c>
       <c r="H36" t="n">
-        <v>2204.243286823521</v>
+        <v>2611.076693157517</v>
       </c>
     </row>
     <row r="37">
@@ -5458,10 +5458,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-146.6349137857923</v>
+        <v>109.5161278828657</v>
       </c>
       <c r="C37" t="n">
-        <v>301301.6768934376</v>
+        <v>378645.6407225145</v>
       </c>
       <c r="D37" t="n">
         <v>3653.603991</v>
@@ -5470,13 +5470,13 @@
         <v>0.05318749283762451</v>
       </c>
       <c r="F37" t="n">
-        <v>320.5096156346794</v>
+        <v>382.4430586365015</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5.12910263929821</v>
       </c>
       <c r="H37" t="n">
-        <v>16025.48078173397</v>
+        <v>19122.15293182508</v>
       </c>
     </row>
     <row r="38">
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-146.6349137857923</v>
+        <v>101.9740197219354</v>
       </c>
       <c r="C38" t="n">
-        <v>301301.6768934376</v>
+        <v>409019.4417776057</v>
       </c>
       <c r="D38" t="n">
         <v>3946.684985</v>
@@ -5498,13 +5498,13 @@
         <v>0.08021695693401708</v>
       </c>
       <c r="F38" t="n">
-        <v>483.3900727901603</v>
+        <v>607.4760211018249</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.542108160930261</v>
       </c>
       <c r="H38" t="n">
-        <v>24169.50363950801</v>
+        <v>30373.80105509125</v>
       </c>
     </row>
     <row r="39">
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-148.4003645599098</v>
+        <v>104.3227010290207</v>
       </c>
       <c r="C39" t="n">
-        <v>294355.2824128176</v>
+        <v>399774.553352664</v>
       </c>
       <c r="D39" t="n">
         <v>3857.479782</v>
@@ -5526,13 +5526,13 @@
         <v>-0.02260256476993691</v>
       </c>
       <c r="F39" t="n">
-        <v>136.2038133454906</v>
+        <v>184.8977684988355</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.765450774117506</v>
+        <v>2.348681307085316</v>
       </c>
       <c r="H39" t="n">
-        <v>-6810.190667274528</v>
+        <v>9244.888424941773</v>
       </c>
     </row>
     <row r="40">
@@ -5542,10 +5542,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-148.4003645599098</v>
+        <v>103.290635295842</v>
       </c>
       <c r="C40" t="n">
-        <v>294355.2824128176</v>
+        <v>403878.6797042376</v>
       </c>
       <c r="D40" t="n">
         <v>3897.081063</v>
@@ -5554,13 +5554,13 @@
         <v>0.01026610202464055</v>
       </c>
       <c r="F40" t="n">
-        <v>60.43762721483738</v>
+        <v>82.08252703147113</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.032065733178742</v>
       </c>
       <c r="H40" t="n">
-        <v>3021.881360741869</v>
+        <v>4104.126351573556</v>
       </c>
     </row>
     <row r="41">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-148.4003645599098</v>
+        <v>102.8762265505765</v>
       </c>
       <c r="C41" t="n">
-        <v>294355.2824128176</v>
+        <v>405533.374684868</v>
       </c>
       <c r="D41" t="n">
         <v>3913.047443</v>
@@ -5582,13 +5582,13 @@
         <v>0.004097009977952272</v>
       </c>
       <c r="F41" t="n">
-        <v>24.11953058216545</v>
+        <v>33.09389961260901</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.4144087452654588</v>
       </c>
       <c r="H41" t="n">
-        <v>1205.976529108273</v>
+        <v>1654.694980630451</v>
       </c>
     </row>
     <row r="42">
@@ -5598,10 +5598,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-148.4003645599098</v>
+        <v>98.94055928257661</v>
       </c>
       <c r="C42" t="n">
-        <v>294355.2824128176</v>
+        <v>421881.6305740644</v>
       </c>
       <c r="D42" t="n">
         <v>4070.794018</v>
@@ -5610,13 +5610,13 @@
         <v>0.04031297276555922</v>
       </c>
       <c r="F42" t="n">
-        <v>237.3267296661282</v>
+        <v>326.9651177839281</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3.93566726799992</v>
       </c>
       <c r="H42" t="n">
-        <v>11866.33648330641</v>
+        <v>16348.25588919641</v>
       </c>
     </row>
     <row r="43">
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-149.9711242320505</v>
+        <v>101.1468086604202</v>
       </c>
       <c r="C43" t="n">
-        <v>287971.8255054844</v>
+        <v>412912.0003158038</v>
       </c>
       <c r="D43" t="n">
         <v>3984.244819</v>
@@ -5638,13 +5638,13 @@
         <v>-0.02126101163981814</v>
       </c>
       <c r="F43" t="n">
-        <v>125.1658217124174</v>
+        <v>179.3926051652128</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.570759672140737</v>
+        <v>2.206249377843622</v>
       </c>
       <c r="H43" t="n">
-        <v>-6258.291085620871</v>
+        <v>8969.630258260639</v>
       </c>
     </row>
     <row r="44">
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-149.9711242320505</v>
+        <v>82.50489477071326</v>
       </c>
       <c r="C44" t="n">
-        <v>287971.8255054844</v>
+        <v>505740.3261329071</v>
       </c>
       <c r="D44" t="n">
         <v>4879.958133</v>
@@ -5666,13 +5666,13 @@
         <v>0.2248138241225884</v>
       </c>
       <c r="F44" t="n">
-        <v>1294.800946629014</v>
+        <v>1856.566516342066</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.64191388970697</v>
       </c>
       <c r="H44" t="n">
-        <v>64740.04733145068</v>
+        <v>92828.32581710328</v>
       </c>
     </row>
     <row r="45">
@@ -5682,10 +5682,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-149.9711242320505</v>
+        <v>76.1788286228262</v>
       </c>
       <c r="C45" t="n">
-        <v>287971.8255054844</v>
+        <v>539333.7081930889</v>
       </c>
       <c r="D45" t="n">
         <v>5204.105308</v>
@@ -5694,13 +5694,13 @@
         <v>0.06642417130753693</v>
       </c>
       <c r="F45" t="n">
-        <v>382.5657973824085</v>
+        <v>671.8676412036364</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.326066147887063</v>
       </c>
       <c r="H45" t="n">
-        <v>19128.28986912042</v>
+        <v>33593.38206018182</v>
       </c>
     </row>
     <row r="46">
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-149.9711242320505</v>
+        <v>75.55755527154766</v>
       </c>
       <c r="C46" t="n">
-        <v>287971.8255054844</v>
+        <v>542653.1686913568</v>
       </c>
       <c r="D46" t="n">
         <v>5236.13524</v>
@@ -5722,13 +5722,13 @@
         <v>0.006154743246790474</v>
       </c>
       <c r="F46" t="n">
-        <v>35.4478529659161</v>
+        <v>66.38920996535757</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.6212733512785511</v>
       </c>
       <c r="H46" t="n">
-        <v>1772.392648295805</v>
+        <v>3319.460498267878</v>
       </c>
     </row>
     <row r="47">
@@ -5738,10 +5738,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-149.9711242320505</v>
+        <v>69.44401459875374</v>
       </c>
       <c r="C47" t="n">
-        <v>287971.8255054844</v>
+        <v>577409.9460881867</v>
       </c>
       <c r="D47" t="n">
         <v>5571.508177</v>
@@ -5750,13 +5750,13 @@
         <v>0.06404970873135815</v>
       </c>
       <c r="F47" t="n">
-        <v>368.8902309292753</v>
+        <v>695.1355479365992</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>6.113540672793913</v>
       </c>
       <c r="H47" t="n">
-        <v>18444.51154646377</v>
+        <v>34756.77739682996</v>
       </c>
     </row>
     <row r="48">
@@ -5766,10 +5766,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-152.1019221471068</v>
+        <v>73.63101111813843</v>
       </c>
       <c r="C48" t="n">
-        <v>276342.0736829946</v>
+        <v>554548.4558717101</v>
       </c>
       <c r="D48" t="n">
         <v>5350.914506</v>
@@ -5778,13 +5778,13 @@
         <v>-0.03959317010619181</v>
       </c>
       <c r="F48" t="n">
-        <v>228.0343494605846</v>
+        <v>457.2298043295323</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.130797915056284</v>
+        <v>4.186996519384697</v>
       </c>
       <c r="H48" t="n">
-        <v>-11401.71747302923</v>
+        <v>22861.49021647662</v>
       </c>
     </row>
     <row r="49">
@@ -5794,10 +5794,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-152.1019221471068</v>
+        <v>64.97448593696599</v>
       </c>
       <c r="C49" t="n">
-        <v>276342.0736829946</v>
+        <v>606218.029956479</v>
       </c>
       <c r="D49" t="n">
         <v>5849.48135</v>
@@ -5806,13 +5806,13 @@
         <v>0.09317413751256072</v>
       </c>
       <c r="F49" t="n">
-        <v>514.9586874769105</v>
+        <v>1033.391481695378</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>8.656525181172437</v>
       </c>
       <c r="H49" t="n">
-        <v>25747.93437384552</v>
+        <v>51669.57408476892</v>
       </c>
     </row>
     <row r="50">
@@ -5822,10 +5822,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-152.1019221471068</v>
+        <v>37.77148138986809</v>
       </c>
       <c r="C50" t="n">
-        <v>276342.0736829946</v>
+        <v>827988.4289238086</v>
       </c>
       <c r="D50" t="n">
         <v>7989.374505</v>
@@ -5834,13 +5834,13 @@
         <v>0.3658261351666673</v>
       </c>
       <c r="F50" t="n">
-        <v>2021.863055987847</v>
+        <v>4435.407979346593</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>27.2030045470979</v>
       </c>
       <c r="H50" t="n">
-        <v>101093.1527993923</v>
+        <v>221770.3989673297</v>
       </c>
     </row>
     <row r="51">
@@ -5850,10 +5850,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-152.245742364856</v>
+        <v>38.19378352093143</v>
       </c>
       <c r="C51" t="n">
-        <v>275174.9125002624</v>
+        <v>824559.899199436</v>
       </c>
       <c r="D51" t="n">
         <v>7956.292149</v>
@@ -5862,13 +5862,13 @@
         <v>-0.004140794248573017</v>
       </c>
       <c r="F51" t="n">
-        <v>22.8855133869057</v>
+        <v>68.5705944874543</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1438202177491817</v>
+        <v>0.422302131063345</v>
       </c>
       <c r="H51" t="n">
-        <v>-1144.275669345285</v>
+        <v>3428.529724372715</v>
       </c>
     </row>
     <row r="52">
@@ -5878,10 +5878,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-152.245742364856</v>
+        <v>29.3137072632371</v>
       </c>
       <c r="C52" t="n">
-        <v>275174.9125002624</v>
+        <v>903561.6908945304</v>
       </c>
       <c r="D52" t="n">
         <v>8718.591329000001</v>
@@ -5890,13 +5890,13 @@
         <v>0.09581085834006381</v>
       </c>
       <c r="F52" t="n">
-        <v>527.2948912060418</v>
+        <v>1580.035833901889</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>8.880076257694331</v>
       </c>
       <c r="H52" t="n">
-        <v>26364.74456030209</v>
+        <v>79001.79169509445</v>
       </c>
     </row>
     <row r="53">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-156.4007432436655</v>
+        <v>42.68416169129981</v>
       </c>
       <c r="C53" t="n">
-        <v>242523.1287630411</v>
+        <v>798448.864990096</v>
       </c>
       <c r="D53" t="n">
         <v>7704.34318</v>
@@ -5918,13 +5918,13 @@
         <v>-0.1163316539022058</v>
       </c>
       <c r="F53" t="n">
-        <v>640.231053671006</v>
+        <v>2102.256518088688</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.155000878809542</v>
+        <v>13.37045442806271</v>
       </c>
       <c r="H53" t="n">
-        <v>-32011.5526835503</v>
+        <v>105112.8259044344</v>
       </c>
     </row>
     <row r="54">
@@ -5934,10 +5934,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-156.4007432436655</v>
+        <v>39.85090828694039</v>
       </c>
       <c r="C54" t="n">
-        <v>242523.1287630411</v>
+        <v>821361.8886188554</v>
       </c>
       <c r="D54" t="n">
         <v>7925.434104</v>
@@ -5946,13 +5946,13 @@
         <v>0.02869692053359442</v>
       </c>
       <c r="F54" t="n">
-        <v>139.1933390734335</v>
+        <v>458.2604725751888</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2.833253404359421</v>
       </c>
       <c r="H54" t="n">
-        <v>6959.666953671676</v>
+        <v>22913.02362875944</v>
       </c>
     </row>
     <row r="55">
@@ -5962,10 +5962,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-156.4007432436655</v>
+        <v>26.94904540160256</v>
       </c>
       <c r="C55" t="n">
-        <v>242523.1287630411</v>
+        <v>940884.8464833837</v>
       </c>
       <c r="D55" t="n">
         <v>9078.727602999999</v>
@@ -5974,13 +5974,13 @@
         <v>0.1455180225923432</v>
       </c>
       <c r="F55" t="n">
-        <v>705.8297226101195</v>
+        <v>2390.459157290566</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>12.90186288533783</v>
       </c>
       <c r="H55" t="n">
-        <v>35291.48613050597</v>
+        <v>119522.9578645283</v>
       </c>
     </row>
     <row r="56">
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-156.4007432436655</v>
+        <v>3.668948182417253</v>
       </c>
       <c r="C56" t="n">
-        <v>242523.1287630411</v>
+        <v>940884.8464833837</v>
       </c>
       <c r="D56" t="n">
         <v>11778.58113</v>
@@ -6002,13 +6002,13 @@
         <v>0.297382369541284</v>
       </c>
       <c r="F56" t="n">
-        <v>1442.442054002382</v>
+        <v>5596.051302254317</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>23.28009721918531</v>
       </c>
       <c r="H56" t="n">
-        <v>72122.10270011908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-158.2287194926939</v>
+        <v>10.61887027022083</v>
       </c>
       <c r="C57" t="n">
-        <v>222352.290227848</v>
+        <v>864165.1117050991</v>
       </c>
       <c r="D57" t="n">
         <v>10818.15582</v>
@@ -6030,13 +6030,13 @@
         <v>-0.08153998341564257</v>
       </c>
       <c r="F57" t="n">
-        <v>395.5066379449623</v>
+        <v>1534.39469556569</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.827976249028378</v>
+        <v>6.949922087803579</v>
       </c>
       <c r="H57" t="n">
-        <v>-19775.33189724812</v>
+        <v>76719.73477828452</v>
       </c>
     </row>
     <row r="58">
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-158.2287194926939</v>
+        <v>10.61887027022083</v>
       </c>
       <c r="C58" t="n">
-        <v>222352.290227848</v>
+        <v>864165.1117050991</v>
       </c>
       <c r="D58" t="n">
         <v>12571.53716</v>
@@ -6058,13 +6058,13 @@
         <v>0.1620776562266229</v>
       </c>
       <c r="F58" t="n">
-        <v>720.7667611350287</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>36038.33805675143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-164.0183991977122</v>
+        <v>32.67024837754349</v>
       </c>
       <c r="C59" t="n">
-        <v>166420.2888347035</v>
+        <v>651049.477958753</v>
       </c>
       <c r="D59" t="n">
         <v>9471.214001</v>
@@ -6086,13 +6086,13 @@
         <v>-0.2466144847317939</v>
       </c>
       <c r="F59" t="n">
-        <v>1096.705909669501</v>
+        <v>4262.312674926923</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.789679705018316</v>
+        <v>22.05137810732266</v>
       </c>
       <c r="H59" t="n">
-        <v>-54835.29548347503</v>
+        <v>213115.6337463461</v>
       </c>
     </row>
     <row r="60">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-164.0183991977122</v>
+        <v>29.8325230707403</v>
       </c>
       <c r="C60" t="n">
-        <v>166420.2888347035</v>
+        <v>679680.7677984237</v>
       </c>
       <c r="D60" t="n">
         <v>9887.730844</v>
@@ -6114,13 +6114,13 @@
         <v>0.0439771335497247</v>
       </c>
       <c r="F60" t="n">
-        <v>146.3737453493503</v>
+        <v>572.6257967934125</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2.837725306803185</v>
       </c>
       <c r="H60" t="n">
-        <v>7318.687267467514</v>
+        <v>28631.28983967063</v>
       </c>
     </row>
     <row r="61">
@@ -6130,10 +6130,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-164.5155445764646</v>
+        <v>31.8223174161402</v>
       </c>
       <c r="C61" t="n">
-        <v>161550.1869906851</v>
+        <v>660180.6793401486</v>
       </c>
       <c r="D61" t="n">
         <v>9604.051159000001</v>
@@ -6142,13 +6142,13 @@
         <v>-0.02869006948870777</v>
       </c>
       <c r="F61" t="n">
-        <v>95.49219301996924</v>
+        <v>390.0017691655006</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4971453787523979</v>
+        <v>1.989794345399897</v>
       </c>
       <c r="H61" t="n">
-        <v>-4774.609650998462</v>
+        <v>19500.08845827503</v>
       </c>
     </row>
     <row r="62">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-164.5155445764646</v>
+        <v>20.83288119789371</v>
       </c>
       <c r="C62" t="n">
-        <v>161550.1869906851</v>
+        <v>788871.3893780452</v>
       </c>
       <c r="D62" t="n">
         <v>11476.19344</v>
@@ -6170,13 +6170,13 @@
         <v>0.1949325602296074</v>
       </c>
       <c r="F62" t="n">
-        <v>629.8278311133212</v>
+        <v>2573.814200757933</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>10.98943621824649</v>
       </c>
       <c r="H62" t="n">
-        <v>31491.39155566606</v>
+        <v>128690.7100378967</v>
       </c>
     </row>
     <row r="63">
@@ -6186,10 +6186,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-165.2739867292595</v>
+        <v>24.46238518958637</v>
       </c>
       <c r="C63" t="n">
-        <v>153125.9595358392</v>
+        <v>748541.3493578224</v>
       </c>
       <c r="D63" t="n">
         <v>10889.48774</v>
@@ -6198,13 +6198,13 @@
         <v>-0.05112371999194871</v>
       </c>
       <c r="F63" t="n">
-        <v>165.1809304871748</v>
+        <v>806.6008004044545</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.7584421527948512</v>
+        <v>3.629503991692658</v>
       </c>
       <c r="H63" t="n">
-        <v>-8259.046524358739</v>
+        <v>40330.04002022272</v>
       </c>
     </row>
     <row r="64">
@@ -6214,10 +6214,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-165.4371638002053</v>
+        <v>25.24410691420751</v>
       </c>
       <c r="C64" t="n">
-        <v>151334.2974554847</v>
+        <v>739954.7163221696</v>
       </c>
       <c r="D64" t="n">
         <v>10764.57275</v>
@@ -6226,13 +6226,13 @@
         <v>-0.01147115392225063</v>
       </c>
       <c r="F64" t="n">
-        <v>35.13062902655864</v>
+        <v>171.7326607130553</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.163177070945796</v>
+        <v>0.7817217246211383</v>
       </c>
       <c r="H64" t="n">
-        <v>-1756.531451327932</v>
+        <v>8586.633035652763</v>
       </c>
     </row>
     <row r="65">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-166.2103255270644</v>
+        <v>28.94890207545435</v>
       </c>
       <c r="C65" t="n">
-        <v>143287.6203892253</v>
+        <v>701381.6487336224</v>
       </c>
       <c r="D65" t="n">
         <v>10203.4268</v>
@@ -6254,13 +6254,13 @@
         <v>-0.05212895699924552</v>
       </c>
       <c r="F65" t="n">
-        <v>157.7779816913598</v>
+        <v>771.4613517709461</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.7731617268590579</v>
+        <v>3.704795161246843</v>
       </c>
       <c r="H65" t="n">
-        <v>-7888.899084567991</v>
+        <v>38573.0675885473</v>
       </c>
     </row>
     <row r="66">
@@ -6270,10 +6270,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-166.2103255270644</v>
+        <v>26.29929321760708</v>
       </c>
       <c r="C66" t="n">
-        <v>143287.6203892253</v>
+        <v>730097.9482062359</v>
       </c>
       <c r="D66" t="n">
         <v>10621.18033</v>
@@ -6282,13 +6282,13 @@
         <v>0.0409424733659088</v>
       </c>
       <c r="F66" t="n">
-        <v>117.3309916290061</v>
+        <v>574.3259894522706</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2.649608857847277</v>
       </c>
       <c r="H66" t="n">
-        <v>5866.549581450307</v>
+        <v>28716.29947261353</v>
       </c>
     </row>
     <row r="67">
@@ -6298,10 +6298,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-166.8741931059315</v>
+        <v>29.61426619836461</v>
       </c>
       <c r="C67" t="n">
-        <v>136432.8587410921</v>
+        <v>695855.5128866235</v>
       </c>
       <c r="D67" t="n">
         <v>10123.03473</v>
@@ -6310,13 +6310,13 @@
         <v>-0.04690115265183525</v>
       </c>
       <c r="F67" t="n">
-        <v>134.4070911398655</v>
+        <v>684.8487063922474</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6638675788671602</v>
+        <v>3.314972980757533</v>
       </c>
       <c r="H67" t="n">
-        <v>-6720.354556993277</v>
+        <v>34242.43531961237</v>
       </c>
     </row>
     <row r="68">
@@ -6326,10 +6326,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-166.8741931059315</v>
+        <v>28.79413371834855</v>
       </c>
       <c r="C68" t="n">
-        <v>136432.8587410921</v>
+        <v>704431.5847374288</v>
       </c>
       <c r="D68" t="n">
         <v>10247.79608</v>
@@ -6338,13 +6338,13 @@
         <v>0.01232450083671704</v>
       </c>
       <c r="F68" t="n">
-        <v>33.62933763420577</v>
+        <v>171.5214370161072</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.8201324800160593</v>
       </c>
       <c r="H68" t="n">
-        <v>1681.466881710288</v>
+        <v>8576.071850805358</v>
       </c>
     </row>
     <row r="69">
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-169.4187713061966</v>
+        <v>41.66956303374945</v>
       </c>
       <c r="C69" t="n">
-        <v>114102.9197538595</v>
+        <v>591398.0768431131</v>
       </c>
       <c r="D69" t="n">
         <v>8603.428672</v>
@@ -6366,13 +6366,13 @@
         <v>-0.1604605902735723</v>
       </c>
       <c r="F69" t="n">
-        <v>437.841940926131</v>
+        <v>2260.670157886315</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.544578200265057</v>
+        <v>12.8754293154009</v>
       </c>
       <c r="H69" t="n">
-        <v>-21892.09704630655</v>
+        <v>113033.5078943158</v>
       </c>
     </row>
     <row r="70">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-169.8307755362583</v>
+        <v>43.76228195486605</v>
       </c>
       <c r="C70" t="n">
-        <v>110596.3118277783</v>
+        <v>573579.6159325185</v>
       </c>
       <c r="D70" t="n">
         <v>8344.212648999999</v>
@@ -6394,13 +6394,13 @@
         <v>-0.03012938595558114</v>
       </c>
       <c r="F70" t="n">
-        <v>68.7570181584547</v>
+        <v>356.3692182118917</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.412004230061747</v>
+        <v>2.092718921116592</v>
       </c>
       <c r="H70" t="n">
-        <v>-3437.850907922735</v>
+        <v>17818.46091059459</v>
       </c>
     </row>
     <row r="71">
@@ -6410,10 +6410,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-170.0149732748833</v>
+        <v>44.69847074002055</v>
       </c>
       <c r="C71" t="n">
-        <v>109050.0754655747</v>
+        <v>565717.6931333358</v>
       </c>
       <c r="D71" t="n">
         <v>8229.840461</v>
@@ -6422,13 +6422,13 @@
         <v>-0.01370676812913033</v>
       </c>
       <c r="F71" t="n">
-        <v>30.31836004320703</v>
+        <v>157.2384559836532</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1841977386249543</v>
+        <v>0.9361887851545083</v>
       </c>
       <c r="H71" t="n">
-        <v>-1515.918002160351</v>
+        <v>7861.922799182661</v>
       </c>
     </row>
     <row r="72">
@@ -6438,10 +6438,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-170.0556163323224</v>
+        <v>44.90509734404819</v>
       </c>
       <c r="C72" t="n">
-        <v>108709.9431466335</v>
+        <v>563987.7910586218</v>
       </c>
       <c r="D72" t="n">
         <v>8204.67452</v>
@@ -6450,13 +6450,13 @@
         <v>-0.003057889289501659</v>
       </c>
       <c r="F72" t="n">
-        <v>6.66926115571057</v>
+        <v>34.59804149428027</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.04064305743910589</v>
+        <v>0.2066266040276431</v>
       </c>
       <c r="H72" t="n">
-        <v>-333.4630577855285</v>
+        <v>1729.902074714013</v>
       </c>
     </row>
     <row r="73">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-170.2663432826964</v>
+        <v>45.97648488544113</v>
       </c>
       <c r="C73" t="n">
-        <v>106974.0265715657</v>
+        <v>555158.4333444225</v>
       </c>
       <c r="D73" t="n">
         <v>8076.228466</v>
@@ -6478,13 +6478,13 @@
         <v>-0.0156552284538401</v>
       </c>
       <c r="F73" t="n">
-        <v>34.03757990329033</v>
+        <v>176.5871542839873</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2107269503740803</v>
+        <v>1.071387541392935</v>
       </c>
       <c r="H73" t="n">
-        <v>-1701.878995164516</v>
+        <v>8829.357714199365</v>
       </c>
     </row>
     <row r="74">
@@ -6494,10 +6494,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-170.2663432826964</v>
+        <v>36.35170519715911</v>
       </c>
       <c r="C74" t="n">
-        <v>106974.0265715657</v>
+        <v>647698.3656138534</v>
       </c>
       <c r="D74" t="n">
         <v>9422.463325000001</v>
@@ -6506,13 +6506,13 @@
         <v>0.1666910321652608</v>
       </c>
       <c r="F74" t="n">
-        <v>356.6322180817664</v>
+        <v>1850.798645388619</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>9.624779688282025</v>
       </c>
       <c r="H74" t="n">
-        <v>17831.61090408832</v>
+        <v>92539.93226943094</v>
       </c>
     </row>
     <row r="75">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-170.365520496067</v>
+        <v>36.94018618309307</v>
       </c>
       <c r="C75" t="n">
-        <v>106029.0976640069</v>
+        <v>642089.2625312313</v>
       </c>
       <c r="D75" t="n">
         <v>9340.86428</v>
@@ -6534,13 +6534,13 @@
         <v>-0.008660054402493612</v>
       </c>
       <c r="F75" t="n">
-        <v>18.52801779527112</v>
+        <v>112.1820616524434</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.09917721337061927</v>
+        <v>0.5884809859339617</v>
       </c>
       <c r="H75" t="n">
-        <v>-926.4008897635559</v>
+        <v>5609.103082622169</v>
       </c>
     </row>
     <row r="76">
@@ -6550,10 +6550,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-171.0467265148982</v>
+        <v>40.98291764362313</v>
       </c>
       <c r="C76" t="n">
-        <v>99906.2311108648</v>
+        <v>605737.5425483668</v>
       </c>
       <c r="D76" t="n">
         <v>8812.033629</v>
@@ -6562,13 +6562,13 @@
         <v>-0.05661474518287297</v>
       </c>
       <c r="F76" t="n">
-        <v>120.056206924354</v>
+        <v>727.0343996572898</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6812060188311954</v>
+        <v>4.042731460530063</v>
       </c>
       <c r="H76" t="n">
-        <v>-6002.8103462177</v>
+        <v>36351.71998286449</v>
       </c>
     </row>
     <row r="77">
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-171.8875697957097</v>
+        <v>45.97903980923068</v>
       </c>
       <c r="C77" t="n">
-        <v>92870.31902966983</v>
+        <v>563914.8347456441</v>
       </c>
       <c r="D77" t="n">
         <v>8203.61318</v>
@@ -6590,13 +6590,13 @@
         <v>-0.06904427225489873</v>
       </c>
       <c r="F77" t="n">
-        <v>137.9590604155877</v>
+        <v>836.4541560544549</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.840843280811466</v>
+        <v>4.996122165607556</v>
       </c>
       <c r="H77" t="n">
-        <v>-6897.953020779383</v>
+        <v>41822.70780272274</v>
       </c>
     </row>
     <row r="78">
@@ -6606,10 +6606,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-173.4282657018302</v>
+        <v>55.14714497612834</v>
       </c>
       <c r="C78" t="n">
-        <v>81522.63414850953</v>
+        <v>496361.9845448112</v>
       </c>
       <c r="D78" t="n">
         <v>7220.88065</v>
@@ -6618,13 +6618,13 @@
         <v>-0.119792646049652</v>
       </c>
       <c r="F78" t="n">
-        <v>222.50362512079</v>
+        <v>1351.057004016659</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.540695906120467</v>
+        <v>9.168105166897654</v>
       </c>
       <c r="H78" t="n">
-        <v>-11125.1812560395</v>
+        <v>67552.85020083295</v>
       </c>
     </row>
     <row r="79">
@@ -6634,10 +6634,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-173.4282657018302</v>
+        <v>54.23382701079046</v>
       </c>
       <c r="C79" t="n">
-        <v>81522.63414850953</v>
+        <v>503184.0271277683</v>
       </c>
       <c r="D79" t="n">
         <v>7320.125066</v>
@@ -6646,13 +6646,13 @@
         <v>0.01374408757192234</v>
       </c>
       <c r="F79" t="n">
-        <v>22.40908445661804</v>
+        <v>136.440851659141</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.9133179653378766</v>
       </c>
       <c r="H79" t="n">
-        <v>1120.454222830902</v>
+        <v>6822.04258295705</v>
       </c>
     </row>
     <row r="80">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-173.4939603181837</v>
+        <v>54.63120563236438</v>
       </c>
       <c r="C80" t="n">
-        <v>81034.99998332604</v>
+        <v>500233.2079537382</v>
       </c>
       <c r="D80" t="n">
         <v>7277.197699</v>
@@ -6674,13 +6674,13 @@
         <v>-0.005864294204396224</v>
       </c>
       <c r="F80" t="n">
-        <v>9.561454219284363</v>
+        <v>59.01638348060247</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.06569461635347804</v>
+        <v>0.3973786215739198</v>
       </c>
       <c r="H80" t="n">
-        <v>-478.0727109642181</v>
+        <v>2950.819174030124</v>
       </c>
     </row>
     <row r="81">
@@ -6690,10 +6690,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-174.5484257667421</v>
+        <v>61.01028950272837</v>
       </c>
       <c r="C81" t="n">
-        <v>73885.03626837092</v>
+        <v>456961.5486898185</v>
       </c>
       <c r="D81" t="n">
         <v>6647.698469</v>
@@ -6702,13 +6702,13 @@
         <v>-0.08650297216557733</v>
       </c>
       <c r="F81" t="n">
-        <v>140.1953669599042</v>
+        <v>865.4331852783934</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.054465448558421</v>
+        <v>6.379083870363988</v>
       </c>
       <c r="H81" t="n">
-        <v>-7009.768347995211</v>
+        <v>43271.65926391967</v>
       </c>
     </row>
     <row r="82">
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-174.5484257667421</v>
+        <v>54.77511730092131</v>
       </c>
       <c r="C82" t="n">
-        <v>73885.03626837092</v>
+        <v>503571.0889844996</v>
       </c>
       <c r="D82" t="n">
         <v>7325.755891</v>
@@ -6730,13 +6730,13 @@
         <v>0.101998823376536</v>
       </c>
       <c r="F82" t="n">
-        <v>150.7237352901305</v>
+        <v>932.1908058936232</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>6.235172201807064</v>
       </c>
       <c r="H82" t="n">
-        <v>7536.186764506523</v>
+        <v>46609.54029468116</v>
       </c>
     </row>
     <row r="83">
@@ -6746,10 +6746,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-174.7318681549063</v>
+        <v>56.00038241659985</v>
       </c>
       <c r="C83" t="n">
-        <v>72538.79113931254</v>
+        <v>494575.5276139467</v>
       </c>
       <c r="D83" t="n">
         <v>7194.891971</v>
@@ -6758,13 +6758,13 @@
         <v>-0.01786353817232316</v>
       </c>
       <c r="F83" t="n">
-        <v>26.39696331487051</v>
+        <v>179.9112274110591</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1834423881641802</v>
+        <v>1.225265115678537</v>
       </c>
       <c r="H83" t="n">
-        <v>-1319.848165743525</v>
+        <v>8995.561370552954</v>
       </c>
     </row>
     <row r="84">
@@ -6774,10 +6774,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-174.7318681549063</v>
+        <v>48.01883171478481</v>
       </c>
       <c r="C84" t="n">
-        <v>72538.79113931254</v>
+        <v>561049.9172411084</v>
       </c>
       <c r="D84" t="n">
         <v>8161.935477</v>
@@ -6786,13 +6786,13 @@
         <v>0.1344069528629202</v>
       </c>
       <c r="F84" t="n">
-        <v>194.9943576278959</v>
+        <v>1329.487792543232</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>7.981550701815037</v>
       </c>
       <c r="H84" t="n">
-        <v>9749.717881394794</v>
+        <v>66474.38962716162</v>
       </c>
     </row>
     <row r="85">
@@ -6802,10 +6802,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-174.7318681549063</v>
+        <v>42.95494904464486</v>
       </c>
       <c r="C85" t="n">
-        <v>72538.79113931254</v>
+        <v>606652.4733069252</v>
       </c>
       <c r="D85" t="n">
         <v>8825.343685</v>
@@ -6814,13 +6814,13 @@
         <v>0.08128074644420517</v>
       </c>
       <c r="F85" t="n">
-        <v>117.9201417992724</v>
+        <v>912.0511213163365</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>5.063882670139944</v>
       </c>
       <c r="H85" t="n">
-        <v>5896.007089963619</v>
+        <v>45602.55606581683</v>
       </c>
     </row>
     <row r="86">
@@ -6830,10 +6830,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-174.808131394881</v>
+        <v>43.5799936142868</v>
       </c>
       <c r="C86" t="n">
-        <v>71858.5920595614</v>
+        <v>601075.4106072137</v>
       </c>
       <c r="D86" t="n">
         <v>8744.210751000001</v>
@@ -6842,13 +6842,13 @@
         <v>-0.009193175574328843</v>
       </c>
       <c r="F86" t="n">
-        <v>13.33723685786539</v>
+        <v>111.5412539942281</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07626323997474629</v>
+        <v>0.625044569641935</v>
       </c>
       <c r="H86" t="n">
-        <v>-666.8618428932696</v>
+        <v>5577.062699711405</v>
       </c>
     </row>
     <row r="87">
@@ -6858,10 +6858,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-174.808131394881</v>
+        <v>39.16509905976633</v>
       </c>
       <c r="C87" t="n">
-        <v>71858.5920595614</v>
+        <v>643230.7626687788</v>
       </c>
       <c r="D87" t="n">
         <v>9357.470379</v>
@@ -6870,13 +6870,13 @@
         <v>0.07013321676057116</v>
       </c>
       <c r="F87" t="n">
-        <v>100.7934842604536</v>
+        <v>843.1070412313007</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>4.414894554520473</v>
       </c>
       <c r="H87" t="n">
-        <v>5039.674213022678</v>
+        <v>42155.35206156503</v>
       </c>
     </row>
     <row r="88">
@@ -6886,10 +6886,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-174.9536778076025</v>
+        <v>40.44187792263818</v>
       </c>
       <c r="C88" t="n">
-        <v>70495.24657223166</v>
+        <v>631266.2819003732</v>
       </c>
       <c r="D88" t="n">
         <v>9183.415777</v>
@@ -6898,13 +6898,13 @@
         <v>-0.01860060411097991</v>
       </c>
       <c r="F88" t="n">
-        <v>26.73226445744613</v>
+        <v>239.2896153681126</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1455464127214924</v>
+        <v>1.276778862871855</v>
       </c>
       <c r="H88" t="n">
-        <v>-1336.613222872306</v>
+        <v>11964.48076840563</v>
       </c>
     </row>
     <row r="89">
@@ -6914,10 +6914,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-174.9536778076025</v>
+        <v>33.7137413829935</v>
       </c>
       <c r="C89" t="n">
-        <v>70495.24657223166</v>
+        <v>701310.2177570922</v>
       </c>
       <c r="D89" t="n">
         <v>10202.38765</v>
@@ -6926,13 +6926,13 @@
         <v>0.1109578285186684</v>
       </c>
       <c r="F89" t="n">
-        <v>156.4399896108586</v>
+        <v>1400.87871713438</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>6.728136539644681</v>
       </c>
       <c r="H89" t="n">
-        <v>7821.99948054293</v>
+        <v>70043.93585671902</v>
       </c>
     </row>
     <row r="90">
@@ -6942,10 +6942,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-174.9935872482033</v>
+        <v>34.10283315644557</v>
       </c>
       <c r="C90" t="n">
-        <v>70082.31658775466</v>
+        <v>697282.8009270589</v>
       </c>
       <c r="D90" t="n">
         <v>10143.79836</v>
@@ -6954,13 +6954,13 @@
         <v>-0.005742703767975321</v>
       </c>
       <c r="F90" t="n">
-        <v>8.096666362294082</v>
+        <v>80.54833660066494</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03990944060077945</v>
+        <v>0.3890917734520682</v>
       </c>
       <c r="H90" t="n">
-        <v>-404.8333181147041</v>
+        <v>4027.416830033247</v>
       </c>
     </row>
     <row r="91">
@@ -6970,10 +6970,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-175.5895380011272</v>
+        <v>39.91364686576618</v>
       </c>
       <c r="C91" t="n">
-        <v>64405.85224189935</v>
+        <v>641912.3262529371</v>
       </c>
       <c r="D91" t="n">
         <v>9338.290279999999</v>
@@ -6982,13 +6982,13 @@
         <v>-0.07940892074278194</v>
       </c>
       <c r="F91" t="n">
-        <v>111.3032224677512</v>
+        <v>1107.409493482436</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5959507529238599</v>
+        <v>5.810813709320609</v>
       </c>
       <c r="H91" t="n">
-        <v>-5565.161123387562</v>
+        <v>55370.47467412182</v>
       </c>
     </row>
     <row r="92">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-176.0209625484852</v>
+        <v>44.12751859720373</v>
       </c>
       <c r="C92" t="n">
-        <v>60538.4275506765</v>
+        <v>604122.7451528026</v>
       </c>
       <c r="D92" t="n">
         <v>8788.542186000001</v>
@@ -7010,13 +7010,13 @@
         <v>-0.05887031539139504</v>
       </c>
       <c r="F92" t="n">
-        <v>75.83185669064403</v>
+        <v>755.7916220026896</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4314245473580527</v>
+        <v>4.213871731437552</v>
       </c>
       <c r="H92" t="n">
-        <v>-3791.592834532202</v>
+        <v>37789.58110013448</v>
       </c>
     </row>
     <row r="93">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-176.7859443497932</v>
+        <v>51.60871799411598</v>
       </c>
       <c r="C93" t="n">
-        <v>54366.3313066286</v>
+        <v>543738.0930164249</v>
       </c>
       <c r="D93" t="n">
         <v>7910.089807</v>
@@ -7038,13 +7038,13 @@
         <v>-0.0999542768764722</v>
       </c>
       <c r="F93" t="n">
-        <v>121.0214949813314</v>
+        <v>1207.693042727554</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.7649818013079571</v>
+        <v>7.481199396912248</v>
       </c>
       <c r="H93" t="n">
-        <v>-6051.074749066571</v>
+        <v>60384.65213637768</v>
       </c>
     </row>
     <row r="94">
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-180.3137404349428</v>
+        <v>86.18587500274188</v>
       </c>
       <c r="C94" t="n">
-        <v>35557.3362737686</v>
+        <v>359310.8167649037</v>
       </c>
       <c r="D94" t="n">
         <v>5227.113689</v>
@@ -7066,13 +7066,13 @@
         <v>-0.3391840274209924</v>
       </c>
       <c r="F94" t="n">
-        <v>368.8038241737254</v>
+        <v>3688.545525030424</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.527796085149636</v>
+        <v>34.5771570086259</v>
       </c>
       <c r="H94" t="n">
-        <v>-18440.19120868627</v>
+        <v>184427.2762515212</v>
       </c>
     </row>
     <row r="95">
@@ -7082,10 +7082,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-180.3137404349428</v>
+        <v>71.07481405052863</v>
       </c>
       <c r="C95" t="n">
-        <v>35557.3362737686</v>
+        <v>463218.1207309584</v>
       </c>
       <c r="D95" t="n">
         <v>6738.71664</v>
@@ -7094,13 +7094,13 @@
         <v>0.2891850150841438</v>
       </c>
       <c r="F95" t="n">
-        <v>205.652976533635</v>
+        <v>2078.146079321094</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>15.11106095221324</v>
       </c>
       <c r="H95" t="n">
-        <v>10282.64882668175</v>
+        <v>103907.3039660547</v>
       </c>
     </row>
     <row r="96">
@@ -7110,10 +7110,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-180.560791378062</v>
+        <v>74.22886651556925</v>
       </c>
       <c r="C96" t="n">
-        <v>33935.18357487899</v>
+        <v>442500.1181408318</v>
       </c>
       <c r="D96" t="n">
         <v>6437.319215</v>
@@ -7122,13 +7122,13 @@
         <v>-0.04472623514260116</v>
       </c>
       <c r="F96" t="n">
-        <v>31.80691566450233</v>
+        <v>414.3600518025332</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2470509431192028</v>
+        <v>3.154052465040624</v>
       </c>
       <c r="H96" t="n">
-        <v>-1590.345783225117</v>
+        <v>20718.00259012666</v>
       </c>
     </row>
     <row r="97">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-180.560791378062</v>
+        <v>67.26683034265695</v>
       </c>
       <c r="C97" t="n">
-        <v>33935.18357487899</v>
+        <v>493502.5986017557</v>
       </c>
       <c r="D97" t="n">
         <v>7179.283418</v>
@@ -7150,13 +7150,13 @@
         <v>0.1152598120769127</v>
       </c>
       <c r="F97" t="n">
-        <v>78.22725763272177</v>
+        <v>1020.049609218479</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>6.962036172912303</v>
       </c>
       <c r="H97" t="n">
-        <v>3911.362881636088</v>
+        <v>51002.48046092396</v>
       </c>
     </row>
     <row r="98">
@@ -7166,10 +7166,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-180.7912242660239</v>
+        <v>70.55088048449096</v>
       </c>
       <c r="C98" t="n">
-        <v>32326.192167586</v>
+        <v>470562.6313286462</v>
       </c>
       <c r="D98" t="n">
         <v>6845.561717</v>
@@ -7178,13 +7178,13 @@
         <v>-0.0464839847613884</v>
       </c>
       <c r="F98" t="n">
-        <v>31.54885112339186</v>
+        <v>458.7993454621918</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2304328879618796</v>
+        <v>3.284050141834022</v>
       </c>
       <c r="H98" t="n">
-        <v>-1577.442556169593</v>
+        <v>22939.96727310959</v>
       </c>
     </row>
     <row r="99">
@@ -7194,10 +7194,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-180.7912242660239</v>
+        <v>70.21913382972608</v>
       </c>
       <c r="C99" t="n">
-        <v>32326.192167586</v>
+        <v>472891.4387839316</v>
       </c>
       <c r="D99" t="n">
         <v>6879.4403</v>
@@ -7206,13 +7206,13 @@
         <v>0.00494898510897475</v>
       </c>
       <c r="F99" t="n">
-        <v>3.199636873344786</v>
+        <v>46.5761491057089</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.3317466547648849</v>
       </c>
       <c r="H99" t="n">
-        <v>159.9818436672393</v>
+        <v>2328.807455285445</v>
       </c>
     </row>
     <row r="100">
@@ -7222,10 +7222,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-180.7912242660239</v>
+        <v>62.21759528901677</v>
       </c>
       <c r="C100" t="n">
-        <v>32326.192167586</v>
+        <v>536631.9606789169</v>
       </c>
       <c r="D100" t="n">
         <v>7806.712564</v>
@@ -7234,13 +7234,13 @@
         <v>0.1347889106618165</v>
       </c>
       <c r="F100" t="n">
-        <v>87.14424456226925</v>
+        <v>1274.810437899705</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>8.001538540709301</v>
       </c>
       <c r="H100" t="n">
-        <v>4357.212228113463</v>
+        <v>63740.52189498523</v>
       </c>
     </row>
     <row r="101">
@@ -7250,10 +7250,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-180.7912242660239</v>
+        <v>53.23756356082718</v>
       </c>
       <c r="C101" t="n">
-        <v>32326.192167586</v>
+        <v>619169.8262592066</v>
       </c>
       <c r="D101" t="n">
         <v>9007.441256</v>
@@ -7262,13 +7262,13 @@
         <v>0.1538072116984375</v>
       </c>
       <c r="F101" t="n">
-        <v>99.44002964248544</v>
+        <v>1650.757311605795</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>8.980031728189596</v>
       </c>
       <c r="H101" t="n">
-        <v>4972.001482124272</v>
+        <v>82537.86558028974</v>
       </c>
     </row>
     <row r="102">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-180.8735756455778</v>
+        <v>54.78335959285295</v>
       </c>
       <c r="C102" t="n">
-        <v>31586.55361700058</v>
+        <v>605280.7104002439</v>
       </c>
       <c r="D102" t="n">
         <v>8805.387812999999</v>
@@ -7290,13 +7290,13 @@
         <v>-0.02243183577416169</v>
       </c>
       <c r="F102" t="n">
-        <v>14.50271667814562</v>
+        <v>277.782317179255</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08235137955385829</v>
+        <v>1.545796032025773</v>
       </c>
       <c r="H102" t="n">
-        <v>-725.1358339072812</v>
+        <v>13889.11585896275</v>
       </c>
     </row>
     <row r="103">
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-180.8735756455778</v>
+        <v>48.41114579981236</v>
       </c>
       <c r="C103" t="n">
-        <v>31586.55361700058</v>
+        <v>668517.3205242394</v>
       </c>
       <c r="D103" t="n">
         <v>9725.329365</v>
@@ -7318,13 +7318,13 @@
         <v>0.1044748478473404</v>
       </c>
       <c r="F103" t="n">
-        <v>66.00000766315989</v>
+        <v>1264.732202479912</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>6.372213793040589</v>
       </c>
       <c r="H103" t="n">
-        <v>3300.000383157994</v>
+        <v>63236.61012399558</v>
       </c>
     </row>
     <row r="104">
@@ -7334,10 +7334,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-181.1999093590693</v>
+        <v>55.17973940890475</v>
       </c>
       <c r="C104" t="n">
-        <v>28644.93947964639</v>
+        <v>607479.9307289079</v>
       </c>
       <c r="D104" t="n">
         <v>8837.381213000001</v>
@@ -7346,13 +7346,13 @@
         <v>-0.09130263034541443</v>
       </c>
       <c r="F104" t="n">
-        <v>57.67870857557234</v>
+        <v>1220.747795906631</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.3263337134915351</v>
+        <v>6.768593609092388</v>
       </c>
       <c r="H104" t="n">
-        <v>-2883.935428778617</v>
+        <v>61037.38979533157</v>
       </c>
     </row>
     <row r="105">
@@ -7362,10 +7362,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-181.1999093590693</v>
+        <v>50.25916249787951</v>
       </c>
       <c r="C105" t="n">
-        <v>28644.93947964639</v>
+        <v>655348.9121137043</v>
       </c>
       <c r="D105" t="n">
         <v>9533.760493</v>
@@ -7374,13 +7374,13 @@
         <v>0.07879928037681666</v>
       </c>
       <c r="F105" t="n">
-        <v>45.14401234867201</v>
+        <v>957.3796276959276</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>4.920576911025245</v>
       </c>
       <c r="H105" t="n">
-        <v>2257.200617433601</v>
+        <v>47868.98138479638</v>
       </c>
     </row>
     <row r="106">
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-181.1999093590693</v>
+        <v>48.46838492468031</v>
       </c>
       <c r="C106" t="n">
-        <v>28644.93947964639</v>
+        <v>673245.9422866955</v>
       </c>
       <c r="D106" t="n">
         <v>9794.119511000001</v>
@@ -7402,13 +7402,13 @@
         <v>0.02730916286298205</v>
       </c>
       <c r="F106" t="n">
-        <v>15.64538634899855</v>
+        <v>357.9406034598251</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1.790777573199191</v>
       </c>
       <c r="H106" t="n">
-        <v>782.2693174499275</v>
+        <v>17897.03017299126</v>
       </c>
     </row>
     <row r="107">
@@ -7418,10 +7418,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-181.2797733558138</v>
+        <v>50.30789830698624</v>
       </c>
       <c r="C107" t="n">
-        <v>27868.30528370499</v>
+        <v>655350.5108642717</v>
       </c>
       <c r="D107" t="n">
         <v>9533.783751000001</v>
@@ -7430,13 +7430,13 @@
         <v>-0.0265808232896904</v>
       </c>
       <c r="F107" t="n">
-        <v>15.22812148904713</v>
+        <v>357.9086284484751</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.07986399674447121</v>
+        <v>1.839513382305925</v>
       </c>
       <c r="H107" t="n">
-        <v>-761.4060744523566</v>
+        <v>17895.43142242375</v>
       </c>
     </row>
     <row r="108">
@@ -7446,10 +7446,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-181.2797733558138</v>
+        <v>49.61995055640933</v>
       </c>
       <c r="C108" t="n">
-        <v>27868.30528370499</v>
+        <v>662112.1594725302</v>
       </c>
       <c r="D108" t="n">
         <v>9632.149579000001</v>
@@ -7458,13 +7458,13 @@
         <v>0.01031760637424594</v>
       </c>
       <c r="F108" t="n">
-        <v>5.750684084691727</v>
+        <v>135.2329721651708</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.6879477505769089</v>
       </c>
       <c r="H108" t="n">
-        <v>287.5342042345864</v>
+        <v>6761.648608258542</v>
       </c>
     </row>
     <row r="109">
@@ -7474,10 +7474,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-181.4335676128779</v>
+        <v>53.20080937398306</v>
       </c>
       <c r="C109" t="n">
-        <v>26433.57330751897</v>
+        <v>628693.3010749851</v>
       </c>
       <c r="D109" t="n">
         <v>9145.985054999999</v>
@@ -7486,13 +7486,13 @@
         <v>-0.05047310779516307</v>
       </c>
       <c r="F109" t="n">
-        <v>28.13199953305909</v>
+        <v>668.3771679509044</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.1537942570640855</v>
+        <v>3.580858817573731</v>
       </c>
       <c r="H109" t="n">
-        <v>-1406.599976652954</v>
+        <v>33418.85839754522</v>
       </c>
     </row>
     <row r="110">
@@ -7502,10 +7502,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-181.4335676128779</v>
+        <v>52.42155880488089</v>
       </c>
       <c r="C110" t="n">
-        <v>26433.57330751897</v>
+        <v>636050.8737493915</v>
       </c>
       <c r="D110" t="n">
         <v>9253.020154</v>
@@ -7514,13 +7514,13 @@
         <v>0.01170296019032809</v>
       </c>
       <c r="F110" t="n">
-        <v>6.187021122120274</v>
+        <v>147.15145348813</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>0.7792505691021724</v>
       </c>
       <c r="H110" t="n">
-        <v>309.3510561060137</v>
+        <v>7357.5726744065</v>
       </c>
     </row>
     <row r="111">
@@ -7530,10 +7530,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-181.4370058766656</v>
+        <v>52.50263647257772</v>
       </c>
       <c r="C111" t="n">
-        <v>26401.16170613782</v>
+        <v>635286.2702250504</v>
       </c>
       <c r="D111" t="n">
         <v>9241.897000000001</v>
@@ -7542,13 +7542,13 @@
         <v>-0.001202110642241553</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6355215957088163</v>
+        <v>15.29207048682364</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.003438263787774394</v>
+        <v>0.08107766769683307</v>
       </c>
       <c r="H111" t="n">
-        <v>-31.77607978544081</v>
+        <v>764.6035243411822</v>
       </c>
     </row>
     <row r="112">
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-181.4370058766656</v>
+        <v>51.54564135155896</v>
       </c>
       <c r="C112" t="n">
-        <v>26401.16170613782</v>
+        <v>644441.2766160773</v>
       </c>
       <c r="D112" t="n">
         <v>9375.080464000001</v>
@@ -7570,13 +7570,13 @@
         <v>0.01441083621685025</v>
       </c>
       <c r="F112" t="n">
-        <v>7.609256345634621</v>
+        <v>183.1001278205375</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>0.9569951210187647</v>
       </c>
       <c r="H112" t="n">
-        <v>380.462817281731</v>
+        <v>9155.006391026875</v>
       </c>
     </row>
     <row r="113">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-181.4370058766656</v>
+        <v>42.05244490862906</v>
       </c>
       <c r="C113" t="n">
-        <v>26401.16170613782</v>
+        <v>750154.3441892745</v>
       </c>
       <c r="D113" t="n">
         <v>10912.95296</v>
@@ -7598,13 +7598,13 @@
         <v>0.1640383249941565</v>
       </c>
       <c r="F113" t="n">
-        <v>86.61604688349435</v>
+        <v>2114.261351463945</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>9.493196442929897</v>
       </c>
       <c r="H113" t="n">
-        <v>4330.802344174717</v>
+        <v>105713.0675731972</v>
       </c>
     </row>
     <row r="114">
@@ -7614,10 +7614,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-181.4370058766656</v>
+        <v>40.30353548417143</v>
       </c>
       <c r="C114" t="n">
-        <v>26401.16170613782</v>
+        <v>770148.7031786073</v>
       </c>
       <c r="D114" t="n">
         <v>11203.8231</v>
@@ -7626,13 +7626,13 @@
         <v>0.02665366020234353</v>
       </c>
       <c r="F114" t="n">
-        <v>14.07375186125044</v>
+        <v>399.8871797866556</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1.748909424457632</v>
       </c>
       <c r="H114" t="n">
-        <v>703.6875930625218</v>
+        <v>19994.35898933278</v>
       </c>
     </row>
     <row r="115">
@@ -7642,10 +7642,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-181.4370058766656</v>
+        <v>39.1175988688874</v>
       </c>
       <c r="C115" t="n">
-        <v>26401.16170613782</v>
+        <v>783949.8552424298</v>
       </c>
       <c r="D115" t="n">
         <v>11404.59688</v>
@@ -7654,13 +7654,13 @@
         <v>0.01792011335844811</v>
       </c>
       <c r="F115" t="n">
-        <v>9.462236211374185</v>
+        <v>276.023041276449</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1.185936615284029</v>
       </c>
       <c r="H115" t="n">
-        <v>473.1118105687092</v>
+        <v>13801.15206382245</v>
       </c>
     </row>
     <row r="116">
@@ -7670,10 +7670,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-181.4370058766656</v>
+        <v>35.82382240113596</v>
       </c>
       <c r="C116" t="n">
-        <v>26401.16170613782</v>
+        <v>824251.1757688409</v>
       </c>
       <c r="D116" t="n">
         <v>11990.88478</v>
@@ -7682,13 +7682,13 @@
         <v>0.05140803363494258</v>
       </c>
       <c r="F116" t="n">
-        <v>27.14463617981383</v>
+        <v>806.026410528224</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>3.293776467751445</v>
       </c>
       <c r="H116" t="n">
-        <v>1357.231808990691</v>
+        <v>40301.3205264112</v>
       </c>
     </row>
     <row r="117">
@@ -7698,10 +7698,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-181.5578728054981</v>
+        <v>39.52184959874334</v>
       </c>
       <c r="C117" t="n">
-        <v>24999.8023919759</v>
+        <v>781358.2302550803</v>
       </c>
       <c r="D117" t="n">
         <v>11366.89493</v>
@@ -7710,13 +7710,13 @@
         <v>-0.05203868283688069</v>
       </c>
       <c r="F117" t="n">
-        <v>27.47763361101812</v>
+        <v>857.8589102752143</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.120866928832508</v>
+        <v>3.698027197607385</v>
       </c>
       <c r="H117" t="n">
-        <v>-1373.881680550906</v>
+        <v>42892.94551376071</v>
       </c>
     </row>
     <row r="118">
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-181.5578728054981</v>
+        <v>36.15536255907265</v>
       </c>
       <c r="C118" t="n">
-        <v>24999.8023919759</v>
+        <v>822459.6801409542</v>
       </c>
       <c r="D118" t="n">
         <v>11964.8228</v>
@@ -7738,13 +7738,13 @@
         <v>0.05260256857146822</v>
       </c>
       <c r="F118" t="n">
-        <v>26.30107639194135</v>
+        <v>822.0289977174783</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>3.366487039670695</v>
       </c>
       <c r="H118" t="n">
-        <v>1315.053819597068</v>
+        <v>41101.44988587392</v>
       </c>
     </row>
     <row r="119">
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-181.9353174629753</v>
+        <v>48.32443282788741</v>
       </c>
       <c r="C119" t="n">
-        <v>21098.21941955136</v>
+        <v>696619.6782633979</v>
       </c>
       <c r="D119" t="n">
         <v>10134.15151</v>
@@ -7766,13 +7766,13 @@
         <v>-0.1530044632169563</v>
       </c>
       <c r="F119" t="n">
-        <v>76.50162691028507</v>
+        <v>2516.800037551126</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.3774446574772251</v>
+        <v>12.16907026881476</v>
       </c>
       <c r="H119" t="n">
-        <v>-3825.081345514253</v>
+        <v>125840.0018775563</v>
       </c>
     </row>
     <row r="120">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-181.9353174629753</v>
+        <v>44.18430333260068</v>
       </c>
       <c r="C120" t="n">
-        <v>21098.21941955136</v>
+        <v>742236.1405308354</v>
       </c>
       <c r="D120" t="n">
         <v>10797.76202</v>
@@ -7794,13 +7794,13 @@
         <v>0.06548259213858945</v>
       </c>
       <c r="F120" t="n">
-        <v>27.63132194201899</v>
+        <v>912.3292453487499</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>4.140129495286723</v>
       </c>
       <c r="H120" t="n">
-        <v>1381.566097100949</v>
+        <v>45616.46226743749</v>
       </c>
     </row>
     <row r="121">
@@ -7810,10 +7810,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-181.9839587585652</v>
+        <v>45.86128186122622</v>
       </c>
       <c r="C121" t="n">
-        <v>20575.51021755398</v>
+        <v>724207.7786835122</v>
       </c>
       <c r="D121" t="n">
         <v>10535.49244</v>
@@ -7822,13 +7822,13 @@
         <v>-0.02428925359849708</v>
       </c>
       <c r="F121" t="n">
-        <v>10.24920003916438</v>
+        <v>360.5672369464636</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.04864129558980719</v>
+        <v>1.676978528625542</v>
       </c>
       <c r="H121" t="n">
-        <v>-512.460001958219</v>
+        <v>18028.36184732318</v>
       </c>
     </row>
     <row r="122">
@@ -7838,10 +7838,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-181.9839587585652</v>
+        <v>43.94555357091698</v>
       </c>
       <c r="C122" t="n">
-        <v>20575.51021755398</v>
+        <v>745405.6460021163</v>
       </c>
       <c r="D122" t="n">
         <v>10843.87075</v>
@@ -7850,13 +7850,13 @@
         <v>0.02927042202879698</v>
       </c>
       <c r="F122" t="n">
-        <v>12.04507735051259</v>
+        <v>423.9573463720801</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1.915728290309244</v>
       </c>
       <c r="H122" t="n">
-        <v>602.2538675256293</v>
+        <v>21197.867318604</v>
       </c>
     </row>
     <row r="123">
@@ -7866,10 +7866,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-182.0269981014716</v>
+        <v>45.47359022644515</v>
       </c>
       <c r="C123" t="n">
-        <v>20110.02153648129</v>
+        <v>728872.6706656314</v>
       </c>
       <c r="D123" t="n">
         <v>10603.35547</v>
@@ -7878,13 +7878,13 @@
         <v>-0.02217983647582664</v>
       </c>
       <c r="F123" t="n">
-        <v>9.127229040640952</v>
+        <v>330.6595067296972</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.04303934290642503</v>
+        <v>1.528036655528173</v>
       </c>
       <c r="H123" t="n">
-        <v>-456.3614520320476</v>
+        <v>16532.97533648486</v>
       </c>
     </row>
     <row r="124">
@@ -7894,10 +7894,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-182.0269981014716</v>
+        <v>40.60680005369358</v>
       </c>
       <c r="C124" t="n">
-        <v>20110.02153648129</v>
+        <v>785630.6069074151</v>
       </c>
       <c r="D124" t="n">
         <v>11429.0478</v>
@@ -7906,13 +7906,13 @@
         <v>0.07787085251797182</v>
       </c>
       <c r="F124" t="n">
-        <v>31.31969042401143</v>
+        <v>1135.158724835673</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>4.86679017275157</v>
       </c>
       <c r="H124" t="n">
-        <v>1565.984521200572</v>
+        <v>56757.93624178363</v>
       </c>
     </row>
     <row r="125">
@@ -7922,10 +7922,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-182.0269981014716</v>
+        <v>37.86975178643297</v>
       </c>
       <c r="C125" t="n">
-        <v>20110.02153648129</v>
+        <v>818902.717215319</v>
       </c>
       <c r="D125" t="n">
         <v>11913.07749</v>
@@ -7934,13 +7934,13 @@
         <v>0.04235083258642066</v>
       </c>
       <c r="F125" t="n">
-        <v>17.03352310801666</v>
+        <v>665.4422061580799</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2.737048267260613</v>
       </c>
       <c r="H125" t="n">
-        <v>851.6761554008331</v>
+        <v>33272.110307904</v>
       </c>
     </row>
     <row r="126">
@@ -7950,10 +7950,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-182.0269981014716</v>
+        <v>29.27960394376207</v>
       </c>
       <c r="C126" t="n">
-        <v>20110.02153648129</v>
+        <v>938588.1466917832</v>
       </c>
       <c r="D126" t="n">
         <v>13654.21446</v>
@@ -7962,13 +7962,13 @@
         <v>0.1461534159801725</v>
       </c>
       <c r="F126" t="n">
-        <v>58.78296685983157</v>
+        <v>2393.708589529283</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>8.590147842670904</v>
       </c>
       <c r="H126" t="n">
-        <v>2939.148342991578</v>
+        <v>119685.4294764641</v>
       </c>
     </row>
     <row r="127">
@@ -7978,10 +7978,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-182.0269981014716</v>
+        <v>27.84893958233249</v>
       </c>
       <c r="C127" t="n">
-        <v>20110.02153648129</v>
+        <v>958953.9281993252</v>
       </c>
       <c r="D127" t="n">
         <v>13950.48791</v>
@@ -7990,13 +7990,13 @@
         <v>0.02169831526141128</v>
       </c>
       <c r="F127" t="n">
-        <v>8.72707174424683</v>
+        <v>407.3156301508411</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1.430664361429579</v>
       </c>
       <c r="H127" t="n">
-        <v>436.3535872123415</v>
+        <v>20365.78150754205</v>
       </c>
     </row>
     <row r="128">
@@ -8006,10 +8006,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-182.0269981014716</v>
+        <v>21.94363492893947</v>
       </c>
       <c r="C128" t="n">
-        <v>20110.02153648129</v>
+        <v>1051094.208640341</v>
       </c>
       <c r="D128" t="n">
         <v>15290.90879</v>
@@ -8018,13 +8018,13 @@
         <v>0.09608415767588732</v>
       </c>
       <c r="F128" t="n">
-        <v>38.64508960353516</v>
+        <v>1842.80560882031</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>5.905304653393016</v>
       </c>
       <c r="H128" t="n">
-        <v>1932.254480176758</v>
+        <v>92140.28044101549</v>
       </c>
     </row>
     <row r="129">
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-182.0269981014716</v>
+        <v>12.9555639458615</v>
       </c>
       <c r="C129" t="n">
-        <v>20110.02153648129</v>
+        <v>1212927.090736556</v>
       </c>
       <c r="D129" t="n">
         <v>17645.19047</v>
@@ -8046,13 +8046,13 @@
         <v>0.1539661057647315</v>
       </c>
       <c r="F129" t="n">
-        <v>61.92523405633813</v>
+        <v>3236.657641924308</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>8.988070983077979</v>
       </c>
       <c r="H129" t="n">
-        <v>3096.261702816906</v>
+        <v>161832.8820962154</v>
       </c>
     </row>
     <row r="130">
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-182.0269981014716</v>
+        <v>7.810138172657143</v>
       </c>
       <c r="C130" t="n">
-        <v>20110.02153648129</v>
+        <v>1313233.541337726</v>
       </c>
       <c r="D130" t="n">
         <v>19104.40961</v>
@@ -8074,13 +8074,13 @@
         <v>0.08269784009874716</v>
       </c>
       <c r="F130" t="n">
-        <v>33.26110690812583</v>
+        <v>2006.129012023406</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>5.145425773204352</v>
       </c>
       <c r="H130" t="n">
-        <v>1663.055345406291</v>
+        <v>100306.4506011703</v>
       </c>
     </row>
     <row r="131">
@@ -8090,10 +8090,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-182.0439432139071</v>
+        <v>8.894564271968601</v>
       </c>
       <c r="C131" t="n">
-        <v>19785.0519241818</v>
+        <v>1292428.335764708</v>
       </c>
       <c r="D131" t="n">
         <v>18801.74359</v>
@@ -8102,13 +8102,13 @@
         <v>-0.01584273087620427</v>
       </c>
       <c r="F131" t="n">
-        <v>6.371953182342899</v>
+        <v>416.1041114603655</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.01694511243556136</v>
+        <v>1.084426099311458</v>
       </c>
       <c r="H131" t="n">
-        <v>-318.597659117145</v>
+        <v>20805.20557301828</v>
       </c>
     </row>
     <row r="132">
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-182.0715623571583</v>
+        <v>10.66265910509975</v>
       </c>
       <c r="C132" t="n">
-        <v>19268.92464013074</v>
+        <v>1259374.191154597</v>
       </c>
       <c r="D132" t="n">
         <v>18320.88478</v>
@@ -8130,13 +8130,13 @@
         <v>-0.02557522432418184</v>
       </c>
       <c r="F132" t="n">
-        <v>10.1201428245307</v>
+        <v>661.0828922022284</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.02761914325114461</v>
+        <v>1.768094833131153</v>
       </c>
       <c r="H132" t="n">
-        <v>-506.0071412265351</v>
+        <v>33054.14461011142</v>
       </c>
     </row>
     <row r="133">
@@ -8146,10 +8146,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-182.0715623571583</v>
+        <v>6.853863172541617</v>
       </c>
       <c r="C133" t="n">
-        <v>19268.92464013074</v>
+        <v>1334845.942722969</v>
       </c>
       <c r="D133" t="n">
         <v>19418.8184</v>
@@ -8158,13 +8158,13 @@
         <v>0.05992798018131523</v>
       </c>
       <c r="F133" t="n">
-        <v>23.09495467898023</v>
+        <v>1509.435031367452</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>3.808795932558138</v>
       </c>
       <c r="H133" t="n">
-        <v>1154.747733949011</v>
+        <v>75471.75156837258</v>
       </c>
     </row>
     <row r="134">
@@ -8174,10 +8174,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-182.0715623571583</v>
+        <v>6.853863172541617</v>
       </c>
       <c r="C134" t="n">
-        <v>19268.92464013074</v>
+        <v>1334845.942722969</v>
       </c>
       <c r="D134" t="n">
         <v>23781.97439</v>
@@ -8186,13 +8186,13 @@
         <v>0.2246869969184118</v>
       </c>
       <c r="F134" t="n">
-        <v>86.58953622476329</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>4329.476811238164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -8202,10 +8202,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-182.0715623571583</v>
+        <v>6.853863172541617</v>
       </c>
       <c r="C135" t="n">
-        <v>19268.92464013074</v>
+        <v>1334845.942722969</v>
       </c>
       <c r="D135" t="n">
         <v>27360.08971</v>
@@ -8214,13 +8214,13 @@
         <v>0.1504549311727688</v>
       </c>
       <c r="F135" t="n">
-        <v>57.98209461008278</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>2899.104730504139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-182.0715623571583</v>
+        <v>6.853863172541617</v>
       </c>
       <c r="C136" t="n">
-        <v>19268.92464013074</v>
+        <v>1334845.942722969</v>
       </c>
       <c r="D136" t="n">
         <v>34013.61453</v>
@@ -8242,13 +8242,13 @@
         <v>0.2431835893274927</v>
       </c>
       <c r="F136" t="n">
-        <v>93.71772512935915</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>4685.886256467958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -8258,10 +8258,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-182.0732075821727</v>
+        <v>6.965555938839986</v>
       </c>
       <c r="C137" t="n">
-        <v>19212.01067696885</v>
+        <v>1330980.561574775</v>
       </c>
       <c r="D137" t="n">
         <v>33915.11958</v>
@@ -8270,13 +8270,13 @@
         <v>-0.002895750756307529</v>
       </c>
       <c r="F137" t="n">
-        <v>1.115960061997827</v>
+        <v>77.3076229638815</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.001645225014414983</v>
+        <v>0.1116927662983694</v>
       </c>
       <c r="H137" t="n">
-        <v>-55.79800309989135</v>
+        <v>3865.381148194075</v>
       </c>
     </row>
     <row r="138">
@@ -8286,10 +8286,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-182.0732075821727</v>
+        <v>4.687867649151965</v>
       </c>
       <c r="C138" t="n">
-        <v>19212.01067696885</v>
+        <v>1414767.21416531</v>
       </c>
       <c r="D138" t="n">
         <v>36050.1127</v>
@@ -8298,13 +8298,13 @@
         <v>0.06295107157042196</v>
       </c>
       <c r="F138" t="n">
-        <v>24.18833318275153</v>
+        <v>1675.733051810682</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2.277688289688022</v>
       </c>
       <c r="H138" t="n">
-        <v>1209.416659137577</v>
+        <v>83786.6525905341</v>
       </c>
     </row>
     <row r="139">
@@ -8314,10 +8314,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-182.1302589024034</v>
+        <v>8.805086402016141</v>
       </c>
       <c r="C139" t="n">
-        <v>17317.03334140118</v>
+        <v>1277957.789703101</v>
       </c>
       <c r="D139" t="n">
         <v>32564.03024</v>
@@ -8326,13 +8326,13 @@
         <v>-0.09670101419682935</v>
       </c>
       <c r="F139" t="n">
-        <v>37.15641834446403</v>
+        <v>2736.188489244166</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.05705132023066201</v>
+        <v>4.117218752864177</v>
       </c>
       <c r="H139" t="n">
-        <v>-1857.820917223201</v>
+        <v>136809.4244622083</v>
       </c>
     </row>
     <row r="140">
@@ -8342,10 +8342,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-182.1302589024034</v>
+        <v>5.613599617203026</v>
       </c>
       <c r="C140" t="n">
-        <v>17317.03334140118</v>
+        <v>1393603.010733281</v>
       </c>
       <c r="D140" t="n">
         <v>35510.82121</v>
@@ -8354,13 +8354,13 @@
         <v>0.09049220714640885</v>
       </c>
       <c r="F140" t="n">
-        <v>31.34113136582688</v>
+        <v>2312.904420603597</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>3.191486784813114</v>
       </c>
       <c r="H140" t="n">
-        <v>1567.056568291344</v>
+        <v>115645.2210301798</v>
       </c>
     </row>
     <row r="141">
@@ -8370,10 +8370,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-182.1302589024034</v>
+        <v>5.613599617203026</v>
       </c>
       <c r="C141" t="n">
-        <v>17317.03334140118</v>
+        <v>1393603.010733281</v>
       </c>
       <c r="D141" t="n">
         <v>46469.7612</v>
@@ -8382,13 +8382,13 @@
         <v>0.3086084640282527</v>
       </c>
       <c r="F141" t="n">
-        <v>106.8836612203172</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>5344.183061015859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-182.1302589024034</v>
+        <v>3.978583918412787</v>
       </c>
       <c r="C142" t="n">
-        <v>17317.03334140118</v>
+        <v>1475699.612220792</v>
       </c>
       <c r="D142" t="n">
         <v>49207.27643</v>
@@ -8410,13 +8410,13 @@
         <v>0.05890960399426363</v>
       </c>
       <c r="F142" t="n">
-        <v>20.40279152994807</v>
+        <v>1641.932029750223</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1.635015698790239</v>
       </c>
       <c r="H142" t="n">
-        <v>1020.139576497403</v>
+        <v>82096.60148751113</v>
       </c>
     </row>
     <row r="143">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-182.1329410054447</v>
+        <v>4.202572564346474</v>
       </c>
       <c r="C143" t="n">
-        <v>17183.43298951979</v>
+        <v>1464537.872262612</v>
       </c>
       <c r="D143" t="n">
         <v>48835.08766</v>
@@ -8438,13 +8438,13 @@
         <v>-0.007563693766499335</v>
       </c>
       <c r="F143" t="n">
-        <v>2.619614742772345</v>
+        <v>223.2347991635979</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.002682103041373291</v>
+        <v>0.2239886459336868</v>
       </c>
       <c r="H143" t="n">
-        <v>-130.9807371386173</v>
+        <v>11161.73995817989</v>
       </c>
     </row>
     <row r="144">
@@ -8454,10 +8454,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-182.1359881094624</v>
+        <v>4.457082082470644</v>
       </c>
       <c r="C144" t="n">
-        <v>17032.95440468953</v>
+        <v>1451964.111303277</v>
       </c>
       <c r="D144" t="n">
         <v>48415.81498</v>
@@ -8466,13 +8466,13 @@
         <v>-0.008585480237468966</v>
       </c>
       <c r="F144" t="n">
-        <v>2.950560486867889</v>
+        <v>251.4752191867102</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.003047104017650772</v>
+        <v>0.2545095181241706</v>
       </c>
       <c r="H144" t="n">
-        <v>-147.5280243433944</v>
+        <v>12573.76095933551</v>
       </c>
     </row>
     <row r="145">
@@ -8482,10 +8482,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-182.1359881094624</v>
+        <v>1.021821352497434</v>
       </c>
       <c r="C145" t="n">
-        <v>17032.95440468953</v>
+        <v>1451964.111303277</v>
       </c>
       <c r="D145" t="n">
         <v>54824.0112</v>
@@ -8494,13 +8494,13 @@
         <v>0.1323574997683535</v>
       </c>
       <c r="F145" t="n">
-        <v>45.08878517346141</v>
+        <v>3843.566790509622</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>3.435260729973211</v>
       </c>
       <c r="H145" t="n">
-        <v>2254.439258673071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -8510,10 +8510,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-182.1359881094624</v>
+        <v>0.1075188769804767</v>
       </c>
       <c r="C146" t="n">
-        <v>17032.95440468953</v>
+        <v>1451964.111303277</v>
       </c>
       <c r="D146" t="n">
         <v>56825.8289</v>
@@ -8522,13 +8522,13 @@
         <v>0.03651352128718374</v>
       </c>
       <c r="F146" t="n">
-        <v>12.43866286478522</v>
+        <v>1060.32644972598</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>0.9143024755169569</v>
       </c>
       <c r="H146" t="n">
-        <v>621.9331432392611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -8538,10 +8538,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-182.1475773173194</v>
+        <v>1.075675734402727</v>
       </c>
       <c r="C147" t="n">
-        <v>16386.2221501852</v>
+        <v>1397914.789695392</v>
       </c>
       <c r="D147" t="n">
         <v>54710.48908</v>
@@ -8550,13 +8550,13 @@
         <v>-0.03722497077380953</v>
       </c>
       <c r="F147" t="n">
-        <v>12.68102459812396</v>
+        <v>1080.986432157696</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.01158920785699907</v>
+        <v>0.9681568574222499</v>
       </c>
       <c r="H147" t="n">
-        <v>-634.051229906198</v>
+        <v>54049.32160788481</v>
       </c>
     </row>
     <row r="148">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-182.1475773173194</v>
+        <v>1.075675734402727</v>
       </c>
       <c r="C148" t="n">
-        <v>16386.2221501852</v>
+        <v>1397914.789695392</v>
       </c>
       <c r="D148" t="n">
         <v>58930.27778</v>
@@ -8578,13 +8578,13 @@
         <v>0.07712942748198875</v>
       </c>
       <c r="F148" t="n">
-        <v>25.27719866072935</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1263.859933036468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -8594,10 +8594,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-182.1511316352384</v>
+        <v>1.372831532115632</v>
       </c>
       <c r="C149" t="n">
-        <v>16175.2725332741</v>
+        <v>1380271.464839922</v>
       </c>
       <c r="D149" t="n">
         <v>58186.50853</v>
@@ -8606,13 +8606,13 @@
         <v>-0.01262117332581828</v>
       </c>
       <c r="F149" t="n">
-        <v>4.136266998257002</v>
+        <v>352.866497109407</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.003554317919010738</v>
+        <v>0.2971557977129057</v>
       </c>
       <c r="H149" t="n">
-        <v>-206.8133499128501</v>
+        <v>17643.32485547035</v>
       </c>
     </row>
     <row r="150">
@@ -8622,10 +8622,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-182.1511316352384</v>
+        <v>1.372831532115632</v>
       </c>
       <c r="C150" t="n">
-        <v>16175.2725332741</v>
+        <v>1380271.464839922</v>
       </c>
       <c r="D150" t="n">
         <v>63523.75487</v>
@@ -8634,13 +8634,13 @@
         <v>0.09172652690181955</v>
       </c>
       <c r="F150" t="n">
-        <v>29.67403142335258</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>1483.701571167629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-182.1829325717356</v>
+        <v>4.03220228520448</v>
       </c>
       <c r="C151" t="n">
-        <v>14343.52109179394</v>
+        <v>1227028.949072052</v>
       </c>
       <c r="D151" t="n">
         <v>56471.12772</v>
@@ -8662,13 +8662,13 @@
         <v>-0.1110234614504928</v>
       </c>
       <c r="F151" t="n">
-        <v>35.91669493098344</v>
+        <v>3064.850315357407</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.03180093649720321</v>
+        <v>2.659370753088848</v>
       </c>
       <c r="H151" t="n">
-        <v>-1795.834746549172</v>
+        <v>153242.5157678703</v>
       </c>
     </row>
     <row r="152">
@@ -8678,10 +8678,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-182.1895528316405</v>
+        <v>4.587211441724278</v>
       </c>
       <c r="C152" t="n">
-        <v>13971.8771108987</v>
+        <v>1195859.726916786</v>
       </c>
       <c r="D152" t="n">
         <v>55036.63742</v>
@@ -8690,13 +8690,13 @@
         <v>-0.02540218971918909</v>
       </c>
       <c r="F152" t="n">
-        <v>7.287136880298797</v>
+        <v>623.3844431053092</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.006620259904950782</v>
+        <v>0.555009156519798</v>
       </c>
       <c r="H152" t="n">
-        <v>-364.3568440149398</v>
+        <v>31169.22215526546</v>
       </c>
     </row>
     <row r="153">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-182.1980598133047</v>
+        <v>5.300765787735735</v>
       </c>
       <c r="C153" t="n">
-        <v>13509.8016179235</v>
+        <v>1157085.937530035</v>
       </c>
       <c r="D153" t="n">
         <v>53252.16476</v>
@@ -8718,13 +8718,13 @@
         <v>-0.03242335912316351</v>
       </c>
       <c r="F153" t="n">
-        <v>9.060303783827539</v>
+        <v>775.475787735024</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.008506981664183091</v>
+        <v>0.7135543460114574</v>
       </c>
       <c r="H153" t="n">
-        <v>-453.0151891913769</v>
+        <v>38773.7893867512</v>
       </c>
     </row>
     <row r="154">
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-182.1980598133047</v>
+        <v>4.000795760286282</v>
       </c>
       <c r="C154" t="n">
-        <v>13509.8016179235</v>
+        <v>1232317.767368594</v>
       </c>
       <c r="D154" t="n">
         <v>56714.53317</v>
@@ -8746,13 +8746,13 @@
         <v>0.06501835982827006</v>
       </c>
       <c r="F154" t="n">
-        <v>17.5677028560539</v>
+        <v>1504.636596771181</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1.299970027449454</v>
       </c>
       <c r="H154" t="n">
-        <v>878.385142802695</v>
+        <v>75231.82983855903</v>
       </c>
     </row>
     <row r="155">
@@ -8762,10 +8762,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-182.2744367511166</v>
+        <v>10.82830122200661</v>
       </c>
       <c r="C155" t="n">
-        <v>10164.19578426056</v>
+        <v>933126.8954927567</v>
       </c>
       <c r="D155" t="n">
         <v>42944.97545</v>
@@ -8774,13 +8774,13 @@
         <v>-0.2427871120569078</v>
       </c>
       <c r="F155" t="n">
-        <v>65.60011438554773</v>
+        <v>5983.817437516745</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.07637693781188054</v>
+        <v>6.82750546172033</v>
       </c>
       <c r="H155" t="n">
-        <v>-3280.005719277386</v>
+        <v>299190.8718758372</v>
       </c>
     </row>
     <row r="156">
@@ -8790,10 +8790,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-182.3025006939341</v>
+        <v>13.35319113800559</v>
       </c>
       <c r="C156" t="n">
-        <v>9065.198421349349</v>
+        <v>834211.4380153304</v>
       </c>
       <c r="D156" t="n">
         <v>38392.62366</v>
@@ -8802,13 +8802,13 @@
         <v>-0.1060042936874004</v>
       </c>
       <c r="F156" t="n">
-        <v>21.54896790021988</v>
+        <v>1978.309149548528</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.028063942817577</v>
+        <v>2.52488991599898</v>
       </c>
       <c r="H156" t="n">
-        <v>-1077.448395010994</v>
+        <v>98915.45747742637</v>
       </c>
     </row>
     <row r="157">
@@ -8818,10 +8818,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-182.3133911120679</v>
+        <v>14.33532222114984</v>
       </c>
       <c r="C157" t="n">
-        <v>8657.527365153912</v>
+        <v>797431.708373769</v>
       </c>
       <c r="D157" t="n">
         <v>36699.92292</v>
@@ -8830,13 +8830,13 @@
         <v>-0.04408921763176005</v>
       </c>
       <c r="F157" t="n">
-        <v>7.993550121479183</v>
+        <v>735.5945928312283</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.01089041813371632</v>
+        <v>0.9821310831442527</v>
       </c>
       <c r="H157" t="n">
-        <v>-399.6775060739591</v>
+        <v>36779.72964156141</v>
       </c>
     </row>
     <row r="158">
@@ -8846,10 +8846,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-182.3365664014775</v>
+        <v>16.42727014687636</v>
       </c>
       <c r="C158" t="n">
-        <v>7867.590269627758</v>
+        <v>726098.4660295276</v>
       </c>
       <c r="D158" t="n">
         <v>33416.97785</v>
@@ -8858,13 +8858,13 @@
         <v>-0.08945373201890078</v>
       </c>
       <c r="F158" t="n">
-        <v>15.48896265737556</v>
+        <v>1426.664846884827</v>
       </c>
       <c r="G158" t="n">
-        <v>-0.023175289409625</v>
+        <v>2.091947925726519</v>
       </c>
       <c r="H158" t="n">
-        <v>-774.4481328687782</v>
+        <v>71333.24234424136</v>
       </c>
     </row>
     <row r="159">
@@ -8874,10 +8874,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-182.3365664014775</v>
+        <v>12.84811360266032</v>
       </c>
       <c r="C159" t="n">
-        <v>7867.590269627758</v>
+        <v>872802.5793054189</v>
       </c>
       <c r="D159" t="n">
         <v>40168.69037</v>
@@ -8886,13 +8886,13 @@
         <v>0.2020443784685333</v>
       </c>
       <c r="F159" t="n">
-        <v>31.79204772144041</v>
+        <v>2934.082265517826</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>3.579156544216044</v>
       </c>
       <c r="H159" t="n">
-        <v>1589.60238607202</v>
+        <v>146704.1132758913</v>
       </c>
     </row>
     <row r="160">
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-182.3826653604822</v>
+        <v>17.85988762301206</v>
       </c>
       <c r="C160" t="n">
-        <v>6338.670877495069</v>
+        <v>706515.4240177459</v>
       </c>
       <c r="D160" t="n">
         <v>32515.7143</v>
@@ -8914,13 +8914,13 @@
         <v>-0.1905209256141352</v>
       </c>
       <c r="F160" t="n">
-        <v>29.97881161044487</v>
+        <v>3325.74310575346</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.04609895900463868</v>
+        <v>5.01177402035174</v>
       </c>
       <c r="H160" t="n">
-        <v>-1498.940580522244</v>
+        <v>166287.155287673</v>
       </c>
     </row>
     <row r="161">
@@ -8930,10 +8930,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-182.3826653604822</v>
+        <v>15.84801438863747</v>
       </c>
       <c r="C161" t="n">
-        <v>6338.670877495069</v>
+        <v>780232.8983109411</v>
       </c>
       <c r="D161" t="n">
         <v>35908.38805</v>
@@ -8942,13 +8942,13 @@
         <v>0.1043395116188483</v>
       </c>
       <c r="F161" t="n">
-        <v>13.22747647340904</v>
+        <v>1474.349485863903</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>2.011873234374586</v>
       </c>
       <c r="H161" t="n">
-        <v>661.3738236704521</v>
+        <v>73717.47429319513</v>
       </c>
     </row>
     <row r="162">
@@ -8958,10 +8958,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-182.3913441446929</v>
+        <v>16.89492842277248</v>
       </c>
       <c r="C162" t="n">
-        <v>6035.692837563195</v>
+        <v>743670.3013055376</v>
       </c>
       <c r="D162" t="n">
         <v>34225.68033</v>
@@ -8970,13 +8970,13 @@
         <v>-0.04686113221392567</v>
       </c>
       <c r="F162" t="n">
-        <v>5.940745881017135</v>
+        <v>731.2519401080687</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.008678784210769746</v>
+        <v>1.046914034135004</v>
       </c>
       <c r="H162" t="n">
-        <v>-297.0372940508567</v>
+        <v>36562.59700540343</v>
       </c>
     </row>
     <row r="163">
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-182.3994375765126</v>
+        <v>17.87219286300666</v>
       </c>
       <c r="C163" t="n">
-        <v>5765.547656342689</v>
+        <v>711037.8001908815</v>
       </c>
       <c r="D163" t="n">
         <v>32723.84605</v>
@@ -8998,13 +8998,13 @@
         <v>-0.04388033387560138</v>
       </c>
       <c r="F163" t="n">
-        <v>5.296964337656978</v>
+        <v>652.6500222931213</v>
       </c>
       <c r="G163" t="n">
-        <v>-0.008093431819663779</v>
+        <v>0.9772644402341865</v>
       </c>
       <c r="H163" t="n">
-        <v>-264.8482168828489</v>
+        <v>32632.50111465606</v>
       </c>
     </row>
     <row r="164">
@@ -9014,10 +9014,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-182.4167484887166</v>
+        <v>19.96436855787761</v>
       </c>
       <c r="C164" t="n">
-        <v>5239.43075304404</v>
+        <v>647426.5096622602</v>
       </c>
       <c r="D164" t="n">
         <v>29796.28569</v>
@@ -9026,13 +9026,13 @@
         <v>-0.08946260031681084</v>
       </c>
       <c r="F164" t="n">
-        <v>10.31601771173823</v>
+        <v>1272.225810572425</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.01731091220406779</v>
+        <v>2.09217569487094</v>
       </c>
       <c r="H164" t="n">
-        <v>-515.8008855869115</v>
+        <v>63611.29052862124</v>
       </c>
     </row>
     <row r="165">
@@ -9042,10 +9042,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-182.4167484887166</v>
+        <v>14.73194539544563</v>
       </c>
       <c r="C165" t="n">
-        <v>5239.43075304404</v>
+        <v>858342.2074114514</v>
       </c>
       <c r="D165" t="n">
         <v>39503.18569</v>
@@ -9054,13 +9054,13 @@
         <v>0.3257755044031462</v>
       </c>
       <c r="F165" t="n">
-        <v>34.13756392716557</v>
+        <v>4218.313954983824</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>5.232423162431976</v>
       </c>
       <c r="H165" t="n">
-        <v>1706.878196358279</v>
+        <v>210915.6977491912</v>
       </c>
     </row>
     <row r="166">
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-182.4212253902041</v>
+        <v>15.45069890370634</v>
       </c>
       <c r="C166" t="n">
-        <v>5064.931883850531</v>
+        <v>830315.7110688302</v>
       </c>
       <c r="D166" t="n">
         <v>38213.33197</v>
@@ -9082,13 +9082,13 @@
         <v>-0.03265189116953973</v>
       </c>
       <c r="F166" t="n">
-        <v>3.421546454774672</v>
+        <v>560.5299268524242</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.004476901487497627</v>
+        <v>0.7187535082607136</v>
       </c>
       <c r="H166" t="n">
-        <v>-171.0773227387336</v>
+        <v>28026.49634262121</v>
       </c>
     </row>
     <row r="167">
@@ -9098,10 +9098,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-182.4212253902041</v>
+        <v>12.00145758351822</v>
       </c>
       <c r="C167" t="n">
-        <v>5064.931883850531</v>
+        <v>990809.9797715088</v>
       </c>
       <c r="D167" t="n">
         <v>45599.70403</v>
@@ -9110,13 +9110,13 @@
         <v>0.1932930649910035</v>
       </c>
       <c r="F167" t="n">
-        <v>19.58032415600253</v>
+        <v>3209.885374053574</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>3.449241320188128</v>
       </c>
       <c r="H167" t="n">
-        <v>979.0162078001265</v>
+        <v>160494.2687026787</v>
       </c>
     </row>
     <row r="168">
@@ -9126,10 +9126,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-182.4234946349151</v>
+        <v>12.43649255546508</v>
       </c>
       <c r="C168" t="n">
-        <v>4961.498607468126</v>
+        <v>970972.9395827079</v>
       </c>
       <c r="D168" t="n">
         <v>44686.75081</v>
@@ -9138,13 +9138,13 @@
         <v>-0.02002103389529397</v>
       </c>
       <c r="F168" t="n">
-        <v>2.028103458478533</v>
+        <v>396.7408037760183</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.002269244710923002</v>
+        <v>0.4350349719468649</v>
       </c>
       <c r="H168" t="n">
-        <v>-101.4051729239266</v>
+        <v>19837.04018880091</v>
       </c>
     </row>
     <row r="169">
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-182.4234946349151</v>
+        <v>11.07994882210435</v>
       </c>
       <c r="C169" t="n">
-        <v>4961.498607468126</v>
+        <v>1037038.358943237</v>
       </c>
       <c r="D169" t="n">
         <v>47727.25669</v>
@@ -9166,13 +9166,13 @@
         <v>0.06804043312362733</v>
       </c>
       <c r="F169" t="n">
-        <v>6.751650283888104</v>
+        <v>1321.308387210581</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1.35654373336073</v>
       </c>
       <c r="H169" t="n">
-        <v>337.5825141944052</v>
+        <v>66065.41936052908</v>
       </c>
     </row>
     <row r="170">
@@ -9182,10 +9182,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-182.4248795677686</v>
+        <v>11.36363406221135</v>
       </c>
       <c r="C170" t="n">
-        <v>4894.963981346827</v>
+        <v>1023404.16410346</v>
       </c>
       <c r="D170" t="n">
         <v>47099.77487</v>
@@ -9194,13 +9194,13 @@
         <v>-0.01314724255105727</v>
       </c>
       <c r="F170" t="n">
-        <v>1.304600512182327</v>
+        <v>272.6838967955426</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.001384932853483008</v>
+        <v>0.2836852401069999</v>
       </c>
       <c r="H170" t="n">
-        <v>-65.23002560911635</v>
+        <v>13634.19483977713</v>
       </c>
     </row>
     <row r="171">
@@ -9210,10 +9210,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-182.4254832585158</v>
+        <v>11.48732511169472</v>
       </c>
       <c r="C171" t="n">
-        <v>4866.129104138584</v>
+        <v>1017493.7812502</v>
       </c>
       <c r="D171" t="n">
         <v>46827.76337</v>
@@ -9222,13 +9222,13 @@
         <v>-0.005775218687366955</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5653897491812471</v>
+        <v>118.2076570651892</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.0006036907472111528</v>
+        <v>0.1236910494833713</v>
       </c>
       <c r="H171" t="n">
-        <v>-28.26948745906235</v>
+        <v>5910.38285325946</v>
       </c>
     </row>
     <row r="172">
@@ -9238,10 +9238,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-182.4254832585158</v>
+        <v>11.36514706681931</v>
       </c>
       <c r="C172" t="n">
-        <v>4866.129104138584</v>
+        <v>1023365.558115351</v>
       </c>
       <c r="D172" t="n">
         <v>47097.99812</v>
@@ -9250,13 +9250,13 @@
         <v>0.005770823343937898</v>
       </c>
       <c r="F172" t="n">
-        <v>0.561631428575571</v>
+        <v>117.435537303006</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>0.1221780448754091</v>
       </c>
       <c r="H172" t="n">
-        <v>28.08157142877855</v>
+        <v>5871.776865150297</v>
       </c>
     </row>
     <row r="173">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-182.4417897311456</v>
+        <v>14.72587434398793</v>
       </c>
       <c r="C173" t="n">
-        <v>4189.548867921857</v>
+        <v>883868.0965065609</v>
       </c>
       <c r="D173" t="n">
         <v>40677.95483</v>
@@ -9278,13 +9278,13 @@
         <v>-0.1363124452475135</v>
       </c>
       <c r="F173" t="n">
-        <v>13.26627914150445</v>
+        <v>2789.949232175797</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.01630647262988818</v>
+        <v>3.360727277168621</v>
       </c>
       <c r="H173" t="n">
-        <v>-663.3139570752227</v>
+        <v>139497.4616087899</v>
       </c>
     </row>
     <row r="174">
@@ -9294,10 +9294,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-182.4417897311456</v>
+        <v>14.52518403148648</v>
       </c>
       <c r="C174" t="n">
-        <v>4189.548867921857</v>
+        <v>892277.6316716553</v>
       </c>
       <c r="D174" t="n">
         <v>41064.98395</v>
@@ -9306,13 +9306,13 @@
         <v>0.009514468503086225</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7972266149196612</v>
+        <v>168.190703301889</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>0.2006903125014508</v>
       </c>
       <c r="H174" t="n">
-        <v>39.86133074598306</v>
+        <v>8409.53516509445</v>
       </c>
     </row>
     <row r="175">
@@ -9322,10 +9322,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-182.4417897311456</v>
+        <v>10.21498361329711</v>
       </c>
       <c r="C175" t="n">
-        <v>4189.548867921857</v>
+        <v>1118724.415553007</v>
       </c>
       <c r="D175" t="n">
         <v>51486.66574</v>
@@ -9334,13 +9334,13 @@
         <v>0.2537851178193385</v>
       </c>
       <c r="F175" t="n">
-        <v>21.26490306110849</v>
+        <v>4528.935677627027</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>4.310200418189371</v>
       </c>
       <c r="H175" t="n">
-        <v>1063.245153055425</v>
+        <v>226446.7838813514</v>
       </c>
     </row>
     <row r="176">
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-182.4417897311456</v>
+        <v>8.485433930855752</v>
       </c>
       <c r="C176" t="n">
-        <v>4189.548867921857</v>
+        <v>1217623.343344549</v>
       </c>
       <c r="D176" t="n">
         <v>56038.25679</v>
@@ -9362,13 +9362,13 @@
         <v>0.0884032979137717</v>
       </c>
       <c r="F176" t="n">
-        <v>7.407398733904018</v>
+        <v>1977.978555830852</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1.729549682441357</v>
       </c>
       <c r="H176" t="n">
-        <v>370.3699366952009</v>
+        <v>98898.92779154259</v>
       </c>
     </row>
     <row r="177">
@@ -9378,10 +9378,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-182.4417897311456</v>
+        <v>5.753889618381677</v>
       </c>
       <c r="C177" t="n">
-        <v>4189.548867921857</v>
+        <v>1396803.134963982</v>
       </c>
       <c r="D177" t="n">
         <v>64284.58619</v>
@@ -9390,13 +9390,13 @@
         <v>0.1471553519393479</v>
       </c>
       <c r="F177" t="n">
-        <v>12.33029076252275</v>
+        <v>3583.595832388652</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>2.731544312474075</v>
       </c>
       <c r="H177" t="n">
-        <v>616.5145381261374</v>
+        <v>179179.7916194326</v>
       </c>
     </row>
     <row r="178">
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-182.4460363878383</v>
+        <v>7.141415745185705</v>
       </c>
       <c r="C178" t="n">
-        <v>3928.12876469112</v>
+        <v>1311354.180994502</v>
       </c>
       <c r="D178" t="n">
         <v>60351.99862</v>
@@ -9418,13 +9418,13 @@
         <v>-0.06117465792463559</v>
       </c>
       <c r="F178" t="n">
-        <v>5.125884377073278</v>
+        <v>1708.979079389604</v>
       </c>
       <c r="G178" t="n">
-        <v>-0.004246656692637363</v>
+        <v>1.387526126804027</v>
       </c>
       <c r="H178" t="n">
-        <v>-256.2942188536639</v>
+        <v>85448.95396948019</v>
       </c>
     </row>
     <row r="179">
@@ -9434,10 +9434,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-182.4460363878383</v>
+        <v>6.164376837979247</v>
       </c>
       <c r="C179" t="n">
-        <v>3928.12876469112</v>
+        <v>1374417.391430447</v>
       </c>
       <c r="D179" t="n">
         <v>63254.33488</v>
@@ -9446,13 +9446,13 @@
         <v>0.04809014326558194</v>
       </c>
       <c r="F179" t="n">
-        <v>3.778085501192987</v>
+        <v>1261.264208718909</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>0.9770389072064581</v>
       </c>
       <c r="H179" t="n">
-        <v>188.9042750596494</v>
+        <v>63063.21043594546</v>
       </c>
     </row>
     <row r="180">
@@ -9462,10 +9462,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-182.4460363878383</v>
+        <v>4.987944267376967</v>
       </c>
       <c r="C180" t="n">
-        <v>3928.12876469112</v>
+        <v>1454790.951782953</v>
       </c>
       <c r="D180" t="n">
         <v>66953.33937</v>
@@ -9474,13 +9474,13 @@
         <v>0.05847827658005404</v>
       </c>
       <c r="F180" t="n">
-        <v>4.594204006873466</v>
+        <v>1607.471207050122</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1.17643257060228</v>
       </c>
       <c r="H180" t="n">
-        <v>229.7102003436733</v>
+        <v>80373.56035250609</v>
       </c>
     </row>
     <row r="181">
@@ -9490,10 +9490,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-182.4526835615452</v>
+        <v>7.400503470046729</v>
       </c>
       <c r="C181" t="n">
-        <v>3520.375093119016</v>
+        <v>1306739.529393725</v>
       </c>
       <c r="D181" t="n">
         <v>60139.62011</v>
@@ -9502,13 +9502,13 @@
         <v>-0.1017681765258305</v>
       </c>
       <c r="F181" t="n">
-        <v>7.995170030825569</v>
+        <v>2961.028447784572</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.006647173706952077</v>
+        <v>2.412559202669763</v>
       </c>
       <c r="H181" t="n">
-        <v>-399.7585015412784</v>
+        <v>148051.4223892286</v>
       </c>
     </row>
     <row r="182">
@@ -9518,10 +9518,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-182.4553007384012</v>
+        <v>8.352552327173525</v>
       </c>
       <c r="C182" t="n">
-        <v>3366.701882304228</v>
+        <v>1250815.547958258</v>
       </c>
       <c r="D182" t="n">
         <v>57565.85011</v>
@@ -9530,13 +9530,13 @@
         <v>-0.04279657894899203</v>
       </c>
       <c r="F182" t="n">
-        <v>3.013200212054663</v>
+        <v>1118.479628709345</v>
       </c>
       <c r="G182" t="n">
-        <v>-0.002617176855980476</v>
+        <v>0.9520488571267952</v>
       </c>
       <c r="H182" t="n">
-        <v>-150.6600106027331</v>
+        <v>55923.98143546724</v>
       </c>
     </row>
     <row r="183">
@@ -9546,10 +9546,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-182.4559768456394</v>
+        <v>8.598719575007513</v>
       </c>
       <c r="C183" t="n">
-        <v>3327.456476325834</v>
+        <v>1236520.774948306</v>
       </c>
       <c r="D183" t="n">
         <v>56907.96673</v>
@@ -9558,13 +9558,13 @@
         <v>-0.01142836210605558</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7695177642822326</v>
+        <v>285.8954601990259</v>
       </c>
       <c r="G183" t="n">
-        <v>-0.0006761072381422548</v>
+        <v>0.2461672478339883</v>
       </c>
       <c r="H183" t="n">
-        <v>-38.47588821411163</v>
+        <v>14294.7730099513</v>
       </c>
     </row>
     <row r="184">
@@ -9574,10 +9574,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-182.4631782196514</v>
+        <v>11.22131003250218</v>
       </c>
       <c r="C184" t="n">
-        <v>2955.28226144843</v>
+        <v>1100928.438918439</v>
       </c>
       <c r="D184" t="n">
         <v>50667.64768</v>
@@ -9586,13 +9586,13 @@
         <v>-0.1096563347555046</v>
       </c>
       <c r="F184" t="n">
-        <v>7.297533625047148</v>
+        <v>2711.846720597349</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.007201374012008552</v>
+        <v>2.622590457494673</v>
       </c>
       <c r="H184" t="n">
-        <v>-364.8766812523574</v>
+        <v>135592.3360298674</v>
       </c>
     </row>
     <row r="185">
@@ -9602,10 +9602,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-182.4659365124285</v>
+        <v>12.22830328685268</v>
       </c>
       <c r="C185" t="n">
-        <v>2819.167824263521</v>
+        <v>1051216.106105434</v>
       </c>
       <c r="D185" t="n">
         <v>48379.75423</v>
@@ -9614,13 +9614,13 @@
         <v>-0.04515491748205042</v>
       </c>
       <c r="F185" t="n">
-        <v>2.668910533037424</v>
+        <v>994.2466562600939</v>
       </c>
       <c r="G185" t="n">
-        <v>-0.002758292777128711</v>
+        <v>1.00699325435049</v>
       </c>
       <c r="H185" t="n">
-        <v>-133.4455266518712</v>
+        <v>49712.33281300469</v>
       </c>
     </row>
     <row r="186">
@@ -9630,10 +9630,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-182.4659365124285</v>
+        <v>11.9857885779082</v>
       </c>
       <c r="C186" t="n">
-        <v>2819.167824263521</v>
+        <v>1063326.275162049</v>
       </c>
       <c r="D186" t="n">
         <v>48937.09634</v>
@@ -9642,13 +9642,13 @@
         <v>0.01152015174261454</v>
       </c>
       <c r="F186" t="n">
-        <v>0.649544822468245</v>
+        <v>242.2033811322999</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>0.2425147089444721</v>
       </c>
       <c r="H186" t="n">
-        <v>32.47724112341225</v>
+        <v>12110.16905661499</v>
       </c>
     </row>
     <row r="187">
@@ -9658,10 +9658,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-182.4675250499507</v>
+        <v>12.57296575781189</v>
       </c>
       <c r="C187" t="n">
-        <v>2742.002472980976</v>
+        <v>1034791.938475518</v>
       </c>
       <c r="D187" t="n">
         <v>47623.87046</v>
@@ -9670,13 +9670,13 @@
         <v>-0.02683497751636317</v>
       </c>
       <c r="F187" t="n">
-        <v>1.513046103579321</v>
+        <v>570.6867337306358</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.00158853752221814</v>
+        <v>0.5871771799036838</v>
       </c>
       <c r="H187" t="n">
-        <v>-75.65230517896606</v>
+        <v>28534.33668653179</v>
       </c>
     </row>
     <row r="188">
@@ -9686,10 +9686,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-182.4696882798955</v>
+        <v>13.37300991219168</v>
       </c>
       <c r="C188" t="n">
-        <v>2640.725788361354</v>
+        <v>997321.0061798869</v>
       </c>
       <c r="D188" t="n">
         <v>45899.35874</v>
@@ -9698,13 +9698,13 @@
         <v>-0.03621107867426353</v>
       </c>
       <c r="F188" t="n">
-        <v>1.985817345482786</v>
+        <v>749.4186459126128</v>
       </c>
       <c r="G188" t="n">
-        <v>-0.002163229944814242</v>
+        <v>0.800044154379792</v>
       </c>
       <c r="H188" t="n">
-        <v>-99.2908672741393</v>
+        <v>37470.93229563064</v>
       </c>
     </row>
     <row r="189">
@@ -9714,10 +9714,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-182.4739379911614</v>
+        <v>14.94589559673762</v>
       </c>
       <c r="C189" t="n">
-        <v>2455.451032902821</v>
+        <v>928720.4341927465</v>
       </c>
       <c r="D189" t="n">
         <v>42742.17841</v>
@@ -9726,13 +9726,13 @@
         <v>-0.06878484616493365</v>
       </c>
       <c r="F189" t="n">
-        <v>3.632838342324177</v>
+        <v>1372.011439742807</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.004249711265856112</v>
+        <v>1.57288568454594</v>
       </c>
       <c r="H189" t="n">
-        <v>-181.6419171162089</v>
+        <v>68600.57198714036</v>
       </c>
     </row>
     <row r="190">
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-182.4744370883909</v>
+        <v>15.13089271285142</v>
       </c>
       <c r="C190" t="n">
-        <v>2433.879291302724</v>
+        <v>920721.3777530126</v>
       </c>
       <c r="D190" t="n">
         <v>42374.04061</v>
@@ -9754,13 +9754,13 @@
         <v>-0.00861298636837551</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4229753254921114</v>
+        <v>159.9811287946782</v>
       </c>
       <c r="G190" t="n">
-        <v>-0.000499097229581042</v>
+        <v>0.1849971161138044</v>
       </c>
       <c r="H190" t="n">
-        <v>-21.14876627460557</v>
+        <v>7999.056439733911</v>
       </c>
     </row>
     <row r="191">
@@ -9770,10 +9770,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-182.4828677250404</v>
+        <v>18.25636490474803</v>
       </c>
       <c r="C191" t="n">
-        <v>2116.132599469735</v>
+        <v>802876.6771638001</v>
       </c>
       <c r="D191" t="n">
         <v>36950.51483</v>
@@ -9782,13 +9782,13 @@
         <v>-0.1279917067602017</v>
       </c>
       <c r="F191" t="n">
-        <v>6.230327290842913</v>
+        <v>2356.894011784249</v>
       </c>
       <c r="G191" t="n">
-        <v>-0.008430636649458171</v>
+        <v>3.125472191896607</v>
       </c>
       <c r="H191" t="n">
-        <v>-311.5163645421457</v>
+        <v>117844.7005892124</v>
       </c>
     </row>
     <row r="192">
@@ -9798,10 +9798,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-182.4828677250404</v>
+        <v>17.27080830275987</v>
       </c>
       <c r="C192" t="n">
-        <v>2116.132599469735</v>
+        <v>841840.067527549</v>
       </c>
       <c r="D192" t="n">
         <v>38743.71343</v>
@@ -9810,13 +9810,13 @@
         <v>0.04852973248816851</v>
       </c>
       <c r="F192" t="n">
-        <v>2.053906979235178</v>
+        <v>779.2678072749771</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>0.9855566019881609</v>
       </c>
       <c r="H192" t="n">
-        <v>102.6953489617589</v>
+        <v>38963.39036374885</v>
       </c>
     </row>
     <row r="193">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-182.4828677250404</v>
+        <v>14.68590198515594</v>
       </c>
       <c r="C193" t="n">
-        <v>2116.132599469735</v>
+        <v>958152.1593864413</v>
       </c>
       <c r="D193" t="n">
         <v>44096.70449</v>
@@ -9838,13 +9838,13 @@
         <v>0.1381641197009027</v>
       </c>
       <c r="F193" t="n">
-        <v>5.847471955522378</v>
+        <v>2326.241837177846</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>2.584906317603927</v>
       </c>
       <c r="H193" t="n">
-        <v>292.3735977761189</v>
+        <v>116312.0918588923</v>
       </c>
     </row>
     <row r="194">
@@ -9854,10 +9854,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-182.4828677250404</v>
+        <v>14.45586793359598</v>
       </c>
       <c r="C194" t="n">
-        <v>2116.132599469735</v>
+        <v>968615.9568233243</v>
       </c>
       <c r="D194" t="n">
         <v>44578.27621</v>
@@ -9866,13 +9866,13 @@
         <v>0.01092080974235196</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4621976301679531</v>
+        <v>209.2759487376603</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>0.2300340515599616</v>
       </c>
       <c r="H194" t="n">
-        <v>23.10988150839765</v>
+        <v>10463.79743688301</v>
       </c>
     </row>
     <row r="195">
@@ -9882,10 +9882,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-182.4906704273806</v>
+        <v>17.95596313321644</v>
       </c>
       <c r="C195" t="n">
-        <v>1811.429361970577</v>
+        <v>831879.085517841</v>
       </c>
       <c r="D195" t="n">
         <v>38285.28261</v>
@@ -9894,13 +9894,13 @@
         <v>-0.1411672710347721</v>
       </c>
       <c r="F195" t="n">
-        <v>5.974573284297216</v>
+        <v>2734.737426109666</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.007802702340163313</v>
+        <v>3.500095199620459</v>
       </c>
       <c r="H195" t="n">
-        <v>-298.7286642148608</v>
+        <v>136736.8713054833</v>
       </c>
     </row>
     <row r="196">
@@ -9910,10 +9910,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-182.4906704273806</v>
+        <v>15.04094146094598</v>
       </c>
       <c r="C196" t="n">
-        <v>1811.429361970577</v>
+        <v>963821.3403697126</v>
       </c>
       <c r="D196" t="n">
         <v>44357.61524</v>
@@ -9922,13 +9922,13 @@
         <v>0.1586074913396074</v>
       </c>
       <c r="F196" t="n">
-        <v>5.746125336821176</v>
+        <v>2638.84509703743</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>2.915021672270452</v>
       </c>
       <c r="H196" t="n">
-        <v>287.3062668410588</v>
+        <v>131942.2548518715</v>
       </c>
     </row>
     <row r="197">
@@ -9938,10 +9938,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-182.4965887175563</v>
+        <v>18.12695243095445</v>
       </c>
       <c r="C197" t="n">
-        <v>1577.552309629934</v>
+        <v>841820.5695208346</v>
       </c>
       <c r="D197" t="n">
         <v>38742.81608</v>
@@ -9950,13 +9950,13 @@
         <v>-0.1265802755540562</v>
       </c>
       <c r="F197" t="n">
-        <v>4.585824555698876</v>
+        <v>2440.01541697756</v>
       </c>
       <c r="G197" t="n">
-        <v>-0.005918290175692975</v>
+        <v>3.086010970008467</v>
       </c>
       <c r="H197" t="n">
-        <v>-229.2912277849438</v>
+        <v>122000.770848878</v>
       </c>
     </row>
     <row r="198">
@@ -9966,10 +9966,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-182.4965887175563</v>
+        <v>17.80607218775882</v>
       </c>
       <c r="C198" t="n">
-        <v>1577.552309629934</v>
+        <v>854700.1685772738</v>
       </c>
       <c r="D198" t="n">
         <v>39335.5694</v>
@@ -9978,13 +9978,13 @@
         <v>0.01529969630436847</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4827214248318611</v>
+        <v>257.5919811287856</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>0.3208802431956277</v>
       </c>
       <c r="H198" t="n">
-        <v>24.13607124159305</v>
+        <v>12879.59905643928</v>
       </c>
     </row>
     <row r="199">
@@ -9994,10 +9994,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-182.4965887175563</v>
+        <v>16.28368392793054</v>
       </c>
       <c r="C199" t="n">
-        <v>1577.552309629934</v>
+        <v>920511.4254938524</v>
       </c>
       <c r="D199" t="n">
         <v>42364.37805</v>
@@ -10006,13 +10006,13 @@
         <v>0.07699923240465407</v>
       </c>
       <c r="F199" t="n">
-        <v>2.429406338393882</v>
+        <v>1316.22513833157</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1.522388259828282</v>
       </c>
       <c r="H199" t="n">
-        <v>121.4703169196941</v>
+        <v>65811.25691657852</v>
       </c>
     </row>
     <row r="200">
@@ -10022,10 +10022,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-182.4965887175563</v>
+        <v>13.99867583800496</v>
       </c>
       <c r="C200" t="n">
-        <v>1577.552309629934</v>
+        <v>1031163.867979888</v>
       </c>
       <c r="D200" t="n">
         <v>47456.89703</v>
@@ -10034,13 +10034,13 @@
         <v>0.1202075709453263</v>
       </c>
       <c r="F200" t="n">
-        <v>3.792674623596075</v>
+        <v>2213.048849720715</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2.285008089925575</v>
       </c>
       <c r="H200" t="n">
-        <v>189.6337311798037</v>
+        <v>110652.4424860357</v>
       </c>
     </row>
     <row r="201">
@@ -10050,10 +10050,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-182.4979846381542</v>
+        <v>14.89286769261167</v>
       </c>
       <c r="C201" t="n">
-        <v>1512.704479418129</v>
+        <v>989607.3457158932</v>
       </c>
       <c r="D201" t="n">
         <v>45544.35562</v>
@@ -10062,13 +10062,13 @@
         <v>-0.04030059969557175</v>
       </c>
       <c r="F201" t="n">
-        <v>1.271526082584413</v>
+        <v>831.1304452798975</v>
       </c>
       <c r="G201" t="n">
-        <v>-0.001395920597925909</v>
+        <v>0.894191854606702</v>
       </c>
       <c r="H201" t="n">
-        <v>-63.57630412922064</v>
+        <v>41556.52226399487</v>
       </c>
     </row>
     <row r="202">
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-182.5024719083167</v>
+        <v>17.76971698072297</v>
       </c>
       <c r="C202" t="n">
-        <v>1329.058276072499</v>
+        <v>871822.1792867705</v>
       </c>
       <c r="D202" t="n">
         <v>40123.56976</v>
@@ -10090,13 +10090,13 @@
         <v>-0.1190221221972797</v>
       </c>
       <c r="F202" t="n">
-        <v>3.600905947953539</v>
+        <v>2355.703328582454</v>
       </c>
       <c r="G202" t="n">
-        <v>-0.004487270162515993</v>
+        <v>2.876849288111303</v>
       </c>
       <c r="H202" t="n">
-        <v>-180.045297397677</v>
+        <v>117785.1664291227</v>
       </c>
     </row>
     <row r="203">
@@ -10106,10 +10106,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-182.5024719083167</v>
+        <v>17.06259835280617</v>
       </c>
       <c r="C203" t="n">
-        <v>1329.058276072499</v>
+        <v>901767.7470858959</v>
       </c>
       <c r="D203" t="n">
         <v>41501.74424</v>
@@ -10118,13 +10118,13 @@
         <v>0.03434825186900323</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9130165683024282</v>
+        <v>598.9113559825058</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>0.7071186279168006</v>
       </c>
       <c r="H203" t="n">
-        <v>45.65082841512141</v>
+        <v>29945.56779912529</v>
       </c>
     </row>
     <row r="204">
@@ -10134,10 +10134,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-182.5053125942927</v>
+        <v>18.95145925386365</v>
       </c>
       <c r="C204" t="n">
-        <v>1218.604710808974</v>
+        <v>828294.3295611145</v>
       </c>
       <c r="D204" t="n">
         <v>38120.30263</v>
@@ -10146,13 +10146,13 @@
         <v>-0.08147709625035272</v>
       </c>
       <c r="F204" t="n">
-        <v>2.165756181637736</v>
+        <v>1469.468350495625</v>
       </c>
       <c r="G204" t="n">
-        <v>-0.002840685975999211</v>
+        <v>1.888860901057481</v>
       </c>
       <c r="H204" t="n">
-        <v>-108.2878090818868</v>
+        <v>73473.41752478127</v>
       </c>
     </row>
     <row r="205">
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-182.5056278730507</v>
+        <v>19.1614705340127</v>
       </c>
       <c r="C205" t="n">
-        <v>1206.465541591032</v>
+        <v>820205.0353859103</v>
       </c>
       <c r="D205" t="n">
         <v>37748.01185</v>
@@ -10174,13 +10174,13 @@
         <v>-0.009766207357100294</v>
       </c>
       <c r="F205" t="n">
-        <v>0.2380229258419936</v>
+        <v>161.7858835040842</v>
       </c>
       <c r="G205" t="n">
-        <v>-0.0003152787579751615</v>
+        <v>0.2100112801490531</v>
       </c>
       <c r="H205" t="n">
-        <v>-11.90114629209968</v>
+        <v>8089.294175204212</v>
       </c>
     </row>
     <row r="206">
@@ -10190,10 +10190,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-182.5125647753011</v>
+        <v>23.78314294853854</v>
       </c>
       <c r="C206" t="n">
-        <v>987.006189115218</v>
+        <v>673932.957610842</v>
       </c>
       <c r="D206" t="n">
         <v>31016.18275</v>
@@ -10202,13 +10202,13 @@
         <v>-0.1783359909589517</v>
       </c>
       <c r="F206" t="n">
-        <v>4.303124558349303</v>
+        <v>2925.441555501367</v>
       </c>
       <c r="G206" t="n">
-        <v>-0.006936902250405561</v>
+        <v>4.621672414525833</v>
       </c>
       <c r="H206" t="n">
-        <v>-215.1562279174651</v>
+        <v>146272.0777750684</v>
       </c>
     </row>
     <row r="207">
@@ -10218,10 +10218,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-182.5131836639768</v>
+        <v>24.19727174599079</v>
       </c>
       <c r="C207" t="n">
-        <v>967.8002361468132</v>
+        <v>661076.1688429954</v>
       </c>
       <c r="D207" t="n">
         <v>30424.47922</v>
@@ -10230,13 +10230,13 @@
         <v>-0.01907725185814488</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3765873131059759</v>
+        <v>257.1357753569303</v>
       </c>
       <c r="G207" t="n">
-        <v>-0.0006188886757647776</v>
+        <v>0.4141287974522504</v>
       </c>
       <c r="H207" t="n">
-        <v>-18.82936565529879</v>
+        <v>12856.78876784651</v>
       </c>
     </row>
     <row r="208">
@@ -10246,10 +10246,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-182.5140111106571</v>
+        <v>24.75117239163442</v>
       </c>
       <c r="C208" t="n">
-        <v>942.7731200259246</v>
+        <v>644316.0762078025</v>
       </c>
       <c r="D208" t="n">
         <v>29653.13529</v>
@@ -10258,13 +10258,13 @@
         <v>-0.02535274061463468</v>
       </c>
       <c r="F208" t="n">
-        <v>0.4907277670762468</v>
+        <v>335.201852703858</v>
       </c>
       <c r="G208" t="n">
-        <v>-0.0008274466802195723</v>
+        <v>0.5539006456436346</v>
       </c>
       <c r="H208" t="n">
-        <v>-24.53638835381234</v>
+        <v>16760.0926351929</v>
       </c>
     </row>
     <row r="209">
@@ -10274,10 +10274,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-182.5140111106571</v>
+        <v>23.31824310135219</v>
       </c>
       <c r="C209" t="n">
-        <v>942.7731200259246</v>
+        <v>690802.2818886422</v>
       </c>
       <c r="D209" t="n">
         <v>31792.55381</v>
@@ -10286,13 +10286,13 @@
         <v>0.07214813877443457</v>
       </c>
       <c r="F209" t="n">
-        <v>1.360386517928741</v>
+        <v>929.7241136167939</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1.43292929028223</v>
       </c>
       <c r="H209" t="n">
-        <v>68.01932589643707</v>
+        <v>46486.2056808397</v>
       </c>
     </row>
   </sheetData>

--- a/Results/BITCOIN(06-2018-06-2022)Results.xlsx
+++ b/Results/BITCOIN(06-2018-06-2022)Results.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6103054232863292</v>
+        <v>0.5980993148206026</v>
       </c>
       <c r="C3" t="n">
-        <v>995082.6446280992</v>
+        <v>995179.0633608815</v>
       </c>
       <c r="D3" t="n">
         <v>6770.759766</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.289457265952091</v>
+        <v>1.263668120633049</v>
       </c>
       <c r="C4" t="n">
-        <v>990165.2892561983</v>
+        <v>990358.1267217631</v>
       </c>
       <c r="D4" t="n">
         <v>6084.399902</v>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.920248493858629</v>
+        <v>1.881843523981456</v>
       </c>
       <c r="C5" t="n">
-        <v>985247.9338842975</v>
+        <v>985537.1900826446</v>
       </c>
       <c r="D5" t="n">
         <v>6550.870117</v>
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.57297026260149</v>
+        <v>2.52151085734946</v>
       </c>
       <c r="C6" t="n">
-        <v>980330.5785123967</v>
+        <v>980716.2534435261</v>
       </c>
       <c r="D6" t="n">
         <v>6330.77002</v>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.137843911925981</v>
+        <v>3.075087033687461</v>
       </c>
       <c r="C7" t="n">
-        <v>975413.2231404958</v>
+        <v>975895.3168044076</v>
       </c>
       <c r="D7" t="n">
         <v>7315.319824</v>
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.630970283166695</v>
+        <v>3.558350877503361</v>
       </c>
       <c r="C8" t="n">
-        <v>970495.867768595</v>
+        <v>971074.3801652892</v>
       </c>
       <c r="D8" t="n">
         <v>8379.660156</v>
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.162854712254289</v>
+        <v>4.079597618009203</v>
       </c>
       <c r="C9" t="n">
-        <v>965578.5123966942</v>
+        <v>966253.4435261707</v>
       </c>
       <c r="D9" t="n">
         <v>7769.04</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.775322961134681</v>
+        <v>4.679816501911987</v>
       </c>
       <c r="C10" t="n">
-        <v>960661.1570247933</v>
+        <v>961432.5068870522</v>
       </c>
       <c r="D10" t="n">
         <v>6746.85</v>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.439517213404851</v>
+        <v>5.330726869136753</v>
       </c>
       <c r="C11" t="n">
-        <v>955743.8016528925</v>
+        <v>956611.5702479337</v>
       </c>
       <c r="D11" t="n">
         <v>6221.42</v>
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.076592781716075</v>
+        <v>5.955060926081753</v>
       </c>
       <c r="C12" t="n">
-        <v>950826.4462809917</v>
+        <v>951790.6336088153</v>
       </c>
       <c r="D12" t="n">
         <v>6486.25</v>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.659277550969002</v>
+        <v>6.526091999949622</v>
       </c>
       <c r="C13" t="n">
-        <v>945909.0909090908</v>
+        <v>946969.6969696968</v>
       </c>
       <c r="D13" t="n">
         <v>7091.71</v>
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.220610683928861</v>
+        <v>7.076198470250283</v>
       </c>
       <c r="C14" t="n">
-        <v>940991.73553719</v>
+        <v>942148.7603305783</v>
       </c>
       <c r="D14" t="n">
         <v>7361.46</v>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.874754243137835</v>
+        <v>7.717259158275077</v>
       </c>
       <c r="C15" t="n">
-        <v>936074.3801652892</v>
+        <v>937327.8236914598</v>
       </c>
       <c r="D15" t="n">
         <v>6317.01</v>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.523267846715866</v>
+        <v>8.352802489781547</v>
       </c>
       <c r="C16" t="n">
-        <v>931157.0247933883</v>
+        <v>932506.8870523414</v>
       </c>
       <c r="D16" t="n">
         <v>6371.85</v>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.163646877330326</v>
+        <v>8.980373939783718</v>
       </c>
       <c r="C17" t="n">
-        <v>926239.6694214875</v>
+        <v>927685.9504132229</v>
       </c>
       <c r="D17" t="n">
         <v>6452.79</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.794150337117181</v>
+        <v>9.598267330374835</v>
       </c>
       <c r="C18" t="n">
-        <v>921322.3140495867</v>
+        <v>922865.0137741044</v>
       </c>
       <c r="D18" t="n">
         <v>6553.86</v>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.41644716526154</v>
+        <v>10.2081182219563</v>
       </c>
       <c r="C19" t="n">
-        <v>916404.9586776858</v>
+        <v>918044.0771349859</v>
       </c>
       <c r="D19" t="n">
         <v>6640.29</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.04344342731046</v>
+        <v>10.82257455876425</v>
       </c>
       <c r="C20" t="n">
-        <v>911487.603305785</v>
+        <v>913223.1404958675</v>
       </c>
       <c r="D20" t="n">
         <v>6590.52</v>
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.68124271159506</v>
+        <v>11.44761785736316</v>
       </c>
       <c r="C21" t="n">
-        <v>906570.2479338842</v>
+        <v>908402.203856749</v>
       </c>
       <c r="D21" t="n">
         <v>6478.89</v>
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.33332381081704</v>
+        <v>12.0866573346007</v>
       </c>
       <c r="C22" t="n">
-        <v>901652.8925619833</v>
+        <v>903581.2672176305</v>
       </c>
       <c r="D22" t="n">
         <v>6336.99</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.97214755742888</v>
+        <v>12.7127046062803</v>
       </c>
       <c r="C23" t="n">
-        <v>896735.5371900825</v>
+        <v>898760.330578512</v>
       </c>
       <c r="D23" t="n">
         <v>6468.5</v>
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.62276561074739</v>
+        <v>13.35031029853244</v>
       </c>
       <c r="C24" t="n">
-        <v>891818.1818181816</v>
+        <v>893939.3939393936</v>
       </c>
       <c r="D24" t="n">
         <v>6351.24</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.54812545635592</v>
+        <v>14.25716294722879</v>
       </c>
       <c r="C25" t="n">
-        <v>886900.8264462808</v>
+        <v>889118.4573002751</v>
       </c>
       <c r="D25" t="n">
         <v>4465.54</v>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.62916243112843</v>
+        <v>15.31657918250585</v>
       </c>
       <c r="C26" t="n">
-        <v>881983.47107438</v>
+        <v>884297.5206611566</v>
       </c>
       <c r="D26" t="n">
         <v>3822.47</v>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.67294654058304</v>
+        <v>16.33948760977137</v>
       </c>
       <c r="C27" t="n">
-        <v>877066.1157024791</v>
+        <v>879476.5840220382</v>
       </c>
       <c r="D27" t="n">
         <v>3958.894725</v>
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.88068632709269</v>
+        <v>17.52307260055083</v>
       </c>
       <c r="C28" t="n">
-        <v>872148.7603305783</v>
+        <v>874655.6473829197</v>
       </c>
       <c r="D28" t="n">
         <v>3421.458373</v>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.99544938501237</v>
+        <v>18.61554039731212</v>
       </c>
       <c r="C29" t="n">
-        <v>867231.4049586775</v>
+        <v>869834.7107438012</v>
       </c>
       <c r="D29" t="n">
         <v>3706.82485</v>
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.07727974856089</v>
+        <v>19.67573415358966</v>
       </c>
       <c r="C30" t="n">
-        <v>862314.0495867766</v>
+        <v>865013.7741046827</v>
       </c>
       <c r="D30" t="n">
         <v>3819.666691</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.15080510174626</v>
+        <v>20.72778899971133</v>
       </c>
       <c r="C31" t="n">
-        <v>857396.6942148758</v>
+        <v>860192.8374655643</v>
       </c>
       <c r="D31" t="n">
         <v>3849.216409</v>
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.17577796295681</v>
+        <v>21.73226240369767</v>
       </c>
       <c r="C32" t="n">
-        <v>852479.338842975</v>
+        <v>855371.9008264458</v>
       </c>
       <c r="D32" t="n">
         <v>4031.552016</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.31366042830746</v>
+        <v>22.8473872197413</v>
       </c>
       <c r="C33" t="n">
-        <v>847561.9834710741</v>
+        <v>850550.9641873273</v>
       </c>
       <c r="D33" t="n">
         <v>3631.509871</v>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.45973338728303</v>
+        <v>23.97053871953736</v>
       </c>
       <c r="C34" t="n">
-        <v>842644.6280991733</v>
+        <v>845730.0275482088</v>
       </c>
       <c r="D34" t="n">
         <v>3605.557022</v>
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.65960415303667</v>
+        <v>25.14641206997593</v>
       </c>
       <c r="C35" t="n">
-        <v>837727.2727272725</v>
+        <v>840909.0909090904</v>
       </c>
       <c r="D35" t="n">
         <v>3443.897062</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.85076073265881</v>
+        <v>26.31374551800562</v>
       </c>
       <c r="C36" t="n">
-        <v>832809.9173553716</v>
+        <v>836088.1542699719</v>
       </c>
       <c r="D36" t="n">
         <v>3469.091701</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.98176218085563</v>
+        <v>27.4221269372385</v>
       </c>
       <c r="C37" t="n">
-        <v>827892.5619834708</v>
+        <v>831267.2176308534</v>
       </c>
       <c r="D37" t="n">
         <v>3653.603991</v>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.02877541364818</v>
+        <v>28.4481999053752</v>
       </c>
       <c r="C38" t="n">
-        <v>822975.20661157</v>
+        <v>826446.2809917349</v>
       </c>
       <c r="D38" t="n">
         <v>3946.684985</v>
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.10000109427021</v>
+        <v>29.4980010723848</v>
       </c>
       <c r="C39" t="n">
-        <v>818057.8512396691</v>
+        <v>821625.3443526165</v>
       </c>
       <c r="D39" t="n">
         <v>3857.479782</v>
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.16034121503168</v>
+        <v>30.53713439073104</v>
       </c>
       <c r="C40" t="n">
-        <v>813140.4958677683</v>
+        <v>816804.407713498</v>
       </c>
       <c r="D40" t="n">
         <v>3897.081063</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.21635483744527</v>
+        <v>31.57202774069636</v>
       </c>
       <c r="C41" t="n">
-        <v>808223.1404958675</v>
+        <v>811983.4710743795</v>
       </c>
       <c r="D41" t="n">
         <v>3913.047443</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.23144707416544</v>
+        <v>32.56681813268212</v>
       </c>
       <c r="C42" t="n">
-        <v>803305.7851239666</v>
+        <v>807162.534435261</v>
       </c>
       <c r="D42" t="n">
         <v>4070.794018</v>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.26859001911023</v>
+        <v>33.58321821872801</v>
       </c>
       <c r="C43" t="n">
-        <v>798388.4297520658</v>
+        <v>802341.5977961426</v>
       </c>
       <c r="D43" t="n">
         <v>3984.244819</v>
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.11536601438262</v>
+        <v>34.41305869409496</v>
       </c>
       <c r="C44" t="n">
-        <v>793471.074380165</v>
+        <v>797520.6611570241</v>
       </c>
       <c r="D44" t="n">
         <v>4879.958133</v>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.90939902493803</v>
+        <v>35.19121104443927</v>
       </c>
       <c r="C45" t="n">
-        <v>788553.7190082641</v>
+        <v>792699.7245179056</v>
       </c>
       <c r="D45" t="n">
         <v>5204.105308</v>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.69857486084686</v>
+        <v>35.96460336362993</v>
       </c>
       <c r="C46" t="n">
-        <v>783636.3636363633</v>
+        <v>787878.7878787871</v>
       </c>
       <c r="D46" t="n">
         <v>5236.13524</v>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>37.44024682356911</v>
+        <v>36.69144188709774</v>
       </c>
       <c r="C47" t="n">
-        <v>778719.0082644625</v>
+        <v>783057.8512396687</v>
       </c>
       <c r="D47" t="n">
         <v>5571.508177</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>38.21249452072914</v>
+        <v>37.44824463031456</v>
       </c>
       <c r="C48" t="n">
-        <v>773801.6528925616</v>
+        <v>778236.9146005502</v>
       </c>
       <c r="D48" t="n">
         <v>5350.914506</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>38.91892149394424</v>
+        <v>38.14054306406536</v>
       </c>
       <c r="C49" t="n">
-        <v>768884.2975206608</v>
+        <v>773415.9779614317</v>
       </c>
       <c r="D49" t="n">
         <v>5849.48135</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>39.43613737891403</v>
+        <v>38.64741463133576</v>
       </c>
       <c r="C50" t="n">
-        <v>763966.94214876</v>
+        <v>768595.0413223132</v>
       </c>
       <c r="D50" t="n">
         <v>7989.374505</v>
@@ -1398,10 +1398,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>39.95550385359509</v>
+        <v>39.15639377652319</v>
       </c>
       <c r="C51" t="n">
-        <v>759049.5867768591</v>
+        <v>763774.1046831948</v>
       </c>
       <c r="D51" t="n">
         <v>7956.292149</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>40.42946016706674</v>
+        <v>39.6208709637254</v>
       </c>
       <c r="C52" t="n">
-        <v>754132.2314049583</v>
+        <v>758953.1680440763</v>
       </c>
       <c r="D52" t="n">
         <v>8718.591329000001</v>
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>40.96581106790481</v>
+        <v>40.14649484654672</v>
       </c>
       <c r="C53" t="n">
-        <v>749214.8760330575</v>
+        <v>754132.2314049578</v>
       </c>
       <c r="D53" t="n">
         <v>7704.34318</v>
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>41.48719972002585</v>
+        <v>40.65745572562533</v>
       </c>
       <c r="C54" t="n">
-        <v>744297.5206611566</v>
+        <v>749311.2947658394</v>
       </c>
       <c r="D54" t="n">
         <v>7925.434104</v>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>41.94235506619938</v>
+        <v>41.1035079648754</v>
       </c>
       <c r="C55" t="n">
-        <v>739380.1652892558</v>
+        <v>744490.3581267209</v>
       </c>
       <c r="D55" t="n">
         <v>9078.727602999999</v>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>42.29318097293223</v>
+        <v>41.44731735347359</v>
       </c>
       <c r="C56" t="n">
-        <v>734462.809917355</v>
+        <v>739669.4214876024</v>
       </c>
       <c r="D56" t="n">
         <v>11778.58113</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>42.67515286109077</v>
+        <v>41.82164980386896</v>
       </c>
       <c r="C57" t="n">
-        <v>729545.4545454541</v>
+        <v>734848.4848484839</v>
       </c>
       <c r="D57" t="n">
         <v>10818.15582</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>43.00385024728683</v>
+        <v>42.1437732423411</v>
       </c>
       <c r="C58" t="n">
-        <v>724628.0991735533</v>
+        <v>730027.5482093655</v>
       </c>
       <c r="D58" t="n">
         <v>12571.53716</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>43.44014399004488</v>
+        <v>42.57134111024398</v>
       </c>
       <c r="C59" t="n">
-        <v>719710.7438016525</v>
+        <v>725206.611570247</v>
       </c>
       <c r="D59" t="n">
         <v>9471.214001</v>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>43.85805902739303</v>
+        <v>42.98089784684516</v>
       </c>
       <c r="C60" t="n">
-        <v>714793.3884297516</v>
+        <v>720385.6749311285</v>
       </c>
       <c r="D60" t="n">
         <v>9887.730844</v>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>44.28831823119645</v>
+        <v>43.40255186657252</v>
       </c>
       <c r="C61" t="n">
-        <v>709876.0330578508</v>
+        <v>715564.73829201</v>
       </c>
       <c r="D61" t="n">
         <v>9604.051159000001</v>
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>44.64838809465447</v>
+        <v>43.75542033276138</v>
       </c>
       <c r="C62" t="n">
-        <v>704958.67768595</v>
+        <v>710743.8016528916</v>
       </c>
       <c r="D62" t="n">
         <v>11476.19344</v>
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>45.02785786436456</v>
+        <v>44.12730070707727</v>
       </c>
       <c r="C63" t="n">
-        <v>700041.3223140491</v>
+        <v>705922.8650137731</v>
       </c>
       <c r="D63" t="n">
         <v>10889.48774</v>
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>45.41173110308262</v>
+        <v>44.50349648102097</v>
       </c>
       <c r="C64" t="n">
-        <v>695123.9669421483</v>
+        <v>701101.9283746546</v>
       </c>
       <c r="D64" t="n">
         <v>10764.57275</v>
@@ -1664,10 +1664,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>45.8167157700926</v>
+        <v>44.90038145469075</v>
       </c>
       <c r="C65" t="n">
-        <v>690206.6115702474</v>
+        <v>696280.9917355361</v>
       </c>
       <c r="D65" t="n">
         <v>10203.4268</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>46.20577153193547</v>
+        <v>45.28165610129677</v>
       </c>
       <c r="C66" t="n">
-        <v>685289.2561983466</v>
+        <v>691460.0550964177</v>
       </c>
       <c r="D66" t="n">
         <v>10621.18033</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>46.61397238426611</v>
+        <v>45.6816929365808</v>
       </c>
       <c r="C67" t="n">
-        <v>680371.9008264458</v>
+        <v>686639.1184572992</v>
       </c>
       <c r="D67" t="n">
         <v>10123.03473</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>47.01720361298106</v>
+        <v>46.07685954072145</v>
       </c>
       <c r="C68" t="n">
-        <v>675454.5454545449</v>
+        <v>681818.1818181807</v>
       </c>
       <c r="D68" t="n">
         <v>10247.79608</v>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>47.49750414925529</v>
+        <v>46.54755406627019</v>
       </c>
       <c r="C69" t="n">
-        <v>670537.1900826441</v>
+        <v>676997.2451790622</v>
       </c>
       <c r="D69" t="n">
         <v>8603.428672</v>
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>47.99272539765599</v>
+        <v>47.03287088970288</v>
       </c>
       <c r="C70" t="n">
-        <v>665619.8347107433</v>
+        <v>672176.3085399438</v>
       </c>
       <c r="D70" t="n">
         <v>8344.212648999999</v>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>48.49482886181677</v>
+        <v>47.52493228458044</v>
       </c>
       <c r="C71" t="n">
-        <v>660702.4793388424</v>
+        <v>667355.3719008253</v>
       </c>
       <c r="D71" t="n">
         <v>8229.840461</v>
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>48.99847241219599</v>
+        <v>48.01850296395207</v>
       </c>
       <c r="C72" t="n">
-        <v>655785.1239669416</v>
+        <v>662534.4352617068</v>
       </c>
       <c r="D72" t="n">
         <v>8204.67452</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>49.51012601664203</v>
+        <v>48.5199234963092</v>
       </c>
       <c r="C73" t="n">
-        <v>650867.7685950408</v>
+        <v>657713.4986225883</v>
       </c>
       <c r="D73" t="n">
         <v>8076.228466</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>49.94867709001102</v>
+        <v>48.94970354821081</v>
       </c>
       <c r="C74" t="n">
-        <v>645950.4132231399</v>
+        <v>652892.5619834699</v>
       </c>
       <c r="D74" t="n">
         <v>9422.463325000001</v>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50.39105921666351</v>
+        <v>49.38323803233025</v>
       </c>
       <c r="C75" t="n">
-        <v>641033.0578512391</v>
+        <v>648071.6253443514</v>
       </c>
       <c r="D75" t="n">
         <v>9340.86428</v>
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50.85998972452718</v>
+        <v>49.84278993003664</v>
       </c>
       <c r="C76" t="n">
-        <v>636115.7024793383</v>
+        <v>643250.6887052329</v>
       </c>
       <c r="D76" t="n">
         <v>8812.033629</v>
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>51.36369843364</v>
+        <v>50.3364244649672</v>
       </c>
       <c r="C77" t="n">
-        <v>631198.3471074374</v>
+        <v>638429.7520661145</v>
       </c>
       <c r="D77" t="n">
         <v>8203.61318</v>
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>51.93595985232979</v>
+        <v>50.8972406552832</v>
       </c>
       <c r="C78" t="n">
-        <v>626280.9917355366</v>
+        <v>633608.815426996</v>
       </c>
       <c r="D78" t="n">
         <v>7220.88065</v>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>52.50046269452189</v>
+        <v>51.45045344063146</v>
       </c>
       <c r="C79" t="n">
-        <v>621363.6363636358</v>
+        <v>628787.8787878775</v>
       </c>
       <c r="D79" t="n">
         <v>7320.125066</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>53.06829547519879</v>
+        <v>52.00692956569482</v>
       </c>
       <c r="C80" t="n">
-        <v>616446.2809917349</v>
+        <v>623966.942148759</v>
       </c>
       <c r="D80" t="n">
         <v>7277.197699</v>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>53.68989879012476</v>
+        <v>52.61610081432227</v>
       </c>
       <c r="C81" t="n">
-        <v>611528.9256198341</v>
+        <v>619146.0055096406</v>
       </c>
       <c r="D81" t="n">
         <v>6647.698469</v>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>54.25396773624338</v>
+        <v>53.16888838151852</v>
       </c>
       <c r="C82" t="n">
-        <v>606611.5702479333</v>
+        <v>614325.0688705221</v>
       </c>
       <c r="D82" t="n">
         <v>7325.755891</v>
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>54.82829622117605</v>
+        <v>53.73173029675254</v>
       </c>
       <c r="C83" t="n">
-        <v>601694.2148760324</v>
+        <v>609504.1322314036</v>
       </c>
       <c r="D83" t="n">
         <v>7194.891971</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>55.33457704348874</v>
+        <v>54.22788550261897</v>
       </c>
       <c r="C84" t="n">
-        <v>596776.8595041316</v>
+        <v>604683.1955922851</v>
       </c>
       <c r="D84" t="n">
         <v>8161.935477</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>55.80280032775381</v>
+        <v>54.68674432119874</v>
       </c>
       <c r="C85" t="n">
-        <v>591859.5041322308</v>
+        <v>599862.2589531667</v>
       </c>
       <c r="D85" t="n">
         <v>8825.343685</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>56.27536800968966</v>
+        <v>55.14986064949588</v>
       </c>
       <c r="C86" t="n">
-        <v>586942.1487603299</v>
+        <v>595041.3223140482</v>
       </c>
       <c r="D86" t="n">
         <v>8744.210751000001</v>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>56.71696506932153</v>
+        <v>55.58262576793511</v>
       </c>
       <c r="C87" t="n">
-        <v>582024.7933884291</v>
+        <v>590220.3856749297</v>
       </c>
       <c r="D87" t="n">
         <v>9357.470379</v>
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>57.16693178163221</v>
+        <v>56.02359314599957</v>
       </c>
       <c r="C88" t="n">
-        <v>577107.4380165283</v>
+        <v>585399.4490358112</v>
       </c>
       <c r="D88" t="n">
         <v>9183.415777</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>57.57195769779201</v>
+        <v>56.42051854383617</v>
       </c>
       <c r="C89" t="n">
-        <v>572190.0826446274</v>
+        <v>580578.5123966928</v>
       </c>
       <c r="D89" t="n">
         <v>10202.38765</v>
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>57.97932299216274</v>
+        <v>56.81973653231948</v>
       </c>
       <c r="C90" t="n">
-        <v>567272.7272727266</v>
+        <v>575757.5757575743</v>
       </c>
       <c r="D90" t="n">
         <v>10143.79836</v>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>58.42182705672462</v>
+        <v>57.25339051559012</v>
       </c>
       <c r="C91" t="n">
-        <v>562355.3719008258</v>
+        <v>570936.6391184558</v>
       </c>
       <c r="D91" t="n">
         <v>9338.290279999999</v>
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>58.89201099821394</v>
+        <v>57.71417077824966</v>
       </c>
       <c r="C92" t="n">
-        <v>557438.0165289249</v>
+        <v>566115.7024793373</v>
       </c>
       <c r="D92" t="n">
         <v>8788.542186000001</v>
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>59.41441106013257</v>
+        <v>58.22612283892991</v>
       </c>
       <c r="C93" t="n">
-        <v>552520.6611570241</v>
+        <v>561294.7658402189</v>
       </c>
       <c r="D93" t="n">
         <v>7910.089807</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>60.20494894601299</v>
+        <v>59.00084996709273</v>
       </c>
       <c r="C94" t="n">
-        <v>547603.3057851233</v>
+        <v>556473.8292011004</v>
       </c>
       <c r="D94" t="n">
         <v>5227.113689</v>
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>60.81815641944056</v>
+        <v>59.60179329105174</v>
       </c>
       <c r="C95" t="n">
-        <v>542685.9504132224</v>
+        <v>551652.8925619819</v>
       </c>
       <c r="D95" t="n">
         <v>6738.71664</v>
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>61.46007447056499</v>
+        <v>60.23087298115369</v>
       </c>
       <c r="C96" t="n">
-        <v>537768.5950413216</v>
+        <v>546831.9559228634</v>
       </c>
       <c r="D96" t="n">
         <v>6437.319215</v>
@@ -2272,10 +2272,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>62.03565160889028</v>
+        <v>60.79493857671248</v>
       </c>
       <c r="C97" t="n">
-        <v>532851.2396694208</v>
+        <v>542011.019283745</v>
       </c>
       <c r="D97" t="n">
         <v>7179.283418</v>
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>62.6392881804074</v>
+        <v>61.38650241679925</v>
       </c>
       <c r="C98" t="n">
-        <v>527933.8842975199</v>
+        <v>537190.0826446265</v>
       </c>
       <c r="D98" t="n">
         <v>6845.561717</v>
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>63.23995207525342</v>
+        <v>61.97515303374835</v>
       </c>
       <c r="C99" t="n">
-        <v>523016.5289256191</v>
+        <v>532369.146005508</v>
       </c>
       <c r="D99" t="n">
         <v>6879.4403</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>63.76926980932937</v>
+        <v>62.49388441314277</v>
       </c>
       <c r="C100" t="n">
-        <v>518099.1735537183</v>
+        <v>527548.2093663896</v>
       </c>
       <c r="D100" t="n">
         <v>7806.712564</v>
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>64.22802732853118</v>
+        <v>62.94346678196055</v>
       </c>
       <c r="C101" t="n">
-        <v>513181.8181818174</v>
+        <v>522727.2727272711</v>
       </c>
       <c r="D101" t="n">
         <v>9007.441256</v>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>64.69731175900885</v>
+        <v>63.40336552382866</v>
       </c>
       <c r="C102" t="n">
-        <v>508264.4628099166</v>
+        <v>517906.3360881526</v>
       </c>
       <c r="D102" t="n">
         <v>8805.387812999999</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>65.12220548238545</v>
+        <v>63.81976137273773</v>
       </c>
       <c r="C103" t="n">
-        <v>503347.1074380158</v>
+        <v>513085.3994490341</v>
       </c>
       <c r="D103" t="n">
         <v>9725.329365</v>
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>65.58979099277173</v>
+        <v>64.27799517291628</v>
       </c>
       <c r="C104" t="n">
-        <v>498429.7520661149</v>
+        <v>508264.4628099157</v>
       </c>
       <c r="D104" t="n">
         <v>8837.381213000001</v>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>66.02322241870199</v>
+        <v>64.70275797032794</v>
       </c>
       <c r="C105" t="n">
-        <v>493512.3966942141</v>
+        <v>503443.5261707972</v>
       </c>
       <c r="D105" t="n">
         <v>9533.760493</v>
@@ -2443,10 +2443,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>66.44513185122604</v>
+        <v>65.1162292142015</v>
       </c>
       <c r="C106" t="n">
-        <v>488595.0413223132</v>
+        <v>498622.5895316787</v>
       </c>
       <c r="D106" t="n">
         <v>9794.119511000001</v>
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>66.87856221978514</v>
+        <v>65.54099097538942</v>
       </c>
       <c r="C107" t="n">
-        <v>483677.6859504124</v>
+        <v>493801.6528925602</v>
       </c>
       <c r="D107" t="n">
         <v>9533.783751000001</v>
@@ -2481,10 +2481,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>67.30756629318198</v>
+        <v>65.96141496731832</v>
       </c>
       <c r="C108" t="n">
-        <v>478760.3305785116</v>
+        <v>488980.7162534418</v>
       </c>
       <c r="D108" t="n">
         <v>9632.149579000001</v>
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>67.75937453254704</v>
+        <v>66.40418704189608</v>
       </c>
       <c r="C109" t="n">
-        <v>473842.9752066107</v>
+        <v>484159.7796143233</v>
       </c>
       <c r="D109" t="n">
         <v>9145.985054999999</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>68.20595644160863</v>
+        <v>66.84183731277643</v>
       </c>
       <c r="C110" t="n">
-        <v>468925.6198347099</v>
+        <v>479338.8429752048</v>
       </c>
       <c r="D110" t="n">
         <v>9253.020154</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>68.65307583765457</v>
+        <v>67.28001432090144</v>
       </c>
       <c r="C111" t="n">
-        <v>464008.2644628091</v>
+        <v>474517.9063360863</v>
       </c>
       <c r="D111" t="n">
         <v>9241.897000000001</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>69.0938434044852</v>
+        <v>67.71196653639547</v>
       </c>
       <c r="C112" t="n">
-        <v>459090.9090909082</v>
+        <v>469696.9696969679</v>
       </c>
       <c r="D112" t="n">
         <v>9375.080464000001</v>
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>69.47249723174028</v>
+        <v>68.08304728710544</v>
       </c>
       <c r="C113" t="n">
-        <v>454173.5537190074</v>
+        <v>464876.0330578494</v>
       </c>
       <c r="D113" t="n">
         <v>10912.95296</v>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>69.84132056713895</v>
+        <v>68.44449415579614</v>
       </c>
       <c r="C114" t="n">
-        <v>449256.1983471066</v>
+        <v>460055.0964187309</v>
       </c>
       <c r="D114" t="n">
         <v>11203.8231</v>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>70.20365090186611</v>
+        <v>68.79957788382875</v>
       </c>
       <c r="C115" t="n">
-        <v>444338.8429752057</v>
+        <v>455234.1597796124</v>
       </c>
       <c r="D115" t="n">
         <v>11404.59688</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>70.54826528860853</v>
+        <v>69.13729998283631</v>
       </c>
       <c r="C116" t="n">
-        <v>439421.4876033049</v>
+        <v>450413.223140494</v>
       </c>
       <c r="D116" t="n">
         <v>11990.88478</v>
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>70.9117974080137</v>
+        <v>69.49356145985337</v>
       </c>
       <c r="C117" t="n">
-        <v>434504.1322314041</v>
+        <v>445592.2865013755</v>
       </c>
       <c r="D117" t="n">
         <v>11366.89493</v>
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>71.25716243965952</v>
+        <v>69.83201919086628</v>
       </c>
       <c r="C118" t="n">
-        <v>429586.7768595032</v>
+        <v>440771.349862257</v>
       </c>
       <c r="D118" t="n">
         <v>11964.8228</v>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>71.66491551113089</v>
+        <v>70.23161720090822</v>
       </c>
       <c r="C119" t="n">
-        <v>424669.4214876024</v>
+        <v>435950.4132231385</v>
       </c>
       <c r="D119" t="n">
         <v>10134.15151</v>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>72.04760883196022</v>
+        <v>70.60665665532096</v>
       </c>
       <c r="C120" t="n">
-        <v>419752.0661157016</v>
+        <v>431129.4765840201</v>
       </c>
       <c r="D120" t="n">
         <v>10797.76202</v>
@@ -2728,10 +2728,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>72.43982888512734</v>
+        <v>70.99103230742475</v>
       </c>
       <c r="C121" t="n">
-        <v>414834.7107438007</v>
+        <v>426308.5399449016</v>
       </c>
       <c r="D121" t="n">
         <v>10535.49244</v>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>72.82089497307925</v>
+        <v>71.36447707361762</v>
       </c>
       <c r="C122" t="n">
-        <v>409917.3553718999</v>
+        <v>421487.6033057831</v>
       </c>
       <c r="D122" t="n">
         <v>10843.87075</v>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>73.21060476038667</v>
+        <v>71.74639266517889</v>
       </c>
       <c r="C123" t="n">
-        <v>404999.9999999991</v>
+        <v>416666.6666666646</v>
       </c>
       <c r="D123" t="n">
         <v>10603.35547</v>
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>73.57215993779687</v>
+        <v>72.10071673904089</v>
       </c>
       <c r="C124" t="n">
-        <v>400082.6446280982</v>
+        <v>411845.7300275462</v>
       </c>
       <c r="D124" t="n">
         <v>11429.0478</v>
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>73.91902508732916</v>
+        <v>72.44064458558255</v>
       </c>
       <c r="C125" t="n">
-        <v>395165.2892561974</v>
+        <v>407024.7933884277</v>
       </c>
       <c r="D125" t="n">
         <v>11913.07749</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>74.22165922399546</v>
+        <v>72.73722603951552</v>
       </c>
       <c r="C126" t="n">
-        <v>390247.9338842966</v>
+        <v>402203.8567493092</v>
       </c>
       <c r="D126" t="n">
         <v>13654.21446</v>
@@ -2842,10 +2842,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>74.51786616898673</v>
+        <v>73.02750884560696</v>
       </c>
       <c r="C127" t="n">
-        <v>385330.5785123957</v>
+        <v>397382.9201101908</v>
       </c>
       <c r="D127" t="n">
         <v>13950.48791</v>
@@ -2861,10 +2861,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>74.78810722932587</v>
+        <v>73.29234508473931</v>
       </c>
       <c r="C128" t="n">
-        <v>380413.2231404949</v>
+        <v>392561.9834710723</v>
       </c>
       <c r="D128" t="n">
         <v>15290.90879</v>
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>75.02229180284942</v>
+        <v>73.52184596679238</v>
       </c>
       <c r="C129" t="n">
-        <v>375495.8677685941</v>
+        <v>387741.0468319538</v>
       </c>
       <c r="D129" t="n">
         <v>17645.19047</v>
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>75.23858906035775</v>
+        <v>73.73381727915054</v>
       </c>
       <c r="C130" t="n">
-        <v>370578.5123966932</v>
+        <v>382920.1101928353</v>
       </c>
       <c r="D130" t="n">
         <v>19104.40961</v>
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>75.45836821994359</v>
+        <v>73.94920085554466</v>
       </c>
       <c r="C131" t="n">
-        <v>365661.1570247924</v>
+        <v>378099.1735537169</v>
       </c>
       <c r="D131" t="n">
         <v>18801.74359</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>75.6839158097341</v>
+        <v>74.17023749353936</v>
       </c>
       <c r="C132" t="n">
-        <v>360743.8016528916</v>
+        <v>373278.2369145984</v>
       </c>
       <c r="D132" t="n">
         <v>18320.88478</v>
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>75.89671101281189</v>
+        <v>74.3787767925556</v>
       </c>
       <c r="C133" t="n">
-        <v>355826.4462809907</v>
+        <v>368457.3002754799</v>
       </c>
       <c r="D133" t="n">
         <v>19418.8184</v>
@@ -2975,10 +2975,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>76.07046577922424</v>
+        <v>74.54905646363969</v>
       </c>
       <c r="C134" t="n">
-        <v>350909.0909090899</v>
+        <v>363636.3636363614</v>
       </c>
       <c r="D134" t="n">
         <v>23781.97439</v>
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>76.22149713360785</v>
+        <v>74.69706719093564</v>
       </c>
       <c r="C135" t="n">
-        <v>345991.7355371891</v>
+        <v>358815.426997243</v>
       </c>
       <c r="D135" t="n">
         <v>27360.08971</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>76.34298470445435</v>
+        <v>74.8161250103652</v>
       </c>
       <c r="C136" t="n">
-        <v>341074.3801652882</v>
+        <v>353994.4903581245</v>
       </c>
       <c r="D136" t="n">
         <v>34013.61453</v>
@@ -3032,10 +3032,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>76.46482509470306</v>
+        <v>74.93552859280892</v>
       </c>
       <c r="C137" t="n">
-        <v>336157.0247933874</v>
+        <v>349173.553719006</v>
       </c>
       <c r="D137" t="n">
         <v>33915.11958</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>76.57944974066037</v>
+        <v>75.04786074584709</v>
       </c>
       <c r="C138" t="n">
-        <v>331239.6694214866</v>
+        <v>344352.6170798875</v>
       </c>
       <c r="D138" t="n">
         <v>36050.1127</v>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>76.70634531760535</v>
+        <v>75.17221841125317</v>
       </c>
       <c r="C139" t="n">
-        <v>326322.3140495857</v>
+        <v>339531.6804407691</v>
       </c>
       <c r="D139" t="n">
         <v>32564.03024</v>
@@ -3089,10 +3089,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>76.82271073141885</v>
+        <v>75.28625651679039</v>
       </c>
       <c r="C140" t="n">
-        <v>321404.9586776849</v>
+        <v>334710.7438016506</v>
       </c>
       <c r="D140" t="n">
         <v>35510.82121</v>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>76.911633749275</v>
+        <v>75.37340107428942</v>
       </c>
       <c r="C141" t="n">
-        <v>316487.6033057841</v>
+        <v>329889.8071625321</v>
       </c>
       <c r="D141" t="n">
         <v>46469.7612</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>76.99560977283804</v>
+        <v>75.4556975773812</v>
       </c>
       <c r="C142" t="n">
-        <v>311570.2479338832</v>
+        <v>325068.8705234136</v>
       </c>
       <c r="D142" t="n">
         <v>49207.27643</v>
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>77.08022580616489</v>
+        <v>75.53862129004152</v>
       </c>
       <c r="C143" t="n">
-        <v>306652.8925619824</v>
+        <v>320247.9338842952</v>
       </c>
       <c r="D143" t="n">
         <v>48835.08766</v>
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>77.16557459987342</v>
+        <v>75.62226310787588</v>
       </c>
       <c r="C144" t="n">
-        <v>301735.5371900816</v>
+        <v>315426.9972451767</v>
       </c>
       <c r="D144" t="n">
         <v>48415.81498</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>77.24094725711815</v>
+        <v>75.69612831197571</v>
       </c>
       <c r="C145" t="n">
-        <v>296818.1818181807</v>
+        <v>310606.0606060582</v>
       </c>
       <c r="D145" t="n">
         <v>54824.0112</v>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>77.31366474289791</v>
+        <v>75.76739144803987</v>
       </c>
       <c r="C146" t="n">
-        <v>291900.8264462799</v>
+        <v>305785.1239669397</v>
       </c>
       <c r="D146" t="n">
         <v>56825.8289</v>
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>77.38919379545155</v>
+        <v>75.84140991954244</v>
       </c>
       <c r="C147" t="n">
-        <v>286983.471074379</v>
+        <v>300964.1873278213</v>
       </c>
       <c r="D147" t="n">
         <v>54710.48908</v>
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>77.45931447976913</v>
+        <v>75.91012819017367</v>
       </c>
       <c r="C148" t="n">
-        <v>282066.1157024782</v>
+        <v>296143.2506887028</v>
       </c>
       <c r="D148" t="n">
         <v>58930.27778</v>
@@ -3260,10 +3260,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>77.53033148198071</v>
+        <v>75.97972485234101</v>
       </c>
       <c r="C149" t="n">
-        <v>277148.7603305774</v>
+        <v>291322.3140495843</v>
       </c>
       <c r="D149" t="n">
         <v>58186.50853</v>
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>77.59538165751607</v>
+        <v>76.04347402436566</v>
       </c>
       <c r="C150" t="n">
-        <v>272231.4049586765</v>
+        <v>286501.3774104659</v>
       </c>
       <c r="D150" t="n">
         <v>63523.75487</v>
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>77.66855588958467</v>
+        <v>76.11518477179288</v>
       </c>
       <c r="C151" t="n">
-        <v>267314.0495867757</v>
+        <v>281680.4407713474</v>
       </c>
       <c r="D151" t="n">
         <v>56471.12772</v>
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>77.74363735528949</v>
+        <v>76.18876460818362</v>
       </c>
       <c r="C152" t="n">
-        <v>262396.6942148749</v>
+        <v>276859.5041322289</v>
       </c>
       <c r="D152" t="n">
         <v>55036.63742</v>
@@ -3336,10 +3336,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>77.8212347905033</v>
+        <v>76.26481009469315</v>
       </c>
       <c r="C153" t="n">
-        <v>257479.3388429741</v>
+        <v>272038.5674931104</v>
       </c>
       <c r="D153" t="n">
         <v>53252.16476</v>
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>77.89409497596181</v>
+        <v>76.33621307644248</v>
       </c>
       <c r="C154" t="n">
-        <v>252561.9834710733</v>
+        <v>267217.630853992</v>
       </c>
       <c r="D154" t="n">
         <v>56714.53317</v>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>77.99031650971888</v>
+        <v>76.4305101795244</v>
       </c>
       <c r="C155" t="n">
-        <v>247644.6280991725</v>
+        <v>262396.6942148735</v>
       </c>
       <c r="D155" t="n">
         <v>42944.97545</v>
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>78.09794737760519</v>
+        <v>76.535988430053</v>
       </c>
       <c r="C156" t="n">
-        <v>242727.2727272717</v>
+        <v>257575.757575755</v>
       </c>
       <c r="D156" t="n">
         <v>38392.62366</v>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>78.21054247525612</v>
+        <v>76.6463316257509</v>
       </c>
       <c r="C157" t="n">
-        <v>237809.9173553709</v>
+        <v>252754.8209366366</v>
       </c>
       <c r="D157" t="n">
         <v>36699.92292</v>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>78.33419912139291</v>
+        <v>76.76751513896497</v>
       </c>
       <c r="C158" t="n">
-        <v>232892.56198347</v>
+        <v>247933.8842975181</v>
       </c>
       <c r="D158" t="n">
         <v>33416.97785</v>
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>78.43707106884493</v>
+        <v>76.86832964746793</v>
       </c>
       <c r="C159" t="n">
-        <v>227975.2066115692</v>
+        <v>243112.9476583997</v>
       </c>
       <c r="D159" t="n">
         <v>40168.69037</v>
@@ -3469,10 +3469,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>78.56415520320634</v>
+        <v>76.99287209914212</v>
       </c>
       <c r="C160" t="n">
-        <v>223057.8512396684</v>
+        <v>238292.0110192813</v>
       </c>
       <c r="D160" t="n">
         <v>32515.7143</v>
@@ -3488,10 +3488,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>78.67923225426206</v>
+        <v>77.10564760917673</v>
       </c>
       <c r="C161" t="n">
-        <v>218140.4958677676</v>
+        <v>233471.0743801628</v>
       </c>
       <c r="D161" t="n">
         <v>35908.38805</v>
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>78.79996707575037</v>
+        <v>77.22396773423527</v>
       </c>
       <c r="C162" t="n">
-        <v>213223.1404958668</v>
+        <v>228650.1377410444</v>
       </c>
       <c r="D162" t="n">
         <v>34225.68033</v>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>78.92624292360289</v>
+        <v>77.34771806513073</v>
       </c>
       <c r="C163" t="n">
-        <v>208305.785123966</v>
+        <v>223829.2011019259</v>
       </c>
       <c r="D163" t="n">
         <v>32723.84605</v>
@@ -3545,10 +3545,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>79.06492569258793</v>
+        <v>77.48362717873609</v>
       </c>
       <c r="C164" t="n">
-        <v>203388.4297520652</v>
+        <v>219008.2644628075</v>
       </c>
       <c r="D164" t="n">
         <v>29796.28569</v>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>79.16953070944369</v>
+        <v>77.58614009525473</v>
       </c>
       <c r="C165" t="n">
-        <v>198471.0743801644</v>
+        <v>214187.327823689</v>
       </c>
       <c r="D165" t="n">
         <v>39503.18569</v>
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>79.27766656653678</v>
+        <v>77.69211323520597</v>
       </c>
       <c r="C166" t="n">
-        <v>193553.7190082636</v>
+        <v>209366.3911845706</v>
       </c>
       <c r="D166" t="n">
         <v>38213.33197</v>
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>79.36828626446815</v>
+        <v>77.78092053917871</v>
       </c>
       <c r="C167" t="n">
-        <v>188636.3636363628</v>
+        <v>204545.4545454521</v>
       </c>
       <c r="D167" t="n">
         <v>45599.70403</v>
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>79.46075732871107</v>
+        <v>77.87154218213676</v>
       </c>
       <c r="C168" t="n">
-        <v>183719.008264462</v>
+        <v>199724.5179063337</v>
       </c>
       <c r="D168" t="n">
         <v>44686.75081</v>
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>79.54733744438373</v>
+        <v>77.95639069549597</v>
       </c>
       <c r="C169" t="n">
-        <v>178801.6528925612</v>
+        <v>194903.5812672153</v>
       </c>
       <c r="D169" t="n">
         <v>47727.25669</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>79.63507101458367</v>
+        <v>78.04236959429191</v>
       </c>
       <c r="C170" t="n">
-        <v>173884.2975206604</v>
+        <v>190082.6446280968</v>
       </c>
       <c r="D170" t="n">
         <v>47099.77487</v>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>79.7233142085263</v>
+        <v>78.1288479243557</v>
       </c>
       <c r="C171" t="n">
-        <v>168966.9421487596</v>
+        <v>185261.7079889784</v>
       </c>
       <c r="D171" t="n">
         <v>46827.76337</v>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>79.81105108843424</v>
+        <v>78.21483006666547</v>
       </c>
       <c r="C172" t="n">
-        <v>164049.5867768588</v>
+        <v>180440.7713498599</v>
       </c>
       <c r="D172" t="n">
         <v>47097.99812</v>
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>79.91263513862133</v>
+        <v>78.31438243584881</v>
       </c>
       <c r="C173" t="n">
-        <v>159132.231404958</v>
+        <v>175619.8347107415</v>
       </c>
       <c r="D173" t="n">
         <v>40677.95483</v>
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>80.01326177980035</v>
+        <v>78.41299654420425</v>
       </c>
       <c r="C174" t="n">
-        <v>154214.8760330572</v>
+        <v>170798.898071623</v>
       </c>
       <c r="D174" t="n">
         <v>41064.98395</v>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>80.09352006309695</v>
+        <v>78.49164966183493</v>
       </c>
       <c r="C175" t="n">
-        <v>149297.5206611564</v>
+        <v>165977.9614325046</v>
       </c>
       <c r="D175" t="n">
         <v>51486.66574</v>
@@ -3773,10 +3773,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>80.16725953398098</v>
+        <v>78.56391434330129</v>
       </c>
       <c r="C176" t="n">
-        <v>144380.1652892556</v>
+        <v>161157.0247933861</v>
       </c>
       <c r="D176" t="n">
         <v>56038.25679</v>
@@ -3792,10 +3792,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>80.23153981716963</v>
+        <v>78.62690902082618</v>
       </c>
       <c r="C177" t="n">
-        <v>139462.8099173548</v>
+        <v>156336.0881542677</v>
       </c>
       <c r="D177" t="n">
         <v>64284.58619</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>80.30000865829247</v>
+        <v>78.69400848512656</v>
       </c>
       <c r="C178" t="n">
-        <v>134545.4545454539</v>
+        <v>151515.1515151492</v>
       </c>
       <c r="D178" t="n">
         <v>60351.99862</v>
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>80.36533590286469</v>
+        <v>78.75802918480733</v>
       </c>
       <c r="C179" t="n">
-        <v>129628.0991735531</v>
+        <v>146694.2148760308</v>
       </c>
       <c r="D179" t="n">
         <v>63254.33488</v>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>80.42705398061617</v>
+        <v>78.81851290100377</v>
       </c>
       <c r="C180" t="n">
-        <v>124710.7438016523</v>
+        <v>141873.2782369124</v>
       </c>
       <c r="D180" t="n">
         <v>66953.33937</v>
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>80.49576461426167</v>
+        <v>78.88584932197638</v>
       </c>
       <c r="C181" t="n">
-        <v>119793.3884297514</v>
+        <v>137052.3415977939</v>
       </c>
       <c r="D181" t="n">
         <v>60139.62011</v>
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>80.56754730134199</v>
+        <v>78.95619635531509</v>
       </c>
       <c r="C182" t="n">
-        <v>114876.0330578506</v>
+        <v>132231.4049586755</v>
       </c>
       <c r="D182" t="n">
         <v>57565.85011</v>
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>80.64015983070126</v>
+        <v>79.02735663408717</v>
       </c>
       <c r="C183" t="n">
-        <v>109958.6776859498</v>
+        <v>127410.468319557</v>
       </c>
       <c r="D183" t="n">
         <v>56907.96673</v>
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>80.72171545039485</v>
+        <v>79.10728114138688</v>
       </c>
       <c r="C184" t="n">
-        <v>105041.3223140489</v>
+        <v>122589.5316804386</v>
       </c>
       <c r="D184" t="n">
         <v>50667.64768</v>
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>80.80712786041484</v>
+        <v>79.19098530320646</v>
       </c>
       <c r="C185" t="n">
-        <v>100123.9669421481</v>
+        <v>117768.5950413201</v>
       </c>
       <c r="D185" t="n">
         <v>48379.75423</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>80.89156751282594</v>
+        <v>79.27373616256935</v>
       </c>
       <c r="C186" t="n">
-        <v>95206.61157024727</v>
+        <v>112947.6584022016</v>
       </c>
       <c r="D186" t="n">
         <v>48937.09634</v>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>80.97833558448927</v>
+        <v>79.35876887279942</v>
       </c>
       <c r="C187" t="n">
-        <v>90289.25619834644</v>
+        <v>108126.7217630832</v>
       </c>
       <c r="D187" t="n">
         <v>47623.87046</v>
@@ -4001,10 +4001,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>81.06836367024894</v>
+        <v>79.4469963968439</v>
       </c>
       <c r="C188" t="n">
-        <v>85371.90082644561</v>
+        <v>103305.7851239647</v>
       </c>
       <c r="D188" t="n">
         <v>45899.35874</v>
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>81.16504174232381</v>
+        <v>79.54174090747726</v>
       </c>
       <c r="C189" t="n">
-        <v>80454.54545454477</v>
+        <v>98484.84848484625</v>
       </c>
       <c r="D189" t="n">
         <v>42742.17841</v>
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>81.26255973554495</v>
+        <v>79.63730854083398</v>
       </c>
       <c r="C190" t="n">
-        <v>75537.19008264394</v>
+        <v>93663.91184572779</v>
       </c>
       <c r="D190" t="n">
         <v>42374.04061</v>
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>81.37439123299418</v>
+        <v>79.74690340833422</v>
       </c>
       <c r="C191" t="n">
-        <v>70619.8347107431</v>
+        <v>88842.97520660934</v>
       </c>
       <c r="D191" t="n">
         <v>36950.51483</v>
@@ -4077,10 +4077,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>81.48104676596019</v>
+        <v>79.85142583064091</v>
       </c>
       <c r="C192" t="n">
-        <v>65702.47933884227</v>
+        <v>84022.03856749088</v>
       </c>
       <c r="D192" t="n">
         <v>38743.71343</v>
@@ -4096,10 +4096,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>81.57475516101488</v>
+        <v>79.9432600577945</v>
       </c>
       <c r="C193" t="n">
-        <v>60785.12396694144</v>
+        <v>79201.10192837242</v>
       </c>
       <c r="D193" t="n">
         <v>44096.70449</v>
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>81.66745123982898</v>
+        <v>80.03410221503232</v>
       </c>
       <c r="C194" t="n">
-        <v>55867.76859504062</v>
+        <v>74380.16528925396</v>
       </c>
       <c r="D194" t="n">
         <v>44578.27621</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>81.7753838740752</v>
+        <v>80.13987619659362</v>
       </c>
       <c r="C195" t="n">
-        <v>50950.41322313979</v>
+        <v>69559.2286501355</v>
       </c>
       <c r="D195" t="n">
         <v>38285.28261</v>
@@ -4153,10 +4153,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>81.86854107791947</v>
+        <v>80.23117025636101</v>
       </c>
       <c r="C196" t="n">
-        <v>46033.05785123896</v>
+        <v>64738.29201101704</v>
       </c>
       <c r="D196" t="n">
         <v>44357.61524</v>
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>81.97519908121036</v>
+        <v>80.33569509958608</v>
       </c>
       <c r="C197" t="n">
-        <v>41115.70247933814</v>
+        <v>59917.35537189858</v>
       </c>
       <c r="D197" t="n">
         <v>38742.81608</v>
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>82.08024983979831</v>
+        <v>80.43864484300227</v>
       </c>
       <c r="C198" t="n">
-        <v>36198.34710743731</v>
+        <v>55096.41873278012</v>
       </c>
       <c r="D198" t="n">
         <v>39335.5694</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>82.17779007513664</v>
+        <v>80.53423427363383</v>
       </c>
       <c r="C199" t="n">
-        <v>31280.99173553648</v>
+        <v>50275.48209366166</v>
       </c>
       <c r="D199" t="n">
         <v>42364.37805</v>
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>82.26486343356432</v>
+        <v>80.61956616489296</v>
       </c>
       <c r="C200" t="n">
-        <v>26363.63636363565</v>
+        <v>45454.5454545432</v>
       </c>
       <c r="D200" t="n">
         <v>47456.89703</v>
@@ -4248,10 +4248,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>82.35559325834076</v>
+        <v>80.70848139317387</v>
       </c>
       <c r="C201" t="n">
-        <v>21446.28099173483</v>
+        <v>40633.60881542474</v>
       </c>
       <c r="D201" t="n">
         <v>45544.35562</v>
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>82.45858088954296</v>
+        <v>80.80940927175203</v>
       </c>
       <c r="C202" t="n">
-        <v>16528.925619834</v>
+        <v>35812.67217630628</v>
       </c>
       <c r="D202" t="n">
         <v>40123.56976</v>
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>82.5581485458097</v>
+        <v>80.90698557489344</v>
       </c>
       <c r="C203" t="n">
-        <v>11611.57024793317</v>
+        <v>30991.73553718782</v>
       </c>
       <c r="D203" t="n">
         <v>41501.74424</v>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>82.66654829921845</v>
+        <v>81.01321733323401</v>
       </c>
       <c r="C204" t="n">
-        <v>6694.214876032347</v>
+        <v>26170.79889806936</v>
       </c>
       <c r="D204" t="n">
         <v>38120.30263</v>
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>82.77601714810456</v>
+        <v>81.12049680514239</v>
       </c>
       <c r="C205" t="n">
-        <v>1776.85950413152</v>
+        <v>21349.8622589509</v>
       </c>
       <c r="D205" t="n">
         <v>37748.01185</v>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>82.90924538699733</v>
+        <v>81.2510604792573</v>
       </c>
       <c r="C206" t="n">
-        <v>-3140.495867769307</v>
+        <v>16528.92561983244</v>
       </c>
       <c r="D206" t="n">
         <v>31016.18275</v>
@@ -4362,10 +4362,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>83.04506468484227</v>
+        <v>81.38416339114535</v>
       </c>
       <c r="C207" t="n">
-        <v>-8057.851239670134</v>
+        <v>11707.98898071399</v>
       </c>
       <c r="D207" t="n">
         <v>30424.47922</v>
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>83.18441694437728</v>
+        <v>81.52072860548965</v>
       </c>
       <c r="C208" t="n">
-        <v>-12975.20661157096</v>
+        <v>6887.052341595529</v>
       </c>
       <c r="D208" t="n">
         <v>29653.13529</v>
@@ -4400,10 +4400,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>83.31439176268391</v>
+        <v>81.64810392743016</v>
       </c>
       <c r="C209" t="n">
-        <v>-17892.56198347179</v>
+        <v>2066.115702477071</v>
       </c>
       <c r="D209" t="n">
         <v>31792.55381</v>
@@ -10384,10 +10384,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.66083348982256</v>
+        <v>16.32761682002611</v>
       </c>
       <c r="C4" t="n">
-        <v>896601.402874231</v>
+        <v>898628.8263472853</v>
       </c>
       <c r="D4" t="n">
         <v>6084.399902</v>
@@ -10403,10 +10403,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.66083348982256</v>
+        <v>16.32761682002611</v>
       </c>
       <c r="C5" t="n">
-        <v>896601.402874231</v>
+        <v>898628.8263472853</v>
       </c>
       <c r="D5" t="n">
         <v>6550.870117</v>
@@ -10422,16 +10422,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.41926828029488</v>
+        <v>21.0014276395925</v>
       </c>
       <c r="C6" t="n">
-        <v>865874.3554343109</v>
+        <v>868436.1514333439</v>
       </c>
       <c r="D6" t="n">
         <v>6330.77002</v>
       </c>
       <c r="E6" t="n">
-        <v>602.4911262729428</v>
+        <v>603.8534982788274</v>
       </c>
     </row>
     <row r="7">
@@ -10441,10 +10441,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.41926828029488</v>
+        <v>21.0014276395925</v>
       </c>
       <c r="C7" t="n">
-        <v>865874.3554343109</v>
+        <v>868436.1514333439</v>
       </c>
       <c r="D7" t="n">
         <v>7315.319824</v>
@@ -10460,10 +10460,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.41926828029488</v>
+        <v>21.0014276395925</v>
       </c>
       <c r="C8" t="n">
-        <v>865874.3554343109</v>
+        <v>868436.1514333439</v>
       </c>
       <c r="D8" t="n">
         <v>8379.660156</v>
@@ -10479,16 +10479,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.54069350245954</v>
+        <v>28.98397203004469</v>
       </c>
       <c r="C9" t="n">
-        <v>801516.7644781446</v>
+        <v>805153.7976872228</v>
       </c>
       <c r="D9" t="n">
         <v>7769.04</v>
       </c>
       <c r="E9" t="n">
-        <v>1261.913548160122</v>
+        <v>1265.647074922421</v>
       </c>
     </row>
     <row r="10">
@@ -10498,16 +10498,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.17129986978619</v>
+        <v>44.37147455259148</v>
       </c>
       <c r="C10" t="n">
-        <v>693950.2607773588</v>
+        <v>699217.908509422</v>
       </c>
       <c r="D10" t="n">
         <v>6746.85</v>
       </c>
       <c r="E10" t="n">
-        <v>2109.147131387956</v>
+        <v>2118.717783556017</v>
       </c>
     </row>
     <row r="11">
@@ -10517,16 +10517,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.85795606678227</v>
+        <v>52.94901764591938</v>
       </c>
       <c r="C11" t="n">
-        <v>638826.0574483011</v>
+        <v>644764.3389668791</v>
       </c>
       <c r="D11" t="n">
         <v>6221.42</v>
       </c>
       <c r="E11" t="n">
-        <v>1080.866731942307</v>
+        <v>1089.071390850859</v>
       </c>
     </row>
     <row r="12">
@@ -10536,10 +10536,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.85795606678227</v>
+        <v>52.94901764591938</v>
       </c>
       <c r="C12" t="n">
-        <v>638826.0574483011</v>
+        <v>644764.3389668791</v>
       </c>
       <c r="D12" t="n">
         <v>6486.25</v>
@@ -10555,10 +10555,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.85795606678227</v>
+        <v>52.94901764591938</v>
       </c>
       <c r="C13" t="n">
-        <v>638826.0574483011</v>
+        <v>644764.3389668791</v>
       </c>
       <c r="D13" t="n">
         <v>7091.71</v>
@@ -10574,10 +10574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.85795606678227</v>
+        <v>52.94901764591938</v>
       </c>
       <c r="C14" t="n">
-        <v>638826.0574483011</v>
+        <v>644764.3389668791</v>
       </c>
       <c r="D14" t="n">
         <v>7361.46</v>
@@ -10593,16 +10593,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.20606798996039</v>
+        <v>67.14087437416973</v>
       </c>
       <c r="C15" t="n">
-        <v>546376.1476184691</v>
+        <v>553284.6442006293</v>
       </c>
       <c r="D15" t="n">
         <v>6317.01</v>
       </c>
       <c r="E15" t="n">
-        <v>1812.743329996707</v>
+        <v>1829.593895324994</v>
       </c>
     </row>
     <row r="16">
@@ -10612,10 +10612,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.20606798996039</v>
+        <v>67.14087437416973</v>
       </c>
       <c r="C16" t="n">
-        <v>546376.1476184691</v>
+        <v>553284.6442006293</v>
       </c>
       <c r="D16" t="n">
         <v>6371.85</v>
@@ -10631,10 +10631,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.20606798996039</v>
+        <v>67.14087437416973</v>
       </c>
       <c r="C17" t="n">
-        <v>546376.1476184691</v>
+        <v>553284.6442006293</v>
       </c>
       <c r="D17" t="n">
         <v>6452.79</v>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.20606798996039</v>
+        <v>67.14087437416973</v>
       </c>
       <c r="C18" t="n">
-        <v>546376.1476184691</v>
+        <v>553284.6442006293</v>
       </c>
       <c r="D18" t="n">
         <v>6553.86</v>
@@ -10669,10 +10669,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.20606798996039</v>
+        <v>67.14087437416973</v>
       </c>
       <c r="C19" t="n">
-        <v>546376.1476184691</v>
+        <v>553284.6442006293</v>
       </c>
       <c r="D19" t="n">
         <v>6640.29</v>
@@ -10688,16 +10688,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.82744136940985</v>
+        <v>67.75751992806096</v>
       </c>
       <c r="C20" t="n">
-        <v>542199.0704600452</v>
+        <v>549137.6902661077</v>
       </c>
       <c r="D20" t="n">
         <v>6590.52</v>
       </c>
       <c r="E20" t="n">
-        <v>81.90347369458547</v>
+        <v>82.93907869043389</v>
       </c>
     </row>
     <row r="21">
@@ -10707,16 +10707,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>70.24492941408126</v>
+        <v>69.16443526630898</v>
       </c>
       <c r="C21" t="n">
-        <v>532831.6463599494</v>
+        <v>539836.4150458814</v>
       </c>
       <c r="D21" t="n">
         <v>6478.89</v>
       </c>
       <c r="E21" t="n">
-        <v>183.6749823548215</v>
+        <v>186.0255044045255</v>
       </c>
     </row>
     <row r="22">
@@ -10726,16 +10726,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.08650173187473</v>
+        <v>70.99290181625844</v>
       </c>
       <c r="C22" t="n">
-        <v>520928.2204905726</v>
+        <v>528012.9719414281</v>
       </c>
       <c r="D22" t="n">
         <v>6336.99</v>
       </c>
       <c r="E22" t="n">
-        <v>233.4005072426823</v>
+        <v>236.4688620890643</v>
       </c>
     </row>
     <row r="23">
@@ -10745,10 +10745,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.08650173187473</v>
+        <v>70.99290181625844</v>
       </c>
       <c r="C23" t="n">
-        <v>520928.2204905726</v>
+        <v>528012.9719414281</v>
       </c>
       <c r="D23" t="n">
         <v>6468.5</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.5733466353948</v>
+        <v>72.46982684764296</v>
       </c>
       <c r="C24" t="n">
-        <v>511296.0454890391</v>
+        <v>518441.2318023152</v>
       </c>
       <c r="D24" t="n">
         <v>6351.24</v>
       </c>
       <c r="E24" t="n">
-        <v>188.866176500656</v>
+        <v>191.4348027822586</v>
       </c>
     </row>
     <row r="25">
@@ -10783,16 +10783,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.5681494820802</v>
+        <v>106.2502979970691</v>
       </c>
       <c r="C25" t="n">
-        <v>356454.790546972</v>
+        <v>364514.6551323066</v>
       </c>
       <c r="D25" t="n">
         <v>4465.54</v>
       </c>
       <c r="E25" t="n">
-        <v>3036.103038079748</v>
+        <v>3078.531533400173</v>
       </c>
     </row>
     <row r="26">
@@ -10802,16 +10802,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120.9971792316032</v>
+        <v>119.7083204789371</v>
       </c>
       <c r="C26" t="n">
-        <v>304096.0859333794</v>
+        <v>312021.9130953004</v>
       </c>
       <c r="D26" t="n">
         <v>3822.47</v>
       </c>
       <c r="E26" t="n">
-        <v>1026.641266933188</v>
+        <v>1049.854840740123</v>
       </c>
     </row>
     <row r="27">
@@ -10821,10 +10821,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.9971792316032</v>
+        <v>119.7083204789371</v>
       </c>
       <c r="C27" t="n">
-        <v>304096.0859333794</v>
+        <v>312021.9130953004</v>
       </c>
       <c r="D27" t="n">
         <v>3958.894725</v>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.0628829090801</v>
+        <v>131.8408957933391</v>
       </c>
       <c r="C28" t="n">
-        <v>261988.1370024706</v>
+        <v>269663.6463651844</v>
       </c>
       <c r="D28" t="n">
         <v>3421.458373</v>
       </c>
       <c r="E28" t="n">
-        <v>825.6460574688001</v>
+        <v>847.1653346023206</v>
       </c>
     </row>
     <row r="29">
@@ -10859,10 +10859,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133.0628829090801</v>
+        <v>131.8408957933391</v>
       </c>
       <c r="C29" t="n">
-        <v>261988.1370024706</v>
+        <v>269663.6463651844</v>
       </c>
       <c r="D29" t="n">
         <v>3706.82485</v>
@@ -10878,10 +10878,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>133.0628829090801</v>
+        <v>131.8408957933391</v>
       </c>
       <c r="C30" t="n">
-        <v>261988.1370024706</v>
+        <v>269663.6463651844</v>
       </c>
       <c r="D30" t="n">
         <v>3819.666691</v>
@@ -10897,10 +10897,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.0628829090801</v>
+        <v>131.8408957933391</v>
       </c>
       <c r="C31" t="n">
-        <v>261988.1370024706</v>
+        <v>269663.6463651844</v>
       </c>
       <c r="D31" t="n">
         <v>3849.216409</v>
@@ -10916,10 +10916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>133.0628829090801</v>
+        <v>131.8408957933391</v>
       </c>
       <c r="C32" t="n">
-        <v>261988.1370024706</v>
+        <v>269663.6463651844</v>
       </c>
       <c r="D32" t="n">
         <v>4031.552016</v>
@@ -10935,16 +10935,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>140.2214793039607</v>
+        <v>139.061852300039</v>
       </c>
       <c r="C33" t="n">
-        <v>235471.6932625462</v>
+        <v>242905.5087813656</v>
       </c>
       <c r="D33" t="n">
         <v>3631.509871</v>
       </c>
       <c r="E33" t="n">
-        <v>519.9302694102814</v>
+        <v>535.1627516763748</v>
       </c>
     </row>
     <row r="34">
@@ -10954,16 +10954,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.6882076193698</v>
+        <v>139.5336859196109</v>
       </c>
       <c r="C34" t="n">
-        <v>233755.2213964568</v>
+        <v>241169.5669239544</v>
       </c>
       <c r="D34" t="n">
         <v>3605.557022</v>
       </c>
       <c r="E34" t="n">
-        <v>33.65631109979288</v>
+        <v>34.71883714822493</v>
       </c>
     </row>
     <row r="35">
@@ -10973,16 +10973,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>143.7314830320109</v>
+        <v>142.6106931442371</v>
       </c>
       <c r="C35" t="n">
-        <v>223064.8795989565</v>
+        <v>230356.4075967674</v>
       </c>
       <c r="D35" t="n">
         <v>3443.897062</v>
       </c>
       <c r="E35" t="n">
-        <v>209.6145450490248</v>
+        <v>216.2631865437394</v>
       </c>
     </row>
     <row r="36">
@@ -10992,10 +10992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.7314830320109</v>
+        <v>142.6106931442371</v>
       </c>
       <c r="C36" t="n">
-        <v>223064.8795989565</v>
+        <v>230356.4075967674</v>
       </c>
       <c r="D36" t="n">
         <v>3469.091701</v>
@@ -11011,10 +11011,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.7314830320109</v>
+        <v>142.6106931442371</v>
       </c>
       <c r="C37" t="n">
-        <v>223064.8795989565</v>
+        <v>230356.4075967674</v>
       </c>
       <c r="D37" t="n">
         <v>3653.603991</v>
@@ -11030,10 +11030,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>143.7314830320109</v>
+        <v>142.6106931442371</v>
       </c>
       <c r="C38" t="n">
-        <v>223064.8795989565</v>
+        <v>230356.4075967674</v>
       </c>
       <c r="D38" t="n">
         <v>3946.684985</v>
@@ -11049,16 +11049,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.0385121479015</v>
+        <v>143.9334512658035</v>
       </c>
       <c r="C39" t="n">
-        <v>217922.2044421422</v>
+        <v>225149.7619738915</v>
       </c>
       <c r="D39" t="n">
         <v>3857.479782</v>
       </c>
       <c r="E39" t="n">
-        <v>100.8367677806718</v>
+        <v>104.1329124575185</v>
       </c>
     </row>
     <row r="40">
@@ -11068,10 +11068,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.0385121479015</v>
+        <v>143.9334512658035</v>
       </c>
       <c r="C40" t="n">
-        <v>217922.2044421422</v>
+        <v>225149.7619738915</v>
       </c>
       <c r="D40" t="n">
         <v>3897.081063</v>
@@ -11087,10 +11087,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.0385121479015</v>
+        <v>143.9334512658035</v>
       </c>
       <c r="C41" t="n">
-        <v>217922.2044421422</v>
+        <v>225149.7619738915</v>
       </c>
       <c r="D41" t="n">
         <v>3913.047443</v>
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>145.0385121479015</v>
+        <v>143.9334512658035</v>
       </c>
       <c r="C42" t="n">
-        <v>217922.2044421422</v>
+        <v>225149.7619738915</v>
       </c>
       <c r="D42" t="n">
         <v>4070.794018</v>
@@ -11125,16 +11125,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.2014041727902</v>
+        <v>145.1108822945037</v>
       </c>
       <c r="C43" t="n">
-        <v>213196.2929864186</v>
+        <v>220362.8502638623</v>
       </c>
       <c r="D43" t="n">
         <v>3984.244819</v>
       </c>
       <c r="E43" t="n">
-        <v>92.66493050438427</v>
+        <v>95.73823420058382</v>
       </c>
     </row>
     <row r="44">
@@ -11144,10 +11144,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>146.2014041727902</v>
+        <v>145.1108822945037</v>
       </c>
       <c r="C44" t="n">
-        <v>213196.2929864186</v>
+        <v>220362.8502638623</v>
       </c>
       <c r="D44" t="n">
         <v>4879.958133</v>
@@ -11163,10 +11163,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>146.2014041727902</v>
+        <v>145.1108822945037</v>
       </c>
       <c r="C45" t="n">
-        <v>213196.2929864186</v>
+        <v>220362.8502638623</v>
       </c>
       <c r="D45" t="n">
         <v>5204.105308</v>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>146.2014041727902</v>
+        <v>145.1108822945037</v>
       </c>
       <c r="C46" t="n">
-        <v>213196.2929864186</v>
+        <v>220362.8502638623</v>
       </c>
       <c r="D46" t="n">
         <v>5236.13524</v>
@@ -11201,10 +11201,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>146.2014041727902</v>
+        <v>145.1108822945037</v>
       </c>
       <c r="C47" t="n">
-        <v>213196.2929864186</v>
+        <v>220362.8502638623</v>
       </c>
       <c r="D47" t="n">
         <v>5571.508177</v>
@@ -11220,16 +11220,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>147.778913416258</v>
+        <v>146.7088085050015</v>
       </c>
       <c r="C48" t="n">
-        <v>204586.3535503134</v>
+        <v>211637.98644828</v>
       </c>
       <c r="D48" t="n">
         <v>5350.914506</v>
       </c>
       <c r="E48" t="n">
-        <v>168.8223418844156</v>
+        <v>174.4972763116475</v>
       </c>
     </row>
     <row r="49">
@@ -11239,10 +11239,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>147.778913416258</v>
+        <v>146.7088085050015</v>
       </c>
       <c r="C49" t="n">
-        <v>204586.3535503134</v>
+        <v>211637.98644828</v>
       </c>
       <c r="D49" t="n">
         <v>5849.48135</v>
@@ -11258,10 +11258,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>147.778913416258</v>
+        <v>146.7088085050015</v>
       </c>
       <c r="C50" t="n">
-        <v>204586.3535503134</v>
+        <v>211637.98644828</v>
       </c>
       <c r="D50" t="n">
         <v>7989.374505</v>
@@ -11277,16 +11277,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>147.8853888925543</v>
+        <v>146.8167510432895</v>
       </c>
       <c r="C51" t="n">
-        <v>203722.2605542734</v>
+        <v>210761.6370912154</v>
       </c>
       <c r="D51" t="n">
         <v>7956.292149</v>
       </c>
       <c r="E51" t="n">
-        <v>16.94299992235327</v>
+        <v>17.52698714129223</v>
       </c>
     </row>
     <row r="52">
@@ -11296,10 +11296,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>147.8853888925543</v>
+        <v>146.8167510432895</v>
       </c>
       <c r="C52" t="n">
-        <v>203722.2605542734</v>
+        <v>210761.6370912154</v>
       </c>
       <c r="D52" t="n">
         <v>8718.591329000001</v>
@@ -11315,16 +11315,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>150.9614911576373</v>
+        <v>149.9354964397683</v>
       </c>
       <c r="C53" t="n">
-        <v>179548.9260971592</v>
+        <v>186243.3872692578</v>
       </c>
       <c r="D53" t="n">
         <v>7704.34318</v>
       </c>
       <c r="E53" t="n">
-        <v>473.9869501394946</v>
+        <v>490.3649964391515</v>
       </c>
     </row>
     <row r="54">
@@ -11334,10 +11334,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>150.9614911576373</v>
+        <v>149.9354964397683</v>
       </c>
       <c r="C54" t="n">
-        <v>179548.9260971592</v>
+        <v>186243.3872692578</v>
       </c>
       <c r="D54" t="n">
         <v>7925.434104</v>
@@ -11353,10 +11353,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>150.9614911576373</v>
+        <v>149.9354964397683</v>
       </c>
       <c r="C55" t="n">
-        <v>179548.9260971592</v>
+        <v>186243.3872692578</v>
       </c>
       <c r="D55" t="n">
         <v>9078.727602999999</v>
@@ -11372,10 +11372,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>150.9614911576373</v>
+        <v>149.9354964397683</v>
       </c>
       <c r="C56" t="n">
-        <v>179548.9260971592</v>
+        <v>186243.3872692578</v>
       </c>
       <c r="D56" t="n">
         <v>11778.58113</v>
@@ -11391,16 +11391,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>152.3148102168057</v>
+        <v>151.3111982971506</v>
       </c>
       <c r="C57" t="n">
-        <v>164615.7013117752</v>
+        <v>171057.1045600494</v>
       </c>
       <c r="D57" t="n">
         <v>10818.15582</v>
       </c>
       <c r="E57" t="n">
-        <v>292.8083291251759</v>
+        <v>303.7256541841675</v>
       </c>
     </row>
     <row r="58">
@@ -11410,10 +11410,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>152.3148102168057</v>
+        <v>151.3111982971506</v>
       </c>
       <c r="C58" t="n">
-        <v>164615.7013117752</v>
+        <v>171057.1045600494</v>
       </c>
       <c r="D58" t="n">
         <v>12571.53716</v>
@@ -11429,16 +11429,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>156.6011262427639</v>
+        <v>155.6761568444296</v>
       </c>
       <c r="C59" t="n">
-        <v>123207.1526268536</v>
+        <v>128871.9448592602</v>
       </c>
       <c r="D59" t="n">
         <v>9471.214001</v>
       </c>
       <c r="E59" t="n">
-        <v>811.9323271553267</v>
+        <v>843.7031940157835</v>
       </c>
     </row>
     <row r="60">
@@ -11448,10 +11448,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>156.6011262427639</v>
+        <v>155.6761568444296</v>
       </c>
       <c r="C60" t="n">
-        <v>123207.1526268536</v>
+        <v>128871.9448592602</v>
       </c>
       <c r="D60" t="n">
         <v>9887.730844</v>
@@ -11467,16 +11467,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>156.9691815260865</v>
+        <v>156.0534349421934</v>
       </c>
       <c r="C61" t="n">
-        <v>119601.6344210759</v>
+        <v>125174.5998061031</v>
       </c>
       <c r="D61" t="n">
         <v>9604.051159000001</v>
       </c>
       <c r="E61" t="n">
-        <v>70.69643540740506</v>
+        <v>73.94690106314185</v>
       </c>
     </row>
     <row r="62">
@@ -11486,10 +11486,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>156.9691815260865</v>
+        <v>156.0534349421934</v>
       </c>
       <c r="C62" t="n">
-        <v>119601.6344210759</v>
+        <v>125174.5998061031</v>
       </c>
       <c r="D62" t="n">
         <v>11476.19344</v>
@@ -11505,16 +11505,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>157.5306845659643</v>
+        <v>156.6293484761003</v>
       </c>
       <c r="C63" t="n">
-        <v>113364.864342979</v>
+        <v>118775.2086155117</v>
       </c>
       <c r="D63" t="n">
         <v>10889.48774</v>
       </c>
       <c r="E63" t="n">
-        <v>122.28960937445</v>
+        <v>127.9878238118291</v>
       </c>
     </row>
     <row r="64">
@@ -11524,16 +11524,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>157.6514906433122</v>
+        <v>156.7533885989349</v>
       </c>
       <c r="C64" t="n">
-        <v>112038.4300185605</v>
+        <v>117412.7199153357</v>
       </c>
       <c r="D64" t="n">
         <v>10764.57275</v>
       </c>
       <c r="E64" t="n">
-        <v>26.00851616506747</v>
+        <v>27.24977400351926</v>
       </c>
     </row>
     <row r="65">
@@ -11543,16 +11543,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>158.2238911333809</v>
+        <v>157.3412490004109</v>
       </c>
       <c r="C65" t="n">
-        <v>106081.174587846</v>
+        <v>111292.1172877047</v>
       </c>
       <c r="D65" t="n">
         <v>10203.4268</v>
       </c>
       <c r="E65" t="n">
-        <v>116.8089300140104</v>
+        <v>122.4120525526199</v>
       </c>
     </row>
     <row r="66">
@@ -11562,10 +11562,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>158.2238911333809</v>
+        <v>157.3412490004109</v>
       </c>
       <c r="C66" t="n">
-        <v>106081.174587846</v>
+        <v>111292.1172877047</v>
       </c>
       <c r="D66" t="n">
         <v>10621.18033</v>
@@ -11581,16 +11581,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>158.7153770855219</v>
+        <v>157.8465652565193</v>
       </c>
       <c r="C67" t="n">
-        <v>101006.3386377588</v>
+        <v>106072.3887058481</v>
       </c>
       <c r="D67" t="n">
         <v>10123.03473</v>
       </c>
       <c r="E67" t="n">
-        <v>99.506587256611</v>
+        <v>104.3945716371318</v>
       </c>
     </row>
     <row r="68">
@@ -11600,10 +11600,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>158.7153770855219</v>
+        <v>157.8465652565193</v>
       </c>
       <c r="C68" t="n">
-        <v>101006.3386377588</v>
+        <v>106072.3887058481</v>
       </c>
       <c r="D68" t="n">
         <v>10247.79608</v>
@@ -11619,16 +11619,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>160.5992233213761</v>
+        <v>159.7853305996533</v>
       </c>
       <c r="C69" t="n">
-        <v>84474.65118418797</v>
+        <v>89051.95060237993</v>
       </c>
       <c r="D69" t="n">
         <v>8603.428672</v>
       </c>
       <c r="E69" t="n">
-        <v>324.1507343837422</v>
+        <v>340.4087620693638</v>
       </c>
     </row>
     <row r="70">
@@ -11638,16 +11638,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>160.9042454338335</v>
+        <v>160.100449483676</v>
       </c>
       <c r="C70" t="n">
-        <v>81878.57842781665</v>
+        <v>86368.87001258349</v>
       </c>
       <c r="D70" t="n">
         <v>8344.212648999999</v>
       </c>
       <c r="E70" t="n">
-        <v>50.90338737982977</v>
+        <v>53.66161179592902</v>
       </c>
     </row>
     <row r="71">
@@ -11657,16 +11657,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>161.0406138962078</v>
+        <v>160.2414195691641</v>
       </c>
       <c r="C71" t="n">
-        <v>80733.8419247787</v>
+        <v>85185.03193774601</v>
       </c>
       <c r="D71" t="n">
         <v>8229.840461</v>
       </c>
       <c r="E71" t="n">
-        <v>22.44581378505791</v>
+        <v>23.6767614967496</v>
       </c>
     </row>
     <row r="72">
@@ -11676,16 +11676,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>161.0707034689167</v>
+        <v>160.2725331335389</v>
       </c>
       <c r="C72" t="n">
-        <v>80482.02927124615</v>
+        <v>84924.54554095773</v>
       </c>
       <c r="D72" t="n">
         <v>8204.67452</v>
       </c>
       <c r="E72" t="n">
-        <v>4.937503010442015</v>
+        <v>5.209727935765804</v>
       </c>
     </row>
     <row r="73">
@@ -11695,16 +11695,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>161.2267124971376</v>
+        <v>160.4338612712992</v>
       </c>
       <c r="C73" t="n">
-        <v>79196.86542548274</v>
+        <v>83595.03237917548</v>
       </c>
       <c r="D73" t="n">
         <v>8076.228466</v>
       </c>
       <c r="E73" t="n">
-        <v>25.1992910934001</v>
+        <v>26.59026323564483</v>
       </c>
     </row>
     <row r="74">
@@ -11714,10 +11714,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>161.2267124971376</v>
+        <v>160.4338612712992</v>
       </c>
       <c r="C74" t="n">
-        <v>79196.86542548274</v>
+        <v>83595.03237917548</v>
       </c>
       <c r="D74" t="n">
         <v>9422.463325000001</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>161.3001370906797</v>
+        <v>160.5098134269404</v>
       </c>
       <c r="C75" t="n">
-        <v>78497.29927912926</v>
+        <v>82871.0948509936</v>
       </c>
       <c r="D75" t="n">
         <v>9340.86428</v>
       </c>
       <c r="E75" t="n">
-        <v>13.71698326183292</v>
+        <v>14.47875056363749</v>
       </c>
     </row>
     <row r="76">
@@ -11752,16 +11752,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>161.8044593372048</v>
+        <v>161.0315875818328</v>
       </c>
       <c r="C76" t="n">
-        <v>73964.31259097302</v>
+        <v>78179.3689329789</v>
       </c>
       <c r="D76" t="n">
         <v>8812.033629</v>
       </c>
       <c r="E76" t="n">
-        <v>88.88209192463245</v>
+        <v>93.83451836029398</v>
       </c>
     </row>
     <row r="77">
@@ -11771,16 +11771,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>162.4269670083524</v>
+        <v>161.676410876714</v>
       </c>
       <c r="C77" t="n">
-        <v>68755.36421258189</v>
+        <v>72781.53129965413</v>
       </c>
       <c r="D77" t="n">
         <v>8203.61318</v>
       </c>
       <c r="E77" t="n">
-        <v>102.1362427135515</v>
+        <v>107.9567526664953</v>
       </c>
     </row>
     <row r="78">
@@ -11790,16 +11790,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>163.5676017049157</v>
+        <v>162.8596901452298</v>
       </c>
       <c r="C78" t="n">
-        <v>60354.2494632665</v>
+        <v>64062.839081723</v>
       </c>
       <c r="D78" t="n">
         <v>7220.88065</v>
       </c>
       <c r="E78" t="n">
-        <v>164.7277401826547</v>
+        <v>174.3738443586227</v>
       </c>
     </row>
     <row r="79">
@@ -11809,10 +11809,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>163.5676017049157</v>
+        <v>162.8596901452298</v>
       </c>
       <c r="C79" t="n">
-        <v>60354.2494632665</v>
+        <v>64062.839081723</v>
       </c>
       <c r="D79" t="n">
         <v>7320.125066</v>
@@ -11828,16 +11828,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>163.6162378819137</v>
+        <v>162.9102823765328</v>
       </c>
       <c r="C80" t="n">
-        <v>59993.23568642163</v>
+        <v>63687.15574577888</v>
       </c>
       <c r="D80" t="n">
         <v>7277.197699</v>
       </c>
       <c r="E80" t="n">
-        <v>7.078701506762354</v>
+        <v>7.513666718882322</v>
       </c>
     </row>
     <row r="81">
@@ -11847,16 +11847,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>164.3968980187875</v>
+        <v>163.7224349915684</v>
       </c>
       <c r="C81" t="n">
-        <v>54699.85062578207</v>
+        <v>58178.02748499698</v>
       </c>
       <c r="D81" t="n">
         <v>6647.698469</v>
       </c>
       <c r="E81" t="n">
-        <v>103.791863934109</v>
+        <v>110.182565215638</v>
       </c>
     </row>
     <row r="82">
@@ -11866,10 +11866,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>164.3968980187875</v>
+        <v>163.7224349915684</v>
       </c>
       <c r="C82" t="n">
-        <v>54699.85062578207</v>
+        <v>58178.02748499698</v>
       </c>
       <c r="D82" t="n">
         <v>7325.755891</v>
@@ -11885,16 +11885,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>164.5327072670171</v>
+        <v>163.8639909885977</v>
       </c>
       <c r="C83" t="n">
-        <v>53703.17509871456</v>
+        <v>57138.76207022827</v>
       </c>
       <c r="D83" t="n">
         <v>7194.891971</v>
       </c>
       <c r="E83" t="n">
-        <v>19.54265739348066</v>
+        <v>20.78530829537419</v>
       </c>
     </row>
     <row r="84">
@@ -11904,10 +11904,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>164.5327072670171</v>
+        <v>163.8639909885977</v>
       </c>
       <c r="C84" t="n">
-        <v>53703.17509871456</v>
+        <v>57138.76207022827</v>
       </c>
       <c r="D84" t="n">
         <v>8161.935477</v>
@@ -11923,10 +11923,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>164.5327072670171</v>
+        <v>163.8639909885977</v>
       </c>
       <c r="C85" t="n">
-        <v>53703.17509871456</v>
+        <v>57138.76207022827</v>
       </c>
       <c r="D85" t="n">
         <v>8825.343685</v>
@@ -11942,16 +11942,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>164.5891677906298</v>
+        <v>163.9228620466079</v>
       </c>
       <c r="C86" t="n">
-        <v>53199.59832678152</v>
+        <v>56613.47539841686</v>
       </c>
       <c r="D86" t="n">
         <v>8744.210751000001</v>
       </c>
       <c r="E86" t="n">
-        <v>9.874054351628153</v>
+        <v>10.5057334362282</v>
       </c>
     </row>
     <row r="87">
@@ -11961,10 +11961,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>164.5891677906298</v>
+        <v>163.9228620466079</v>
       </c>
       <c r="C87" t="n">
-        <v>53199.59832678152</v>
+        <v>56613.47539841686</v>
       </c>
       <c r="D87" t="n">
         <v>9357.470379</v>
@@ -11980,16 +11980,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>164.6969212335064</v>
+        <v>164.035236785096</v>
       </c>
       <c r="C88" t="n">
-        <v>52190.26276609512</v>
+        <v>55560.43055518421</v>
       </c>
       <c r="D88" t="n">
         <v>9183.415777</v>
       </c>
       <c r="E88" t="n">
-        <v>19.79089334679225</v>
+        <v>21.06089686465306</v>
       </c>
     </row>
     <row r="89">
@@ -11999,10 +11999,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>164.6969212335064</v>
+        <v>164.035236785096</v>
       </c>
       <c r="C89" t="n">
-        <v>52190.26276609512</v>
+        <v>55560.43055518421</v>
       </c>
       <c r="D89" t="n">
         <v>10202.38765</v>
@@ -12018,16 +12018,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>164.7264676822825</v>
+        <v>164.0660620973631</v>
       </c>
       <c r="C90" t="n">
-        <v>51884.55528308387</v>
+        <v>55241.36346128462</v>
       </c>
       <c r="D90" t="n">
         <v>10143.79836</v>
       </c>
       <c r="E90" t="n">
-        <v>5.994264372769532</v>
+        <v>6.381341877991751</v>
       </c>
     </row>
     <row r="91">
@@ -12037,16 +12037,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>165.1676722727066</v>
+        <v>164.526416592979</v>
       </c>
       <c r="C91" t="n">
-        <v>47682.05681407</v>
+        <v>50854.70640846426</v>
       </c>
       <c r="D91" t="n">
         <v>9338.290279999999</v>
       </c>
       <c r="E91" t="n">
-        <v>82.40193076497791</v>
+        <v>87.73314105640722</v>
       </c>
     </row>
     <row r="92">
@@ -12056,16 +12056,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>165.4870719710578</v>
+        <v>164.8602553447538</v>
       </c>
       <c r="C92" t="n">
-        <v>44818.85793645219</v>
+        <v>47860.87380306117</v>
       </c>
       <c r="D92" t="n">
         <v>8788.542186000001</v>
       </c>
       <c r="E92" t="n">
-        <v>56.14115446309435</v>
+        <v>59.87665210806179</v>
       </c>
     </row>
     <row r="93">
@@ -12075,16 +12075,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>166.053416556868</v>
+        <v>165.4529440708513</v>
       </c>
       <c r="C93" t="n">
-        <v>40249.42467027542</v>
+        <v>43076.9747714001</v>
       </c>
       <c r="D93" t="n">
         <v>7910.089807</v>
       </c>
       <c r="E93" t="n">
-        <v>89.59673070934831</v>
+        <v>95.67798063322141</v>
       </c>
     </row>
     <row r="94">
@@ -12094,16 +12094,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>168.6651756983941</v>
+        <v>168.1922763693562</v>
       </c>
       <c r="C94" t="n">
-        <v>26324.42347001272</v>
+        <v>28465.95297932413</v>
       </c>
       <c r="D94" t="n">
         <v>5227.113689</v>
       </c>
       <c r="E94" t="n">
-        <v>273.0392392208374</v>
+        <v>292.2204358415194</v>
       </c>
     </row>
     <row r="95">
@@ -12113,10 +12113,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>168.6651756983941</v>
+        <v>168.1922763693562</v>
       </c>
       <c r="C95" t="n">
-        <v>26324.42347001272</v>
+        <v>28465.95297932413</v>
       </c>
       <c r="D95" t="n">
         <v>6738.71664</v>
@@ -12132,16 +12132,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>168.8480767344915</v>
+        <v>168.3861010604595</v>
       </c>
       <c r="C96" t="n">
-        <v>25123.48326881726</v>
+        <v>27192.77807281265</v>
       </c>
       <c r="D96" t="n">
         <v>6437.319215</v>
       </c>
       <c r="E96" t="n">
-        <v>23.54784708226396</v>
+        <v>25.46349813022959</v>
       </c>
     </row>
     <row r="97">
@@ -12151,10 +12151,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>168.8480767344915</v>
+        <v>168.3861010604595</v>
       </c>
       <c r="C97" t="n">
-        <v>25123.48326881726</v>
+        <v>27192.77807281265</v>
       </c>
       <c r="D97" t="n">
         <v>7179.283418</v>
@@ -12170,16 +12170,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>169.0186748039707</v>
+        <v>168.5670574463831</v>
       </c>
       <c r="C98" t="n">
-        <v>23932.28686312815</v>
+        <v>25928.74939125621</v>
       </c>
       <c r="D98" t="n">
         <v>6845.561717</v>
       </c>
       <c r="E98" t="n">
-        <v>23.35679226841395</v>
+        <v>25.2805736311288</v>
       </c>
     </row>
     <row r="99">
@@ -12189,10 +12189,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>169.0186748039707</v>
+        <v>168.5670574463831</v>
       </c>
       <c r="C99" t="n">
-        <v>23932.28686312815</v>
+        <v>25928.74939125621</v>
       </c>
       <c r="D99" t="n">
         <v>6879.4403</v>
@@ -12208,10 +12208,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>169.0186748039707</v>
+        <v>168.5670574463831</v>
       </c>
       <c r="C100" t="n">
-        <v>23932.28686312815</v>
+        <v>25928.74939125621</v>
       </c>
       <c r="D100" t="n">
         <v>7806.712564</v>
@@ -12227,10 +12227,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>169.0186748039707</v>
+        <v>168.5670574463831</v>
       </c>
       <c r="C101" t="n">
-        <v>23932.28686312815</v>
+        <v>25928.74939125621</v>
       </c>
       <c r="D101" t="n">
         <v>9007.441256</v>
@@ -12246,16 +12246,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>169.0796426045962</v>
+        <v>168.6317901840337</v>
       </c>
       <c r="C102" t="n">
-        <v>23384.70483194205</v>
+        <v>25347.11994308216</v>
       </c>
       <c r="D102" t="n">
         <v>8805.387812999999</v>
       </c>
       <c r="E102" t="n">
-        <v>10.73690257227636</v>
+        <v>11.63258896348109</v>
       </c>
     </row>
     <row r="103">
@@ -12265,10 +12265,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>169.0796426045962</v>
+        <v>168.6317901840337</v>
       </c>
       <c r="C103" t="n">
-        <v>23384.70483194205</v>
+        <v>25347.11994308216</v>
       </c>
       <c r="D103" t="n">
         <v>9725.329365</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>169.3212396353848</v>
+        <v>168.8884243037318</v>
       </c>
       <c r="C104" t="n">
-        <v>21206.91806971447</v>
+        <v>23032.86122059805</v>
       </c>
       <c r="D104" t="n">
         <v>8837.381213000001</v>
       </c>
       <c r="E104" t="n">
-        <v>42.70170122014864</v>
+        <v>46.28517444968224</v>
       </c>
     </row>
     <row r="105">
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>169.3212396353848</v>
+        <v>168.8884243037318</v>
       </c>
       <c r="C105" t="n">
-        <v>21206.91806971447</v>
+        <v>23032.86122059805</v>
       </c>
       <c r="D105" t="n">
         <v>9533.760493</v>
@@ -12322,10 +12322,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>169.3212396353848</v>
+        <v>168.8884243037318</v>
       </c>
       <c r="C106" t="n">
-        <v>21206.91806971447</v>
+        <v>23032.86122059805</v>
       </c>
       <c r="D106" t="n">
         <v>9794.119511000001</v>
@@ -12341,16 +12341,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>169.3803659336576</v>
+        <v>168.951357109987</v>
       </c>
       <c r="C107" t="n">
-        <v>20631.94678114985</v>
+        <v>22420.62880663737</v>
       </c>
       <c r="D107" t="n">
         <v>9533.783751000001</v>
       </c>
       <c r="E107" t="n">
-        <v>11.27394683460045</v>
+        <v>12.24464827921359</v>
       </c>
     </row>
     <row r="108">
@@ -12360,10 +12360,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>169.3803659336576</v>
+        <v>168.951357109987</v>
       </c>
       <c r="C108" t="n">
-        <v>20631.94678114985</v>
+        <v>22420.62880663737</v>
       </c>
       <c r="D108" t="n">
         <v>9632.149579000001</v>
@@ -12379,16 +12379,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>169.4942255636097</v>
+        <v>169.0726131618646</v>
       </c>
       <c r="C109" t="n">
-        <v>19569.76113776262</v>
+        <v>21288.98999204462</v>
       </c>
       <c r="D109" t="n">
         <v>9145.985054999999</v>
       </c>
       <c r="E109" t="n">
-        <v>20.82716947818088</v>
+        <v>22.63277629185492</v>
       </c>
     </row>
     <row r="110">
@@ -12398,10 +12398,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>169.4942255636097</v>
+        <v>169.0726131618646</v>
       </c>
       <c r="C110" t="n">
-        <v>19569.76113776262</v>
+        <v>21288.98999204462</v>
       </c>
       <c r="D110" t="n">
         <v>9253.020154</v>
@@ -12417,16 +12417,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>169.496771038649</v>
+        <v>169.0753268782157</v>
       </c>
       <c r="C111" t="n">
-        <v>19545.7656192702</v>
+        <v>21263.39827061261</v>
       </c>
       <c r="D111" t="n">
         <v>9241.897000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4705003625965924</v>
+        <v>0.5118344286402152</v>
       </c>
     </row>
     <row r="112">
@@ -12436,10 +12436,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>169.496771038649</v>
+        <v>169.0753268782157</v>
       </c>
       <c r="C112" t="n">
-        <v>19545.7656192702</v>
+        <v>21263.39827061261</v>
       </c>
       <c r="D112" t="n">
         <v>9375.080464000001</v>
@@ -12455,10 +12455,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>169.496771038649</v>
+        <v>169.0753268782157</v>
       </c>
       <c r="C113" t="n">
-        <v>19545.7656192702</v>
+        <v>21263.39827061261</v>
       </c>
       <c r="D113" t="n">
         <v>10912.95296</v>
@@ -12474,10 +12474,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>169.496771038649</v>
+        <v>169.0753268782157</v>
       </c>
       <c r="C114" t="n">
-        <v>19545.7656192702</v>
+        <v>21263.39827061261</v>
       </c>
       <c r="D114" t="n">
         <v>11203.8231</v>
@@ -12493,10 +12493,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>169.496771038649</v>
+        <v>169.0753268782157</v>
       </c>
       <c r="C115" t="n">
-        <v>19545.7656192702</v>
+        <v>21263.39827061261</v>
       </c>
       <c r="D115" t="n">
         <v>11404.59688</v>
@@ -12512,10 +12512,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>169.496771038649</v>
+        <v>169.0753268782157</v>
       </c>
       <c r="C116" t="n">
-        <v>19545.7656192702</v>
+        <v>21263.39827061261</v>
       </c>
       <c r="D116" t="n">
         <v>11990.88478</v>
@@ -12531,16 +12531,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>169.5862533382681</v>
+        <v>169.1707257413655</v>
       </c>
       <c r="C117" t="n">
-        <v>18508.28700344768</v>
+        <v>20156.87903197392</v>
       </c>
       <c r="D117" t="n">
         <v>11366.89493</v>
       </c>
       <c r="E117" t="n">
-        <v>20.34271795730418</v>
+        <v>22.13038477277374</v>
       </c>
     </row>
     <row r="118">
@@ -12550,10 +12550,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>169.5862533382681</v>
+        <v>169.1707257413655</v>
       </c>
       <c r="C118" t="n">
-        <v>18508.28700344768</v>
+        <v>20156.87903197392</v>
       </c>
       <c r="D118" t="n">
         <v>11964.8228</v>
@@ -12569,16 +12569,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>169.8656897089631</v>
+        <v>169.4689658657909</v>
       </c>
       <c r="C119" t="n">
-        <v>15619.79947505924</v>
+        <v>17072.78657555763</v>
       </c>
       <c r="D119" t="n">
         <v>10134.15151</v>
       </c>
       <c r="E119" t="n">
-        <v>56.63701036055763</v>
+        <v>61.68184912832585</v>
       </c>
     </row>
     <row r="120">
@@ -12588,10 +12588,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>169.8656897089631</v>
+        <v>169.4689658657909</v>
       </c>
       <c r="C120" t="n">
-        <v>15619.79947505924</v>
+        <v>17072.78657555763</v>
       </c>
       <c r="D120" t="n">
         <v>10797.76202</v>
@@ -12607,16 +12607,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>169.9017006759652</v>
+        <v>169.5075394341576</v>
       </c>
       <c r="C121" t="n">
-        <v>15232.81833903971</v>
+        <v>16658.10133279089</v>
       </c>
       <c r="D121" t="n">
         <v>10535.49244</v>
       </c>
       <c r="E121" t="n">
-        <v>7.587865412147712</v>
+        <v>8.293704855334719</v>
       </c>
     </row>
     <row r="122">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>169.9017006759652</v>
+        <v>169.5075394341576</v>
       </c>
       <c r="C122" t="n">
-        <v>15232.81833903971</v>
+        <v>16658.10133279089</v>
       </c>
       <c r="D122" t="n">
         <v>10843.87075</v>
@@ -12645,16 +12645,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>169.9335643082637</v>
+        <v>169.5416875380585</v>
       </c>
       <c r="C123" t="n">
-        <v>14888.19969081732</v>
+        <v>16288.62736923184</v>
       </c>
       <c r="D123" t="n">
         <v>10603.35547</v>
       </c>
       <c r="E123" t="n">
-        <v>6.757228396517481</v>
+        <v>7.389479271181038</v>
       </c>
     </row>
     <row r="124">
@@ -12664,10 +12664,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>169.9335643082637</v>
+        <v>169.5416875380585</v>
       </c>
       <c r="C124" t="n">
-        <v>14888.19969081732</v>
+        <v>16288.62736923184</v>
       </c>
       <c r="D124" t="n">
         <v>11429.0478</v>
@@ -12683,10 +12683,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>169.9335643082637</v>
+        <v>169.5416875380585</v>
       </c>
       <c r="C125" t="n">
-        <v>14888.19969081732</v>
+        <v>16288.62736923184</v>
       </c>
       <c r="D125" t="n">
         <v>11913.07749</v>
@@ -12702,10 +12702,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>169.9335643082637</v>
+        <v>169.5416875380585</v>
       </c>
       <c r="C126" t="n">
-        <v>14888.19969081732</v>
+        <v>16288.62736923184</v>
       </c>
       <c r="D126" t="n">
         <v>13654.21446</v>
@@ -12721,10 +12721,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>169.9335643082637</v>
+        <v>169.5416875380585</v>
       </c>
       <c r="C127" t="n">
-        <v>14888.19969081732</v>
+        <v>16288.62736923184</v>
       </c>
       <c r="D127" t="n">
         <v>13950.48791</v>
@@ -12740,10 +12740,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>169.9335643082637</v>
+        <v>169.5416875380585</v>
       </c>
       <c r="C128" t="n">
-        <v>14888.19969081732</v>
+        <v>16288.62736923184</v>
       </c>
       <c r="D128" t="n">
         <v>15290.90879</v>
@@ -12759,10 +12759,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>169.9335643082637</v>
+        <v>169.5416875380585</v>
       </c>
       <c r="C129" t="n">
-        <v>14888.19969081732</v>
+        <v>16288.62736923184</v>
       </c>
       <c r="D129" t="n">
         <v>17645.19047</v>
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>169.9335643082637</v>
+        <v>169.5416875380585</v>
       </c>
       <c r="C130" t="n">
-        <v>14888.19969081732</v>
+        <v>16288.62736923184</v>
       </c>
       <c r="D130" t="n">
         <v>19104.40961</v>
@@ -12797,16 +12797,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>169.9461094075947</v>
+        <v>169.5551381636214</v>
       </c>
       <c r="C131" t="n">
-        <v>14647.61255506586</v>
+        <v>16030.57102947833</v>
       </c>
       <c r="D131" t="n">
         <v>18801.74359</v>
       </c>
       <c r="E131" t="n">
-        <v>4.717394818656129</v>
+        <v>5.161126795070305</v>
       </c>
     </row>
     <row r="132">
@@ -12816,16 +12816,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>169.9665568904214</v>
+        <v>169.5770686405578</v>
       </c>
       <c r="C132" t="n">
-        <v>14265.50425861816</v>
+        <v>15620.58557935469</v>
       </c>
       <c r="D132" t="n">
         <v>18320.88478</v>
       </c>
       <c r="E132" t="n">
-        <v>7.492319538190233</v>
+        <v>8.199709002472776</v>
       </c>
     </row>
     <row r="133">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>169.9665568904214</v>
+        <v>169.5770686405578</v>
       </c>
       <c r="C133" t="n">
-        <v>14265.50425861816</v>
+        <v>15620.58557935469</v>
       </c>
       <c r="D133" t="n">
         <v>19418.8184</v>
@@ -12854,10 +12854,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>169.9665568904214</v>
+        <v>169.5770686405578</v>
       </c>
       <c r="C134" t="n">
-        <v>14265.50425861816</v>
+        <v>15620.58557935469</v>
       </c>
       <c r="D134" t="n">
         <v>23781.97439</v>
@@ -12873,10 +12873,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>169.9665568904214</v>
+        <v>169.5770686405578</v>
       </c>
       <c r="C135" t="n">
-        <v>14265.50425861816</v>
+        <v>15620.58557935469</v>
       </c>
       <c r="D135" t="n">
         <v>27360.08971</v>
@@ -12892,10 +12892,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>169.9665568904214</v>
+        <v>169.5770686405578</v>
       </c>
       <c r="C136" t="n">
-        <v>14265.50425861816</v>
+        <v>15620.58557935469</v>
       </c>
       <c r="D136" t="n">
         <v>34013.61453</v>
@@ -12911,16 +12911,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>169.9677749119192</v>
+        <v>169.57837568758</v>
       </c>
       <c r="C137" t="n">
-        <v>14223.36872697723</v>
+        <v>15575.35225684931</v>
       </c>
       <c r="D137" t="n">
         <v>33915.11958</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8261868949200358</v>
+        <v>0.9046664501076563</v>
       </c>
     </row>
     <row r="138">
@@ -12930,10 +12930,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>169.9677749119192</v>
+        <v>169.57837568758</v>
       </c>
       <c r="C138" t="n">
-        <v>14223.36872697723</v>
+        <v>15575.35225684931</v>
       </c>
       <c r="D138" t="n">
         <v>36050.1127</v>
@@ -12949,16 +12949,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>170.0100121341259</v>
+        <v>169.6237026726502</v>
       </c>
       <c r="C139" t="n">
-        <v>12820.44626215918</v>
+        <v>14069.1998971391</v>
       </c>
       <c r="D139" t="n">
         <v>32564.03024</v>
       </c>
       <c r="E139" t="n">
-        <v>27.50828362388328</v>
+        <v>30.12304719420406</v>
       </c>
     </row>
     <row r="140">
@@ -12968,10 +12968,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>170.0100121341259</v>
+        <v>169.6237026726502</v>
       </c>
       <c r="C140" t="n">
-        <v>12820.44626215918</v>
+        <v>14069.1998971391</v>
       </c>
       <c r="D140" t="n">
         <v>35510.82121</v>
@@ -12987,10 +12987,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>170.0100121341259</v>
+        <v>169.6237026726502</v>
       </c>
       <c r="C141" t="n">
-        <v>12820.44626215918</v>
+        <v>14069.1998971391</v>
       </c>
       <c r="D141" t="n">
         <v>46469.7612</v>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>170.0100121341259</v>
+        <v>169.6237026726502</v>
       </c>
       <c r="C142" t="n">
-        <v>12820.44626215918</v>
+        <v>14069.1998971391</v>
       </c>
       <c r="D142" t="n">
         <v>49207.27643</v>
@@ -13025,16 +13025,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>170.0119977951357</v>
+        <v>169.6258381621552</v>
       </c>
       <c r="C143" t="n">
-        <v>12721.53693409282</v>
+        <v>13962.78477757748</v>
       </c>
       <c r="D143" t="n">
         <v>48835.08766</v>
       </c>
       <c r="E143" t="n">
-        <v>1.939398589536663</v>
+        <v>2.128302391232483</v>
       </c>
     </row>
     <row r="144">
@@ -13044,16 +13044,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>170.0142536799945</v>
+        <v>169.6282646351694</v>
       </c>
       <c r="C144" t="n">
-        <v>12610.13202007617</v>
+        <v>13842.90756480955</v>
       </c>
       <c r="D144" t="n">
         <v>48415.81498</v>
       </c>
       <c r="E144" t="n">
-        <v>2.184410078757708</v>
+        <v>2.397544255358479</v>
       </c>
     </row>
     <row r="145">
@@ -13063,10 +13063,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>170.0142536799945</v>
+        <v>169.6282646351694</v>
       </c>
       <c r="C145" t="n">
-        <v>12610.13202007617</v>
+        <v>13842.90756480955</v>
       </c>
       <c r="D145" t="n">
         <v>54824.0112</v>
@@ -13082,10 +13082,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>170.0142536799945</v>
+        <v>169.6282646351694</v>
       </c>
       <c r="C146" t="n">
-        <v>12610.13202007617</v>
+        <v>13842.90756480955</v>
       </c>
       <c r="D146" t="n">
         <v>56825.8289</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>170.0228336032193</v>
+        <v>169.6374949637851</v>
       </c>
       <c r="C147" t="n">
-        <v>12131.33198825693</v>
+        <v>13327.60573528497</v>
       </c>
       <c r="D147" t="n">
         <v>54710.48908</v>
       </c>
       <c r="E147" t="n">
-        <v>9.388235918024307</v>
+        <v>10.30603659049165</v>
       </c>
     </row>
     <row r="148">
@@ -13120,10 +13120,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>170.0228336032193</v>
+        <v>169.6374949637851</v>
       </c>
       <c r="C148" t="n">
-        <v>12131.33198825693</v>
+        <v>13327.60573528497</v>
       </c>
       <c r="D148" t="n">
         <v>58930.27778</v>
@@ -13139,16 +13139,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>170.0254649974646</v>
+        <v>169.6403280229551</v>
       </c>
       <c r="C149" t="n">
-        <v>11975.15811168616</v>
+        <v>13159.39571328177</v>
       </c>
       <c r="D149" t="n">
         <v>58186.50853</v>
       </c>
       <c r="E149" t="n">
-        <v>3.062232873936689</v>
+        <v>3.364200440064028</v>
       </c>
     </row>
     <row r="150">
@@ -13158,10 +13158,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>170.0254649974646</v>
+        <v>169.6403280229551</v>
       </c>
       <c r="C150" t="n">
-        <v>11975.15811168616</v>
+        <v>13159.39571328177</v>
       </c>
       <c r="D150" t="n">
         <v>63523.75487</v>
@@ -13177,16 +13177,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>170.0490084179461</v>
+        <v>169.6656822470912</v>
       </c>
       <c r="C151" t="n">
-        <v>10619.04413661029</v>
+        <v>11698.39405059645</v>
       </c>
       <c r="D151" t="n">
         <v>56471.12772</v>
       </c>
       <c r="E151" t="n">
-        <v>26.59047009952691</v>
+        <v>29.22003325370639</v>
       </c>
     </row>
     <row r="152">
@@ -13196,16 +13196,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>170.0539096435012</v>
+        <v>169.6709736591802</v>
       </c>
       <c r="C152" t="n">
-        <v>10343.90222333978</v>
+        <v>11401.22922551337</v>
       </c>
       <c r="D152" t="n">
         <v>55036.63742</v>
       </c>
       <c r="E152" t="n">
-        <v>5.394939475892341</v>
+        <v>5.94329650166168</v>
       </c>
     </row>
     <row r="153">
@@ -13215,16 +13215,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>170.0602076796099</v>
+        <v>169.6777766281912</v>
       </c>
       <c r="C153" t="n">
-        <v>10001.8104856871</v>
+        <v>11031.56307588904</v>
       </c>
       <c r="D153" t="n">
         <v>53252.16476</v>
       </c>
       <c r="E153" t="n">
-        <v>6.707681130444707</v>
+        <v>7.393322992486548</v>
       </c>
     </row>
     <row r="154">
@@ -13234,10 +13234,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>170.0602076796099</v>
+        <v>169.6777766281912</v>
       </c>
       <c r="C154" t="n">
-        <v>10001.8104856871</v>
+        <v>11031.56307588904</v>
       </c>
       <c r="D154" t="n">
         <v>56714.53317</v>
@@ -13253,16 +13253,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>170.116752377976</v>
+        <v>169.7388956505297</v>
       </c>
       <c r="C155" t="n">
-        <v>7524.933588863423</v>
+        <v>8353.241735220323</v>
       </c>
       <c r="D155" t="n">
         <v>42944.97545</v>
       </c>
       <c r="E155" t="n">
-        <v>48.5662136632094</v>
+        <v>53.56642681337438</v>
       </c>
     </row>
     <row r="156">
@@ -13272,16 +13272,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>170.137529162527</v>
+        <v>169.7614981667845</v>
       </c>
       <c r="C156" t="n">
-        <v>6711.304813328719</v>
+        <v>7467.762245078177</v>
       </c>
       <c r="D156" t="n">
         <v>38392.62366</v>
       </c>
       <c r="E156" t="n">
-        <v>15.95350540264125</v>
+        <v>17.70958980284291</v>
       </c>
     </row>
     <row r="157">
@@ -13291,16 +13291,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>170.1455917456325</v>
+        <v>169.7702900882186</v>
       </c>
       <c r="C157" t="n">
-        <v>6409.490711250632</v>
+        <v>7138.514450232685</v>
       </c>
       <c r="D157" t="n">
         <v>36699.92292</v>
       </c>
       <c r="E157" t="n">
-        <v>5.917923570158575</v>
+        <v>6.584955896909856</v>
       </c>
     </row>
     <row r="158">
@@ -13310,16 +13310,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>170.1627492775624</v>
+        <v>169.7890169589213</v>
       </c>
       <c r="C158" t="n">
-        <v>5824.670789499547</v>
+        <v>6499.94769158852</v>
       </c>
       <c r="D158" t="n">
         <v>33416.97785</v>
       </c>
       <c r="E158" t="n">
-        <v>11.46705728923695</v>
+        <v>12.77133517288331</v>
       </c>
     </row>
     <row r="159">
@@ -13329,10 +13329,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>170.1627492775624</v>
+        <v>169.7890169589213</v>
       </c>
       <c r="C159" t="n">
-        <v>5824.670789499547</v>
+        <v>6499.94769158852</v>
       </c>
       <c r="D159" t="n">
         <v>40168.69037</v>
@@ -13348,16 +13348,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>170.19687805788</v>
+        <v>169.8263407131662</v>
       </c>
       <c r="C160" t="n">
-        <v>4692.754685882217</v>
+        <v>5261.571640943614</v>
       </c>
       <c r="D160" t="n">
         <v>32515.7143</v>
       </c>
       <c r="E160" t="n">
-        <v>22.19443340426138</v>
+        <v>24.76752101289812</v>
       </c>
     </row>
     <row r="161">
@@ -13367,10 +13367,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>170.19687805788</v>
+        <v>169.8263407131662</v>
       </c>
       <c r="C161" t="n">
-        <v>4692.754685882217</v>
+        <v>5261.571640943614</v>
       </c>
       <c r="D161" t="n">
         <v>35908.38805</v>
@@ -13386,16 +13386,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>170.2033032858276</v>
+        <v>169.8334006733454</v>
       </c>
       <c r="C162" t="n">
-        <v>4468.448732143918</v>
+        <v>5015.008436624313</v>
       </c>
       <c r="D162" t="n">
         <v>34225.68033</v>
       </c>
       <c r="E162" t="n">
-        <v>4.398155955652916</v>
+        <v>4.931264086386011</v>
       </c>
     </row>
     <row r="163">
@@ -13405,16 +13405,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>170.2092951555477</v>
+        <v>169.8399909451419</v>
       </c>
       <c r="C163" t="n">
-        <v>4268.450169425986</v>
+        <v>4794.94819203628</v>
       </c>
       <c r="D163" t="n">
         <v>32723.84605</v>
       </c>
       <c r="E163" t="n">
-        <v>3.921540445449656</v>
+        <v>4.401204891760651</v>
       </c>
     </row>
     <row r="164">
@@ -13424,16 +13424,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>170.2221110701034</v>
+        <v>169.8540997225695</v>
       </c>
       <c r="C164" t="n">
-        <v>3878.946184916814</v>
+        <v>4365.979658392323</v>
       </c>
       <c r="D164" t="n">
         <v>29796.28569</v>
       </c>
       <c r="E164" t="n">
-        <v>7.637333029591611</v>
+        <v>8.579370672879131</v>
       </c>
     </row>
     <row r="165">
@@ -13443,10 +13443,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>170.2221110701034</v>
+        <v>169.8540997225695</v>
       </c>
       <c r="C165" t="n">
-        <v>3878.946184916814</v>
+        <v>4365.979658392323</v>
       </c>
       <c r="D165" t="n">
         <v>39503.18569</v>
@@ -13462,16 +13462,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>170.2254254874063</v>
+        <v>169.8577556807286</v>
       </c>
       <c r="C166" t="n">
-        <v>3749.75815766076</v>
+        <v>4223.422165738073</v>
       </c>
       <c r="D166" t="n">
         <v>38213.33197</v>
       </c>
       <c r="E166" t="n">
-        <v>2.533098573648103</v>
+        <v>2.851149853085008</v>
       </c>
     </row>
     <row r="167">
@@ -13481,10 +13481,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>170.2254254874063</v>
+        <v>169.8577556807286</v>
       </c>
       <c r="C167" t="n">
-        <v>3749.75815766076</v>
+        <v>4223.422165738073</v>
       </c>
       <c r="D167" t="n">
         <v>45599.70403</v>
@@ -13500,16 +13500,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>170.2271054939812</v>
+        <v>169.8596100588444</v>
       </c>
       <c r="C168" t="n">
-        <v>3673.182641783606</v>
+        <v>4138.864887403695</v>
       </c>
       <c r="D168" t="n">
         <v>44686.75081</v>
       </c>
       <c r="E168" t="n">
-        <v>1.501480703473623</v>
+        <v>1.691145566687557</v>
       </c>
     </row>
     <row r="169">
@@ -13519,10 +13519,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>170.2271054939812</v>
+        <v>169.8596100588444</v>
       </c>
       <c r="C169" t="n">
-        <v>3673.182641783606</v>
+        <v>4138.864887403695</v>
       </c>
       <c r="D169" t="n">
         <v>47727.25669</v>
@@ -13538,16 +13538,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>170.228130811475</v>
+        <v>169.860742258892</v>
       </c>
       <c r="C170" t="n">
-        <v>3623.924574195226</v>
+        <v>4084.450226842945</v>
       </c>
       <c r="D170" t="n">
         <v>47099.77487</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9658444625172478</v>
+        <v>1.088293211215015</v>
       </c>
     </row>
     <row r="171">
@@ -13557,16 +13557,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>170.2285777462721</v>
+        <v>169.8612359152135</v>
       </c>
       <c r="C171" t="n">
-        <v>3602.577038134275</v>
+        <v>4060.861633565261</v>
       </c>
       <c r="D171" t="n">
         <v>46827.76337</v>
       </c>
       <c r="E171" t="n">
-        <v>0.4185791384500122</v>
+        <v>0.4717718655536715</v>
       </c>
     </row>
     <row r="172">
@@ -13576,10 +13576,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>170.2285777462721</v>
+        <v>169.8612359152135</v>
       </c>
       <c r="C172" t="n">
-        <v>3602.577038134275</v>
+        <v>4060.861633565261</v>
       </c>
       <c r="D172" t="n">
         <v>47097.99812</v>
@@ -13595,16 +13595,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>170.2406500367133</v>
+        <v>169.8745717641216</v>
       </c>
       <c r="C173" t="n">
-        <v>3101.679431168435</v>
+        <v>3507.315654482168</v>
       </c>
       <c r="D173" t="n">
         <v>40677.95483</v>
       </c>
       <c r="E173" t="n">
-        <v>9.821521705212557</v>
+        <v>11.07091958166186</v>
       </c>
     </row>
     <row r="174">
@@ -13614,10 +13614,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>170.2406500367133</v>
+        <v>169.8745717641216</v>
       </c>
       <c r="C174" t="n">
-        <v>3101.679431168435</v>
+        <v>3507.315654482168</v>
       </c>
       <c r="D174" t="n">
         <v>41064.98395</v>
@@ -13633,10 +13633,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>170.2406500367133</v>
+        <v>169.8745717641216</v>
       </c>
       <c r="C175" t="n">
-        <v>3101.679431168435</v>
+        <v>3507.315654482168</v>
       </c>
       <c r="D175" t="n">
         <v>51486.66574</v>
@@ -13652,10 +13652,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>170.2406500367133</v>
+        <v>169.8745717641216</v>
       </c>
       <c r="C176" t="n">
-        <v>3101.679431168435</v>
+        <v>3507.315654482168</v>
       </c>
       <c r="D176" t="n">
         <v>56038.25679</v>
@@ -13671,10 +13671,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>170.2406500367133</v>
+        <v>169.8745717641216</v>
       </c>
       <c r="C177" t="n">
-        <v>3101.679431168435</v>
+        <v>3507.315654482168</v>
       </c>
       <c r="D177" t="n">
         <v>64284.58619</v>
@@ -13690,16 +13690,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>170.2437939951991</v>
+        <v>169.8780557855873</v>
       </c>
       <c r="C178" t="n">
-        <v>2908.140369410956</v>
+        <v>3292.756819085502</v>
       </c>
       <c r="D178" t="n">
         <v>60351.99862</v>
       </c>
       <c r="E178" t="n">
-        <v>3.794883563872147</v>
+        <v>4.291176707933321</v>
       </c>
     </row>
     <row r="179">
@@ -13709,10 +13709,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>170.2437939951991</v>
+        <v>169.8780557855873</v>
       </c>
       <c r="C179" t="n">
-        <v>2908.140369410956</v>
+        <v>3292.756819085502</v>
       </c>
       <c r="D179" t="n">
         <v>63254.33488</v>
@@ -13728,10 +13728,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>170.2437939951991</v>
+        <v>169.8780557855873</v>
       </c>
       <c r="C180" t="n">
-        <v>2908.140369410956</v>
+        <v>3292.756819085502</v>
       </c>
       <c r="D180" t="n">
         <v>66953.33937</v>
@@ -13747,16 +13747,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>170.2487151460466</v>
+        <v>169.8835163438594</v>
       </c>
       <c r="C181" t="n">
-        <v>2606.265104085326</v>
+        <v>2957.658961864176</v>
       </c>
       <c r="D181" t="n">
         <v>60139.62011</v>
       </c>
       <c r="E181" t="n">
-        <v>5.919122849522162</v>
+        <v>6.70195714442651</v>
       </c>
     </row>
     <row r="182">
@@ -13766,16 +13766,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>170.2506527397776</v>
+        <v>169.8856712001036</v>
       </c>
       <c r="C182" t="n">
-        <v>2492.495089190555</v>
+        <v>2831.081276598562</v>
       </c>
       <c r="D182" t="n">
         <v>57565.85011</v>
       </c>
       <c r="E182" t="n">
-        <v>2.230784605779812</v>
+        <v>2.531553705312281</v>
       </c>
     </row>
     <row r="183">
@@ -13785,16 +13785,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>170.2511532872064</v>
+        <v>169.8862283721722</v>
       </c>
       <c r="C183" t="n">
-        <v>2463.440250035183</v>
+        <v>2798.72665461792</v>
       </c>
       <c r="D183" t="n">
         <v>56907.96673</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5697027285366992</v>
+        <v>0.6470924396128492</v>
       </c>
     </row>
     <row r="184">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>170.2564847332292</v>
+        <v>169.8921643127291</v>
       </c>
       <c r="C184" t="n">
-        <v>2187.905784752981</v>
+        <v>2491.828547689984</v>
       </c>
       <c r="D184" t="n">
         <v>50667.64768</v>
       </c>
       <c r="E184" t="n">
-        <v>5.40263657416084</v>
+        <v>6.137962138558723</v>
       </c>
     </row>
     <row r="185">
@@ -13823,16 +13823,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>170.2585268003447</v>
+        <v>169.8944435294791</v>
       </c>
       <c r="C185" t="n">
-        <v>2087.135185480579</v>
+        <v>2379.310235239625</v>
       </c>
       <c r="D185" t="n">
         <v>48379.75423</v>
       </c>
       <c r="E185" t="n">
-        <v>1.975894103380432</v>
+        <v>2.250366249007175</v>
       </c>
     </row>
     <row r="186">
@@ -13842,10 +13842,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>170.2585268003447</v>
+        <v>169.8944435294791</v>
       </c>
       <c r="C186" t="n">
-        <v>2087.135185480579</v>
+        <v>2379.310235239625</v>
       </c>
       <c r="D186" t="n">
         <v>48937.09634</v>
@@ -13861,16 +13861,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>170.2597028539757</v>
+        <v>169.895757403411</v>
       </c>
       <c r="C187" t="n">
-        <v>2030.006795189077</v>
+        <v>2315.461498572517</v>
       </c>
       <c r="D187" t="n">
         <v>47623.87046</v>
       </c>
       <c r="E187" t="n">
-        <v>1.120164515519636</v>
+        <v>1.276974733342162</v>
       </c>
     </row>
     <row r="188">
@@ -13880,16 +13880,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>170.2613043738615</v>
+        <v>169.8975475907596</v>
       </c>
       <c r="C188" t="n">
-        <v>1955.027884703798</v>
+        <v>2231.616140080479</v>
       </c>
       <c r="D188" t="n">
         <v>45899.35874</v>
       </c>
       <c r="E188" t="n">
-        <v>1.470174715397625</v>
+        <v>1.676907169840751</v>
       </c>
     </row>
     <row r="189">
@@ -13899,16 +13899,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>170.2644505937619</v>
+        <v>169.9010670965741</v>
       </c>
       <c r="C189" t="n">
-        <v>1817.862066560342</v>
+        <v>2078.114767185861</v>
       </c>
       <c r="D189" t="n">
         <v>42742.17841</v>
       </c>
       <c r="E189" t="n">
-        <v>2.689525845950128</v>
+        <v>3.070027457892376</v>
       </c>
     </row>
     <row r="190">
@@ -13918,16 +13918,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>170.2648200940732</v>
+        <v>169.9014810480978</v>
       </c>
       <c r="C190" t="n">
-        <v>1801.891700937493</v>
+        <v>2060.215993024169</v>
       </c>
       <c r="D190" t="n">
         <v>42374.04061</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3131444239774232</v>
+        <v>0.3579754832338333</v>
       </c>
     </row>
     <row r="191">
@@ -13937,16 +13937,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>170.2710616091174</v>
+        <v>169.9084746380709</v>
       </c>
       <c r="C191" t="n">
-        <v>1566.65196285346</v>
+        <v>1796.525431782342</v>
       </c>
       <c r="D191" t="n">
         <v>36950.51483</v>
       </c>
       <c r="E191" t="n">
-        <v>4.612543884000653</v>
+        <v>5.273811224836543</v>
       </c>
     </row>
     <row r="192">
@@ -13956,10 +13956,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>170.2710616091174</v>
+        <v>169.9084746380709</v>
       </c>
       <c r="C192" t="n">
-        <v>1566.65196285346</v>
+        <v>1796.525431782342</v>
       </c>
       <c r="D192" t="n">
         <v>38743.71343</v>
@@ -13975,10 +13975,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>170.2710616091174</v>
+        <v>169.9084746380709</v>
       </c>
       <c r="C193" t="n">
-        <v>1566.65196285346</v>
+        <v>1796.525431782342</v>
       </c>
       <c r="D193" t="n">
         <v>44096.70449</v>
@@ -13994,10 +13994,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>170.2710616091174</v>
+        <v>169.9084746380709</v>
       </c>
       <c r="C194" t="n">
-        <v>1566.65196285346</v>
+        <v>1796.525431782342</v>
       </c>
       <c r="D194" t="n">
         <v>44578.27621</v>
@@ -14013,16 +14013,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>170.2768382409503</v>
+        <v>169.9149663853888</v>
       </c>
       <c r="C195" t="n">
-        <v>1341.068780951022</v>
+        <v>1542.914839233063</v>
       </c>
       <c r="D195" t="n">
         <v>38285.28261</v>
       </c>
       <c r="E195" t="n">
-        <v>4.423199645145841</v>
+        <v>5.072211850985575</v>
       </c>
     </row>
     <row r="196">
@@ -14032,10 +14032,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>170.2768382409503</v>
+        <v>169.9149663853888</v>
       </c>
       <c r="C196" t="n">
-        <v>1341.068780951022</v>
+        <v>1542.914839233063</v>
       </c>
       <c r="D196" t="n">
         <v>44357.61524</v>
@@ -14051,16 +14051,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>170.281219772109</v>
+        <v>169.9199065666446</v>
       </c>
       <c r="C197" t="n">
-        <v>1167.920868004705</v>
+        <v>1347.6122537265</v>
       </c>
       <c r="D197" t="n">
         <v>38742.81608</v>
       </c>
       <c r="E197" t="n">
-        <v>3.395057116594452</v>
+        <v>3.906051710131269</v>
       </c>
     </row>
     <row r="198">
@@ -14070,10 +14070,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>170.281219772109</v>
+        <v>169.9199065666446</v>
       </c>
       <c r="C198" t="n">
-        <v>1167.920868004705</v>
+        <v>1347.6122537265</v>
       </c>
       <c r="D198" t="n">
         <v>39335.5694</v>
@@ -14089,10 +14089,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>170.281219772109</v>
+        <v>169.9199065666446</v>
       </c>
       <c r="C199" t="n">
-        <v>1167.920868004705</v>
+        <v>1347.6122537265</v>
       </c>
       <c r="D199" t="n">
         <v>42364.37805</v>
@@ -14108,10 +14108,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>170.281219772109</v>
+        <v>169.9199065666446</v>
       </c>
       <c r="C200" t="n">
-        <v>1167.920868004705</v>
+        <v>1347.6122537265</v>
       </c>
       <c r="D200" t="n">
         <v>47456.89703</v>
@@ -14127,16 +14127,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>170.2822532242402</v>
+        <v>169.9210751722736</v>
       </c>
       <c r="C201" t="n">
-        <v>1119.911598399592</v>
+        <v>1293.302671744221</v>
       </c>
       <c r="D201" t="n">
         <v>45544.35562</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9413582275512464</v>
+        <v>1.086191639645579</v>
       </c>
     </row>
     <row r="202">
@@ -14146,16 +14146,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>170.2855753178602</v>
+        <v>169.9248348825128</v>
       </c>
       <c r="C202" t="n">
-        <v>983.9514581824272</v>
+        <v>1139.371043109812</v>
       </c>
       <c r="D202" t="n">
         <v>40123.56976</v>
       </c>
       <c r="E202" t="n">
-        <v>2.665885102297341</v>
+        <v>3.078632572688179</v>
       </c>
     </row>
     <row r="203">
@@ -14165,10 +14165,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>170.2855753178602</v>
+        <v>169.9248348825128</v>
       </c>
       <c r="C203" t="n">
-        <v>983.9514581824272</v>
+        <v>1139.371043109812</v>
       </c>
       <c r="D203" t="n">
         <v>41501.74424</v>
@@ -14184,16 +14184,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>170.2876783837368</v>
+        <v>169.9272214320674</v>
       </c>
       <c r="C204" t="n">
-        <v>902.1785603651426</v>
+        <v>1046.538398965489</v>
       </c>
       <c r="D204" t="n">
         <v>38120.30263</v>
       </c>
       <c r="E204" t="n">
-        <v>1.603390153280091</v>
+        <v>1.856652882886458</v>
       </c>
     </row>
     <row r="205">
@@ -14203,16 +14203,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>170.2879117963713</v>
+        <v>169.9274867784075</v>
       </c>
       <c r="C205" t="n">
-        <v>893.1914802136133</v>
+        <v>1036.317687954024</v>
       </c>
       <c r="D205" t="n">
         <v>37748.01185</v>
       </c>
       <c r="E205" t="n">
-        <v>0.1762172578731242</v>
+        <v>0.2044142202292944</v>
       </c>
     </row>
     <row r="206">
@@ -14222,16 +14222,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>170.2930474440757</v>
+        <v>169.9333261974118</v>
       </c>
       <c r="C206" t="n">
-        <v>730.7175287188259</v>
+        <v>851.5049461244535</v>
       </c>
       <c r="D206" t="n">
         <v>31016.18275</v>
       </c>
       <c r="E206" t="n">
-        <v>3.185763754799753</v>
+        <v>3.696254836591411</v>
       </c>
     </row>
     <row r="207">
@@ -14241,16 +14241,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>170.2935056304667</v>
+        <v>169.9338494434045</v>
       </c>
       <c r="C207" t="n">
-        <v>716.498644739645</v>
+        <v>835.2605718087812</v>
       </c>
       <c r="D207" t="n">
         <v>30424.47922</v>
       </c>
       <c r="E207" t="n">
-        <v>0.2788016466506052</v>
+        <v>0.3248874863134458</v>
       </c>
     </row>
     <row r="208">
@@ -14260,16 +14260,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>170.2941182201344</v>
+        <v>169.934549289189</v>
       </c>
       <c r="C208" t="n">
-        <v>697.9701363630071</v>
+        <v>814.0844271860817</v>
       </c>
       <c r="D208" t="n">
         <v>29653.13529</v>
       </c>
       <c r="E208" t="n">
-        <v>0.36330408581643</v>
+        <v>0.4235228924539894</v>
       </c>
     </row>
     <row r="209">
@@ -14279,10 +14279,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>170.2941182201344</v>
+        <v>169.934549289189</v>
       </c>
       <c r="C209" t="n">
-        <v>697.9701363630071</v>
+        <v>814.0844271860817</v>
       </c>
       <c r="D209" t="n">
         <v>31792.55381</v>

--- a/Results/BITCOIN(06-2018-06-2022)Results.xlsx
+++ b/Results/BITCOIN(06-2018-06-2022)Results.xlsx
@@ -6331,22 +6331,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>bitcoin_change</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash_change</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>net_worth</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>percent_changes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bitcoin_change</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cash_change</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>net_worth</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       <c r="C2" t="n">
         <v>1000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="H2" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -6380,16 +6380,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.02635789738237993</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000000</v>
       </c>
     </row>
     <row r="4">
@@ -6411,16 +6411,16 @@
         <v>2027.423473054294</v>
       </c>
       <c r="F4" t="n">
+        <v>16.32761682002611</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-101371.1736527147</v>
+      </c>
+      <c r="H4" t="n">
+        <v>997972.5765269457</v>
+      </c>
+      <c r="I4" t="n">
         <v>-0.1013711736527147</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16.32761682002611</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-101371.1736527147</v>
-      </c>
-      <c r="I4" t="n">
-        <v>997972.5765269457</v>
       </c>
     </row>
     <row r="5">
@@ -6442,16 +6442,16 @@
         <v>1377.896221757635</v>
       </c>
       <c r="F5" t="n">
+        <v>-10.306556787153</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>938072.0085892968</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.07666659366795846</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-10.306556787153</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>938072.0085892968</v>
       </c>
     </row>
     <row r="6">
@@ -6473,16 +6473,16 @@
         <v>603.8534982788274</v>
       </c>
       <c r="F6" t="n">
+        <v>4.673810819566391</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-30192.67491394137</v>
+      </c>
+      <c r="H6" t="n">
+        <v>936142.9191937398</v>
+      </c>
+      <c r="I6" t="n">
         <v>-0.03359860492865278</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.673810819566391</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-30192.67491394137</v>
-      </c>
-      <c r="I6" t="n">
-        <v>936142.9191937398</v>
       </c>
     </row>
     <row r="7">
@@ -6504,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>946672.5521953144</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.1555181756547208</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>946672.5521953144</v>
       </c>
     </row>
     <row r="8">
@@ -6535,16 +6535,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>958055.534589097</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.1454947094053396</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>958055.534589097</v>
       </c>
     </row>
     <row r="9">
@@ -6566,16 +6566,16 @@
         <v>1265.647074922421</v>
       </c>
       <c r="F9" t="n">
+        <v>7.982544390452183</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-63282.35374612106</v>
+      </c>
+      <c r="H9" t="n">
+        <v>950259.3838058581</v>
+      </c>
+      <c r="I9" t="n">
         <v>-0.07286932221980195</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.982544390452183</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-63282.35374612106</v>
-      </c>
-      <c r="I9" t="n">
-        <v>950259.3838058581</v>
       </c>
     </row>
     <row r="10">
@@ -6597,16 +6597,16 @@
         <v>2118.717783556017</v>
       </c>
       <c r="F10" t="n">
+        <v>15.38750252254679</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-105935.8891778009</v>
+      </c>
+      <c r="H10" t="n">
+        <v>929048.7989351706</v>
+      </c>
+      <c r="I10" t="n">
         <v>-0.1315722405857094</v>
-      </c>
-      <c r="G10" t="n">
-        <v>15.38750252254679</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-105935.8891778009</v>
-      </c>
-      <c r="I10" t="n">
-        <v>929048.7989351706</v>
       </c>
     </row>
     <row r="11">
@@ -6628,16 +6628,16 @@
         <v>1089.071390850859</v>
       </c>
       <c r="F11" t="n">
+        <v>8.577543093327902</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-54453.56954254293</v>
+      </c>
+      <c r="H11" t="n">
+        <v>910060.9978028254</v>
+      </c>
+      <c r="I11" t="n">
         <v>-0.07787782446623243</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.577543093327902</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-54453.56954254293</v>
-      </c>
-      <c r="I11" t="n">
-        <v>910060.9978028254</v>
       </c>
     </row>
     <row r="12">
@@ -6659,16 +6659,16 @@
         <v>548.919506764046</v>
       </c>
       <c r="F12" t="n">
+        <v>-4.146780625390364</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27445.9753382023</v>
+      </c>
+      <c r="H12" t="n">
+        <v>921902.9202188166</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.04256745244654756</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-4.146780625390364</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27445.9753382023</v>
-      </c>
-      <c r="I12" t="n">
-        <v>921902.9202188166</v>
       </c>
     </row>
     <row r="13">
@@ -6690,16 +6690,16 @@
         <v>1254.951495545668</v>
       </c>
       <c r="F13" t="n">
+        <v>-8.671057231857725</v>
+      </c>
+      <c r="G13" t="n">
+        <v>62747.57477728342</v>
+      </c>
+      <c r="H13" t="n">
+        <v>946465.4662684621</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.09334515320871074</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-8.671057231857725</v>
-      </c>
-      <c r="H13" t="n">
-        <v>62747.57477728342</v>
-      </c>
-      <c r="I13" t="n">
-        <v>946465.4662684621</v>
       </c>
     </row>
     <row r="14">
@@ -6721,16 +6721,16 @@
         <v>559.1173090269284</v>
       </c>
       <c r="F14" t="n">
+        <v>-3.721645997168971</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27955.86545134642</v>
+      </c>
+      <c r="H14" t="n">
+        <v>955069.7756321486</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.03803737039444648</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-3.721645997168971</v>
-      </c>
-      <c r="H14" t="n">
-        <v>27955.86545134642</v>
-      </c>
-      <c r="I14" t="n">
-        <v>955069.7756321486</v>
       </c>
     </row>
     <row r="15">
@@ -6752,16 +6752,16 @@
         <v>2164.856620623449</v>
       </c>
       <c r="F15" t="n">
+        <v>16.79243414377197</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-108242.8310311724</v>
+      </c>
+      <c r="H15" t="n">
+        <v>925641.6646793325</v>
+      </c>
+      <c r="I15" t="n">
         <v>-0.1418808225542215</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16.79243414377197</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-108242.8310311724</v>
-      </c>
-      <c r="I15" t="n">
-        <v>925641.6646793325</v>
       </c>
     </row>
     <row r="16">
@@ -6783,16 +6783,16 @@
         <v>113.6681861984683</v>
       </c>
       <c r="F16" t="n">
+        <v>-0.8741167986887558</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5683.409309923417</v>
+      </c>
+      <c r="H16" t="n">
+        <v>928107.717212894</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.008681322334458889</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.8741167986887558</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5683.409309923417</v>
-      </c>
-      <c r="I16" t="n">
-        <v>928107.717212894</v>
       </c>
     </row>
     <row r="17">
@@ -6814,16 +6814,16 @@
         <v>167.7662835686353</v>
       </c>
       <c r="F17" t="n">
+        <v>-1.273952491071789</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8388.314178431763</v>
+      </c>
+      <c r="H17" t="n">
+        <v>931676.6870611056</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.01270274723981255</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1.273952491071789</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8388.314178431763</v>
-      </c>
-      <c r="I17" t="n">
-        <v>931676.6870611056</v>
       </c>
     </row>
     <row r="18">
@@ -6845,16 +6845,16 @@
         <v>209.4902184368915</v>
       </c>
       <c r="F18" t="n">
+        <v>-1.566255718524302</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10474.51092184458</v>
+      </c>
+      <c r="H18" t="n">
+        <v>936004.5111211671</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.01566299228705718</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-1.566255718524302</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10474.51092184458</v>
-      </c>
-      <c r="I18" t="n">
-        <v>936004.5111211671</v>
       </c>
     </row>
     <row r="19">
@@ -6876,16 +6876,16 @@
         <v>179.1455385327065</v>
       </c>
       <c r="F19" t="n">
+        <v>-1.32195000340386</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8957.276926635326</v>
+      </c>
+      <c r="H19" t="n">
+        <v>939570.0779347658</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.01318764819510949</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-1.32195000340386</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8957.276926635326</v>
-      </c>
-      <c r="I19" t="n">
-        <v>939570.0779347658</v>
       </c>
     </row>
     <row r="20">
@@ -6907,16 +6907,16 @@
         <v>103.1594753300091</v>
       </c>
       <c r="F20" t="n">
+        <v>0.7669826191515157</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-5157.973766500456</v>
+      </c>
+      <c r="H20" t="n">
+        <v>937582.6692539256</v>
+      </c>
+      <c r="I20" t="n">
         <v>-0.007495154579092107</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.7669826191515157</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-5157.973766500456</v>
-      </c>
-      <c r="I20" t="n">
-        <v>937582.6692539256</v>
       </c>
     </row>
     <row r="21">
@@ -6938,16 +6938,16 @@
         <v>231.3781842694201</v>
       </c>
       <c r="F21" t="n">
+        <v>1.749918740586981</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-11568.90921347101</v>
+      </c>
+      <c r="H21" t="n">
+        <v>933039.4574329703</v>
+      </c>
+      <c r="I21" t="n">
         <v>-0.0169379654412702</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.749918740586981</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-11568.90921347101</v>
-      </c>
-      <c r="I21" t="n">
-        <v>933039.4574329703</v>
       </c>
     </row>
     <row r="22">
@@ -6969,16 +6969,16 @@
         <v>294.1195408745929</v>
       </c>
       <c r="F22" t="n">
+        <v>2.274243371514718</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-14705.97704372965</v>
+      </c>
+      <c r="H22" t="n">
+        <v>927015.9781713891</v>
+      </c>
+      <c r="I22" t="n">
         <v>-0.02190189986247653</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.274243371514718</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-14705.97704372965</v>
-      </c>
-      <c r="I22" t="n">
-        <v>927015.9781713891</v>
       </c>
     </row>
     <row r="23">
@@ -7000,16 +7000,16 @@
         <v>272.5839381283836</v>
       </c>
       <c r="F23" t="n">
+        <v>-2.064870212304367</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13629.19690641918</v>
+      </c>
+      <c r="H23" t="n">
+        <v>932897.5005464269</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.02075275485680114</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-2.064870212304367</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13629.19690641918</v>
-      </c>
-      <c r="I23" t="n">
-        <v>932897.5005464269</v>
       </c>
     </row>
     <row r="24">
@@ -7031,16 +7031,16 @@
         <v>243.0476205986942</v>
       </c>
       <c r="F24" t="n">
+        <v>1.875119411223007</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-12152.38102993471</v>
+      </c>
+      <c r="H24" t="n">
+        <v>927895.4076723782</v>
+      </c>
+      <c r="I24" t="n">
         <v>-0.01812785035170445</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.875119411223007</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-12152.38102993471</v>
-      </c>
-      <c r="I24" t="n">
-        <v>927895.4076723782</v>
       </c>
     </row>
     <row r="25">
@@ -7062,16 +7062,16 @@
         <v>3908.535716893712</v>
       </c>
       <c r="F25" t="n">
+        <v>42.88803820541119</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-195426.7858446856</v>
+      </c>
+      <c r="H25" t="n">
+        <v>843919.0504088884</v>
+      </c>
+      <c r="I25" t="n">
         <v>-0.2969026520805386</v>
-      </c>
-      <c r="G25" t="n">
-        <v>42.88803820541119</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-195426.7858446856</v>
-      </c>
-      <c r="I25" t="n">
-        <v>843919.0504088884</v>
       </c>
     </row>
     <row r="26">
@@ -7093,16 +7093,16 @@
         <v>1332.906646583677</v>
       </c>
       <c r="F26" t="n">
+        <v>17.08644559214335</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-66645.33232918386</v>
+      </c>
+      <c r="H26" t="n">
+        <v>787701.0399636196</v>
+      </c>
+      <c r="I26" t="n">
         <v>-0.1440072197315443</v>
-      </c>
-      <c r="G26" t="n">
-        <v>17.08644559214335</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-66645.33232918386</v>
-      </c>
-      <c r="I26" t="n">
-        <v>787701.0399636196</v>
       </c>
     </row>
     <row r="27">
@@ -7124,16 +7124,16 @@
         <v>282.7708067719699</v>
       </c>
       <c r="F27" t="n">
+        <v>-3.49990855890378</v>
+      </c>
+      <c r="G27" t="n">
+        <v>14138.5403385985</v>
+      </c>
+      <c r="H27" t="n">
+        <v>801958.4793671807</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.03569020162355763</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-3.49990855890378</v>
-      </c>
-      <c r="H27" t="n">
-        <v>14138.5403385985</v>
-      </c>
-      <c r="I27" t="n">
-        <v>801958.4793671807</v>
       </c>
     </row>
     <row r="28">
@@ -7155,16 +7155,16 @@
         <v>1113.957245239997</v>
       </c>
       <c r="F28" t="n">
+        <v>15.95340321761671</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-55697.86226199984</v>
+      </c>
+      <c r="H28" t="n">
+        <v>747673.2000419484</v>
+      </c>
+      <c r="I28" t="n">
         <v>-0.1357541408227268</v>
-      </c>
-      <c r="G28" t="n">
-        <v>15.95340321761671</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-55697.86226199984</v>
-      </c>
-      <c r="I28" t="n">
-        <v>747673.2000419484</v>
       </c>
     </row>
     <row r="29">
@@ -7186,16 +7186,16 @@
         <v>591.4859562807594</v>
       </c>
       <c r="F29" t="n">
+        <v>-7.81877024962677</v>
+      </c>
+      <c r="G29" t="n">
+        <v>29574.29781403797</v>
+      </c>
+      <c r="H29" t="n">
+        <v>781050.0149231856</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.08340492441817589</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-7.81877024962677</v>
-      </c>
-      <c r="H29" t="n">
-        <v>29574.29781403797</v>
-      </c>
-      <c r="I29" t="n">
-        <v>781050.0149231856</v>
       </c>
     </row>
     <row r="30">
@@ -7217,16 +7217,16 @@
         <v>233.8899962393493</v>
       </c>
       <c r="F30" t="n">
+        <v>-3.000421435391708</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11694.49981196747</v>
+      </c>
+      <c r="H30" t="n">
+        <v>793365.8513015661</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.03044164360773613</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-3.000421435391708</v>
-      </c>
-      <c r="H30" t="n">
-        <v>11694.49981196747</v>
-      </c>
-      <c r="I30" t="n">
-        <v>793365.8513015661</v>
       </c>
     </row>
     <row r="31">
@@ -7248,16 +7248,16 @@
         <v>61.24841079023061</v>
       </c>
       <c r="F31" t="n">
+        <v>-0.7796839174082664</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3062.42053951153</v>
+      </c>
+      <c r="H31" t="n">
+        <v>796502.3186773676</v>
+      </c>
+      <c r="I31" t="n">
         <v>0.0077362032843405</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0.7796839174082664</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3062.42053951153</v>
-      </c>
-      <c r="I31" t="n">
-        <v>796502.3186773676</v>
       </c>
     </row>
     <row r="32">
@@ -7279,16 +7279,16 @@
         <v>377.9313954610994</v>
       </c>
       <c r="F32" t="n">
+        <v>-4.59342662679262</v>
+      </c>
+      <c r="G32" t="n">
+        <v>18896.56977305497</v>
+      </c>
+      <c r="H32" t="n">
+        <v>815713.6279881853</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.04736953905051276</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-4.59342662679262</v>
-      </c>
-      <c r="H32" t="n">
-        <v>18896.56977305497</v>
-      </c>
-      <c r="I32" t="n">
-        <v>815713.6279881853</v>
       </c>
     </row>
     <row r="33">
@@ -7310,16 +7310,16 @@
         <v>829.1769698230222</v>
       </c>
       <c r="F33" t="n">
+        <v>11.18809337289231</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-41458.84849115111</v>
+      </c>
+      <c r="H33" t="n">
+        <v>775401.808949287</v>
+      </c>
+      <c r="I33" t="n">
         <v>-0.09922782675564018</v>
-      </c>
-      <c r="G33" t="n">
-        <v>11.18809337289231</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-41458.84849115111</v>
-      </c>
-      <c r="I33" t="n">
-        <v>775401.808949287</v>
       </c>
     </row>
     <row r="34">
@@ -7341,16 +7341,16 @@
         <v>53.79309395537477</v>
       </c>
       <c r="F34" t="n">
+        <v>0.7310553092712574</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-2689.654697768739</v>
+      </c>
+      <c r="H34" t="n">
+        <v>772496.205218615</v>
+      </c>
+      <c r="I34" t="n">
         <v>-0.007146572616324369</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.7310553092712574</v>
-      </c>
-      <c r="H34" t="n">
-        <v>-2689.654697768739</v>
-      </c>
-      <c r="I34" t="n">
-        <v>772496.205218615</v>
       </c>
     </row>
     <row r="35">
@@ -7372,16 +7372,16 @@
         <v>335.076484940133</v>
       </c>
       <c r="F35" t="n">
+        <v>4.767490858896791</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-16753.82424700665</v>
+      </c>
+      <c r="H35" t="n">
+        <v>754279.0548728986</v>
+      </c>
+      <c r="I35" t="n">
         <v>-0.04483633430662741</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4.767490858896791</v>
-      </c>
-      <c r="H35" t="n">
-        <v>-16753.82424700665</v>
-      </c>
-      <c r="I35" t="n">
-        <v>754279.0548728986</v>
       </c>
     </row>
     <row r="36">
@@ -7403,16 +7403,16 @@
         <v>52.22153386315033</v>
       </c>
       <c r="F36" t="n">
+        <v>-0.7376153125490316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2611.076693157517</v>
+      </c>
+      <c r="H36" t="n">
+        <v>757238.30555436</v>
+      </c>
+      <c r="I36" t="n">
         <v>0.007315735211135595</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0.7376153125490316</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2611.076693157517</v>
-      </c>
-      <c r="I36" t="n">
-        <v>757238.30555436</v>
       </c>
     </row>
     <row r="37">
@@ -7434,16 +7434,16 @@
         <v>382.4430586365015</v>
       </c>
       <c r="F37" t="n">
+        <v>-5.12910263929821</v>
+      </c>
+      <c r="G37" t="n">
+        <v>19122.15293182508</v>
+      </c>
+      <c r="H37" t="n">
+        <v>778774.2026342188</v>
+      </c>
+      <c r="I37" t="n">
         <v>0.05318749283762451</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-5.12910263929821</v>
-      </c>
-      <c r="H37" t="n">
-        <v>19122.15293182508</v>
-      </c>
-      <c r="I37" t="n">
-        <v>778774.2026342188</v>
       </c>
     </row>
     <row r="38">
@@ -7465,16 +7465,16 @@
         <v>607.4760211018249</v>
       </c>
       <c r="F38" t="n">
+        <v>-7.542108160930261</v>
+      </c>
+      <c r="G38" t="n">
+        <v>30373.80105509125</v>
+      </c>
+      <c r="H38" t="n">
+        <v>811478.7742742621</v>
+      </c>
+      <c r="I38" t="n">
         <v>0.08021695693401708</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-7.542108160930261</v>
-      </c>
-      <c r="H38" t="n">
-        <v>30373.80105509125</v>
-      </c>
-      <c r="I38" t="n">
-        <v>811478.7742742621</v>
       </c>
     </row>
     <row r="39">
@@ -7496,16 +7496,16 @@
         <v>184.8977684988355</v>
       </c>
       <c r="F39" t="n">
+        <v>2.348681307085316</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-9244.888424941773</v>
+      </c>
+      <c r="H39" t="n">
+        <v>802197.2633757421</v>
+      </c>
+      <c r="I39" t="n">
         <v>-0.02260256476993691</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.348681307085316</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-9244.888424941773</v>
-      </c>
-      <c r="I39" t="n">
-        <v>802197.2633757421</v>
       </c>
     </row>
     <row r="40">
@@ -7527,16 +7527,16 @@
         <v>82.08252703147113</v>
       </c>
       <c r="F40" t="n">
+        <v>-1.032065733178742</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4104.126351573556</v>
+      </c>
+      <c r="H40" t="n">
+        <v>806410.6585009028</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.01026610202464055</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-1.032065733178742</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4104.126351573556</v>
-      </c>
-      <c r="I40" t="n">
-        <v>806410.6585009028</v>
       </c>
     </row>
     <row r="41">
@@ -7558,16 +7558,16 @@
         <v>33.09389961260901</v>
       </c>
       <c r="F41" t="n">
+        <v>-0.4144087452654588</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1654.694980630451</v>
+      </c>
+      <c r="H41" t="n">
+        <v>808092.9299340902</v>
+      </c>
+      <c r="I41" t="n">
         <v>0.004097009977952272</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.4144087452654588</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1654.694980630451</v>
-      </c>
-      <c r="I41" t="n">
-        <v>808092.9299340902</v>
       </c>
     </row>
     <row r="42">
@@ -7589,16 +7589,16 @@
         <v>326.9651177839281</v>
       </c>
       <c r="F42" t="n">
+        <v>-3.93566726799992</v>
+      </c>
+      <c r="G42" t="n">
+        <v>16348.25588919641</v>
+      </c>
+      <c r="H42" t="n">
+        <v>824648.2674391516</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.04031297276555922</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-3.93566726799992</v>
-      </c>
-      <c r="H42" t="n">
-        <v>16348.25588919641</v>
-      </c>
-      <c r="I42" t="n">
-        <v>824648.2674391516</v>
       </c>
     </row>
     <row r="43">
@@ -7620,16 +7620,16 @@
         <v>179.3926051652128</v>
       </c>
       <c r="F43" t="n">
+        <v>2.206249377843622</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-8969.630258260639</v>
+      </c>
+      <c r="H43" t="n">
+        <v>815905.6486794674</v>
+      </c>
+      <c r="I43" t="n">
         <v>-0.02126101163981814</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.206249377843622</v>
-      </c>
-      <c r="H43" t="n">
-        <v>-8969.630258260639</v>
-      </c>
-      <c r="I43" t="n">
-        <v>815905.6486794674</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>1856.566516342066</v>
       </c>
       <c r="F44" t="n">
+        <v>-18.64191388970697</v>
+      </c>
+      <c r="G44" t="n">
+        <v>92828.32581710328</v>
+      </c>
+      <c r="H44" t="n">
+        <v>908360.7583815585</v>
+      </c>
+      <c r="I44" t="n">
         <v>0.2248138241225884</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-18.64191388970697</v>
-      </c>
-      <c r="H44" t="n">
-        <v>92828.32581710328</v>
-      </c>
-      <c r="I44" t="n">
-        <v>908360.7583815585</v>
       </c>
     </row>
     <row r="45">
@@ -7682,16 +7682,16 @@
         <v>671.8676412036364</v>
       </c>
       <c r="F45" t="n">
+        <v>-6.326066147887063</v>
+      </c>
+      <c r="G45" t="n">
+        <v>33593.38206018182</v>
+      </c>
+      <c r="H45" t="n">
+        <v>935776.354586361</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.06642417130753693</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-6.326066147887063</v>
-      </c>
-      <c r="H45" t="n">
-        <v>33593.38206018182</v>
-      </c>
-      <c r="I45" t="n">
-        <v>935776.354586361</v>
       </c>
     </row>
     <row r="46">
@@ -7713,16 +7713,16 @@
         <v>66.38920996535757</v>
       </c>
       <c r="F46" t="n">
+        <v>-0.6212733512785511</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3319.460498267878</v>
+      </c>
+      <c r="H46" t="n">
+        <v>938282.7464969552</v>
+      </c>
+      <c r="I46" t="n">
         <v>0.006154743246790474</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-0.6212733512785511</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3319.460498267878</v>
-      </c>
-      <c r="I46" t="n">
-        <v>938282.7464969552</v>
       </c>
     </row>
     <row r="47">
@@ -7744,16 +7744,16 @@
         <v>695.1355479365992</v>
       </c>
       <c r="F47" t="n">
+        <v>-6.113540672793913</v>
+      </c>
+      <c r="G47" t="n">
+        <v>34756.77739682996</v>
+      </c>
+      <c r="H47" t="n">
+        <v>964317.8412688505</v>
+      </c>
+      <c r="I47" t="n">
         <v>0.06404970873135815</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-6.113540672793913</v>
-      </c>
-      <c r="H47" t="n">
-        <v>34756.77739682996</v>
-      </c>
-      <c r="I47" t="n">
-        <v>964317.8412688505</v>
       </c>
     </row>
     <row r="48">
@@ -7775,16 +7775,16 @@
         <v>457.2298043295323</v>
       </c>
       <c r="F48" t="n">
+        <v>4.186996519384697</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-22861.49021647662</v>
+      </c>
+      <c r="H48" t="n">
+        <v>948541.7013552042</v>
+      </c>
+      <c r="I48" t="n">
         <v>-0.03959317010619181</v>
-      </c>
-      <c r="G48" t="n">
-        <v>4.186996519384697</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-22861.49021647662</v>
-      </c>
-      <c r="I48" t="n">
-        <v>948541.7013552042</v>
       </c>
     </row>
     <row r="49">
@@ -7806,16 +7806,16 @@
         <v>1033.391481695378</v>
       </c>
       <c r="F49" t="n">
+        <v>-8.656525181172437</v>
+      </c>
+      <c r="G49" t="n">
+        <v>51669.57408476892</v>
+      </c>
+      <c r="H49" t="n">
+        <v>986285.0736705988</v>
+      </c>
+      <c r="I49" t="n">
         <v>0.09317413751256072</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-8.656525181172437</v>
-      </c>
-      <c r="H49" t="n">
-        <v>51669.57408476892</v>
-      </c>
-      <c r="I49" t="n">
-        <v>986285.0736705988</v>
       </c>
     </row>
     <row r="50">
@@ -7837,16 +7837,16 @@
         <v>4435.407979346593</v>
       </c>
       <c r="F50" t="n">
+        <v>-27.2030045470979</v>
+      </c>
+      <c r="G50" t="n">
+        <v>221770.3989673297</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1129758.939356103</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.3658261351666673</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-27.2030045470979</v>
-      </c>
-      <c r="H50" t="n">
-        <v>221770.3989673297</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1129758.939356103</v>
       </c>
     </row>
     <row r="51">
@@ -7868,16 +7868,16 @@
         <v>68.5705944874543</v>
       </c>
       <c r="F51" t="n">
+        <v>0.422302131063345</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-3428.529724372715</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1128440.799167628</v>
+      </c>
+      <c r="I51" t="n">
         <v>-0.004140794248573017</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.422302131063345</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-3428.529724372715</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1128440.799167628</v>
       </c>
     </row>
     <row r="52">
@@ -7899,16 +7899,16 @@
         <v>1580.035833901889</v>
       </c>
       <c r="F52" t="n">
+        <v>-8.880076257694331</v>
+      </c>
+      <c r="G52" t="n">
+        <v>79001.79169509445</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1159135.924860634</v>
+      </c>
+      <c r="I52" t="n">
         <v>0.09581085834006381</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-8.880076257694331</v>
-      </c>
-      <c r="H52" t="n">
-        <v>79001.79169509445</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1159135.924860634</v>
       </c>
     </row>
     <row r="53">
@@ -7930,16 +7930,16 @@
         <v>2102.256518088688</v>
       </c>
       <c r="F53" t="n">
+        <v>13.37045442806271</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-105112.8259044344</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1127302.295010479</v>
+      </c>
+      <c r="I53" t="n">
         <v>-0.1163316539022058</v>
-      </c>
-      <c r="G53" t="n">
-        <v>13.37045442806271</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-105112.8259044344</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1127302.295010479</v>
       </c>
     </row>
     <row r="54">
@@ -7961,16 +7961,16 @@
         <v>458.2604725751888</v>
       </c>
       <c r="F54" t="n">
+        <v>-2.833253404359421</v>
+      </c>
+      <c r="G54" t="n">
+        <v>22913.02362875944</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1137197.636231549</v>
+      </c>
+      <c r="I54" t="n">
         <v>0.02869692053359442</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-2.833253404359421</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22913.02362875944</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1137197.636231549</v>
       </c>
     </row>
     <row r="55">
@@ -7992,16 +7992,16 @@
         <v>2390.459157290566</v>
       </c>
       <c r="F55" t="n">
+        <v>-12.90186288533783</v>
+      </c>
+      <c r="G55" t="n">
+        <v>119522.9578645283</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1185547.888845413</v>
+      </c>
+      <c r="I55" t="n">
         <v>0.1455180225923432</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-12.90186288533783</v>
-      </c>
-      <c r="H55" t="n">
-        <v>119522.9578645283</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1185547.888845413</v>
       </c>
     </row>
     <row r="56">
@@ -8023,16 +8023,16 @@
         <v>5596.051302254317</v>
       </c>
       <c r="F56" t="n">
+        <v>-23.28009721918531</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>984099.8503117514</v>
+      </c>
+      <c r="I56" t="n">
         <v>0.297382369541284</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-23.28009721918531</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>984099.8503117514</v>
       </c>
     </row>
     <row r="57">
@@ -8054,16 +8054,16 @@
         <v>1534.39469556569</v>
       </c>
       <c r="F57" t="n">
+        <v>6.949922087803579</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-76719.73477828452</v>
+      </c>
+      <c r="H57" t="n">
+        <v>979041.7049207136</v>
+      </c>
+      <c r="I57" t="n">
         <v>-0.08153998341564257</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6.949922087803579</v>
-      </c>
-      <c r="H57" t="n">
-        <v>-76719.73477828452</v>
-      </c>
-      <c r="I57" t="n">
-        <v>979041.7049207136</v>
       </c>
     </row>
     <row r="58">
@@ -8085,16 +8085,16 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>997660.6339043996</v>
+      </c>
+      <c r="I58" t="n">
         <v>0.1620776562266229</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>997660.6339043996</v>
       </c>
     </row>
     <row r="59">
@@ -8116,16 +8116,16 @@
         <v>4262.312674926923</v>
       </c>
       <c r="F59" t="n">
+        <v>22.05137810732266</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-213115.6337463461</v>
+      </c>
+      <c r="H59" t="n">
+        <v>960476.3918082905</v>
+      </c>
+      <c r="I59" t="n">
         <v>-0.2466144847317939</v>
-      </c>
-      <c r="G59" t="n">
-        <v>22.05137810732266</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-213115.6337463461</v>
-      </c>
-      <c r="I59" t="n">
-        <v>960476.3918082905</v>
       </c>
     </row>
     <row r="60">
@@ -8147,16 +8147,16 @@
         <v>572.6257967934125</v>
       </c>
       <c r="F60" t="n">
+        <v>-2.837725306803185</v>
+      </c>
+      <c r="G60" t="n">
+        <v>28631.28983967063</v>
+      </c>
+      <c r="H60" t="n">
+        <v>974656.7263193241</v>
+      </c>
+      <c r="I60" t="n">
         <v>0.0439771335497247</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-2.837725306803185</v>
-      </c>
-      <c r="H60" t="n">
-        <v>28631.28983967063</v>
-      </c>
-      <c r="I60" t="n">
-        <v>974656.7263193241</v>
       </c>
     </row>
     <row r="61">
@@ -8178,16 +8178,16 @@
         <v>390.0017691655006</v>
       </c>
       <c r="F61" t="n">
+        <v>1.989794345399897</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-19500.08845827503</v>
+      </c>
+      <c r="H61" t="n">
+        <v>965803.8438026957</v>
+      </c>
+      <c r="I61" t="n">
         <v>-0.02869006948870777</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.989794345399897</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-19500.08845827503</v>
-      </c>
-      <c r="I61" t="n">
-        <v>965803.8438026957</v>
       </c>
     </row>
     <row r="62">
@@ -8209,16 +8209,16 @@
         <v>2573.814200757933</v>
       </c>
       <c r="F62" t="n">
+        <v>-10.98943621824649</v>
+      </c>
+      <c r="G62" t="n">
+        <v>128690.7100378967</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1027953.563917612</v>
+      </c>
+      <c r="I62" t="n">
         <v>0.1949325602296074</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-10.98943621824649</v>
-      </c>
-      <c r="H62" t="n">
-        <v>128690.7100378967</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1027953.563917612</v>
       </c>
     </row>
     <row r="63">
@@ -8240,16 +8240,16 @@
         <v>806.6008004044545</v>
       </c>
       <c r="F63" t="n">
+        <v>3.629503991692658</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-40330.04002022272</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1014924.192970981</v>
+      </c>
+      <c r="I63" t="n">
         <v>-0.05112371999194871</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3.629503991692658</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-40330.04002022272</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1014924.192970981</v>
       </c>
     </row>
     <row r="64">
@@ -8271,16 +8271,16 @@
         <v>171.7326607130553</v>
       </c>
       <c r="F64" t="n">
+        <v>0.7817217246211383</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-8586.633035652763</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1011696.741708934</v>
+      </c>
+      <c r="I64" t="n">
         <v>-0.01147115392225063</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.7817217246211383</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-8586.633035652763</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1011696.741708934</v>
       </c>
     </row>
     <row r="65">
@@ -8302,16 +8302,16 @@
         <v>771.4613517709461</v>
       </c>
       <c r="F65" t="n">
+        <v>3.704795161246843</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-38573.0675885473</v>
+      </c>
+      <c r="H65" t="n">
+        <v>996759.6520008889</v>
+      </c>
+      <c r="I65" t="n">
         <v>-0.05212895699924552</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3.704795161246843</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-38573.0675885473</v>
-      </c>
-      <c r="I65" t="n">
-        <v>996759.6520008889</v>
       </c>
     </row>
     <row r="66">
@@ -8333,16 +8333,16 @@
         <v>574.3259894522706</v>
       </c>
       <c r="F66" t="n">
+        <v>-2.649608857847277</v>
+      </c>
+      <c r="G66" t="n">
+        <v>28716.29947261353</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1009427.484021987</v>
+      </c>
+      <c r="I66" t="n">
         <v>0.0409424733659088</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-2.649608857847277</v>
-      </c>
-      <c r="H66" t="n">
-        <v>28716.29947261353</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1009427.484021987</v>
       </c>
     </row>
     <row r="67">
@@ -8364,16 +8364,16 @@
         <v>684.8487063922474</v>
       </c>
       <c r="F67" t="n">
+        <v>3.314972980757533</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-34242.43531961237</v>
+      </c>
+      <c r="H67" t="n">
+        <v>995641.7581161335</v>
+      </c>
+      <c r="I67" t="n">
         <v>-0.04690115265183525</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3.314972980757533</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-34242.43531961237</v>
-      </c>
-      <c r="I67" t="n">
-        <v>995641.7581161335</v>
       </c>
     </row>
     <row r="68">
@@ -8395,16 +8395,16 @@
         <v>171.5214370161072</v>
       </c>
       <c r="F68" t="n">
+        <v>-0.8201324800160593</v>
+      </c>
+      <c r="G68" t="n">
+        <v>8576.071850805358</v>
+      </c>
+      <c r="H68" t="n">
+        <v>999507.9953833169</v>
+      </c>
+      <c r="I68" t="n">
         <v>0.01232450083671704</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-0.8201324800160593</v>
-      </c>
-      <c r="H68" t="n">
-        <v>8576.071850805358</v>
-      </c>
-      <c r="I68" t="n">
-        <v>999507.9953833169</v>
       </c>
     </row>
     <row r="69">
@@ -8426,16 +8426,16 @@
         <v>2260.670157886315</v>
       </c>
       <c r="F69" t="n">
+        <v>12.8754293154009</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-113033.5078943158</v>
+      </c>
+      <c r="H69" t="n">
+        <v>949899.1901973845</v>
+      </c>
+      <c r="I69" t="n">
         <v>-0.1604605902735723</v>
-      </c>
-      <c r="G69" t="n">
-        <v>12.8754293154009</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-113033.5078943158</v>
-      </c>
-      <c r="I69" t="n">
-        <v>949899.1901973845</v>
       </c>
     </row>
     <row r="70">
@@ -8457,16 +8457,16 @@
         <v>356.3692182118917</v>
       </c>
       <c r="F70" t="n">
+        <v>2.092718921116592</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-17818.46091059459</v>
+      </c>
+      <c r="H70" t="n">
+        <v>938741.4025694162</v>
+      </c>
+      <c r="I70" t="n">
         <v>-0.03012938595558114</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2.092718921116592</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-17818.46091059459</v>
-      </c>
-      <c r="I70" t="n">
-        <v>938741.4025694162</v>
       </c>
     </row>
     <row r="71">
@@ -8488,16 +8488,16 @@
         <v>157.2384559836532</v>
       </c>
       <c r="F71" t="n">
+        <v>0.9361887851545083</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-7861.922799182661</v>
+      </c>
+      <c r="H71" t="n">
+        <v>933578.9761743816</v>
+      </c>
+      <c r="I71" t="n">
         <v>-0.01370676812913033</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.9361887851545083</v>
-      </c>
-      <c r="H71" t="n">
-        <v>-7861.922799182661</v>
-      </c>
-      <c r="I71" t="n">
-        <v>933578.9761743816</v>
       </c>
     </row>
     <row r="72">
@@ -8519,16 +8519,16 @@
         <v>34.59804149428027</v>
       </c>
       <c r="F72" t="n">
+        <v>0.2066266040276431</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1729.902074714013</v>
+      </c>
+      <c r="H72" t="n">
+        <v>932419.4990554538</v>
+      </c>
+      <c r="I72" t="n">
         <v>-0.003057889289501659</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.2066266040276431</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-1729.902074714013</v>
-      </c>
-      <c r="I72" t="n">
-        <v>932419.4990554538</v>
       </c>
     </row>
     <row r="73">
@@ -8550,16 +8550,16 @@
         <v>176.5871542839873</v>
       </c>
       <c r="F73" t="n">
+        <v>1.071387541392935</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-8829.357714199365</v>
+      </c>
+      <c r="H73" t="n">
+        <v>926475.0293428409</v>
+      </c>
+      <c r="I73" t="n">
         <v>-0.0156552284538401</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.071387541392935</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-8829.357714199365</v>
-      </c>
-      <c r="I73" t="n">
-        <v>926475.0293428409</v>
       </c>
     </row>
     <row r="74">
@@ -8581,16 +8581,16 @@
         <v>1850.798645388619</v>
       </c>
       <c r="F74" t="n">
+        <v>-9.624779688282025</v>
+      </c>
+      <c r="G74" t="n">
+        <v>92539.93226943094</v>
+      </c>
+      <c r="H74" t="n">
+        <v>990220.974635297</v>
+      </c>
+      <c r="I74" t="n">
         <v>0.1666910321652608</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-9.624779688282025</v>
-      </c>
-      <c r="H74" t="n">
-        <v>92539.93226943094</v>
-      </c>
-      <c r="I74" t="n">
-        <v>990220.974635297</v>
       </c>
     </row>
     <row r="75">
@@ -8612,16 +8612,16 @@
         <v>112.1820616524434</v>
       </c>
       <c r="F75" t="n">
+        <v>0.5884809859339617</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-5609.103082622169</v>
+      </c>
+      <c r="H75" t="n">
+        <v>987142.5281454348</v>
+      </c>
+      <c r="I75" t="n">
         <v>-0.008660054402493612</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.5884809859339617</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-5609.103082622169</v>
-      </c>
-      <c r="I75" t="n">
-        <v>987142.5281454348</v>
       </c>
     </row>
     <row r="76">
@@ -8643,16 +8643,16 @@
         <v>727.0343996572898</v>
       </c>
       <c r="F76" t="n">
+        <v>4.042731460530063</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-36351.71998286449</v>
+      </c>
+      <c r="H76" t="n">
+        <v>966880.3910385113</v>
+      </c>
+      <c r="I76" t="n">
         <v>-0.05661474518287297</v>
-      </c>
-      <c r="G76" t="n">
-        <v>4.042731460530063</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-36351.71998286449</v>
-      </c>
-      <c r="I76" t="n">
-        <v>966880.3910385113</v>
       </c>
     </row>
     <row r="77">
@@ -8674,16 +8674,16 @@
         <v>836.4541560544549</v>
       </c>
       <c r="F77" t="n">
+        <v>4.996122165607556</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-41822.70780272274</v>
+      </c>
+      <c r="H77" t="n">
+        <v>941109.0917283937</v>
+      </c>
+      <c r="I77" t="n">
         <v>-0.06904427225489873</v>
-      </c>
-      <c r="G77" t="n">
-        <v>4.996122165607556</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-41822.70780272274</v>
-      </c>
-      <c r="I77" t="n">
-        <v>941109.0917283937</v>
       </c>
     </row>
     <row r="78">
@@ -8705,16 +8705,16 @@
         <v>1351.057004016659</v>
       </c>
       <c r="F78" t="n">
+        <v>9.168105166897654</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-67552.85020083295</v>
+      </c>
+      <c r="H78" t="n">
+        <v>894572.936605681</v>
+      </c>
+      <c r="I78" t="n">
         <v>-0.119792646049652</v>
-      </c>
-      <c r="G78" t="n">
-        <v>9.168105166897654</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-67552.85020083295</v>
-      </c>
-      <c r="I78" t="n">
-        <v>894572.936605681</v>
       </c>
     </row>
     <row r="79">
@@ -8736,16 +8736,16 @@
         <v>136.440851659141</v>
       </c>
       <c r="F79" t="n">
+        <v>-0.9133179653378766</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6822.04258295705</v>
+      </c>
+      <c r="H79" t="n">
+        <v>900182.4236545634</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.01374408757192234</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-0.9133179653378766</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6822.04258295705</v>
-      </c>
-      <c r="I79" t="n">
-        <v>900182.4236545634</v>
       </c>
     </row>
     <row r="80">
@@ -8767,16 +8767,16 @@
         <v>59.01638348060247</v>
       </c>
       <c r="F80" t="n">
+        <v>0.3973786215739198</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-2950.819174030124</v>
+      </c>
+      <c r="H80" t="n">
+        <v>897795.2918751761</v>
+      </c>
+      <c r="I80" t="n">
         <v>-0.005864294204396224</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.3973786215739198</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-2950.819174030124</v>
-      </c>
-      <c r="I80" t="n">
-        <v>897795.2918751761</v>
       </c>
     </row>
     <row r="81">
@@ -8798,16 +8798,16 @@
         <v>865.4331852783934</v>
       </c>
       <c r="F81" t="n">
+        <v>6.379083870363988</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-43271.65926391967</v>
+      </c>
+      <c r="H81" t="n">
+        <v>862539.5568103526</v>
+      </c>
+      <c r="I81" t="n">
         <v>-0.08650297216557733</v>
-      </c>
-      <c r="G81" t="n">
-        <v>6.379083870363988</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-43271.65926391967</v>
-      </c>
-      <c r="I81" t="n">
-        <v>862539.5568103526</v>
       </c>
     </row>
     <row r="82">
@@ -8829,16 +8829,16 @@
         <v>932.1908058936232</v>
       </c>
       <c r="F82" t="n">
+        <v>-6.235172201807064</v>
+      </c>
+      <c r="G82" t="n">
+        <v>46609.54029468116</v>
+      </c>
+      <c r="H82" t="n">
+        <v>904840.2272319399</v>
+      </c>
+      <c r="I82" t="n">
         <v>0.101998823376536</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-6.235172201807064</v>
-      </c>
-      <c r="H82" t="n">
-        <v>46609.54029468116</v>
-      </c>
-      <c r="I82" t="n">
-        <v>904840.2272319399</v>
       </c>
     </row>
     <row r="83">
@@ -8860,16 +8860,16 @@
         <v>179.9112274110591</v>
       </c>
       <c r="F83" t="n">
+        <v>1.225265115678537</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-8995.561370552954</v>
+      </c>
+      <c r="H83" t="n">
+        <v>897492.2294360705</v>
+      </c>
+      <c r="I83" t="n">
         <v>-0.01786353817232316</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1.225265115678537</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-8995.561370552954</v>
-      </c>
-      <c r="I83" t="n">
-        <v>897492.2294360705</v>
       </c>
     </row>
     <row r="84">
@@ -8891,16 +8891,16 @@
         <v>1329.487792543232</v>
       </c>
       <c r="F84" t="n">
+        <v>-7.981550701815037</v>
+      </c>
+      <c r="G84" t="n">
+        <v>66474.38962716162</v>
+      </c>
+      <c r="H84" t="n">
+        <v>952976.5233781033</v>
+      </c>
+      <c r="I84" t="n">
         <v>0.1344069528629202</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-7.981550701815037</v>
-      </c>
-      <c r="H84" t="n">
-        <v>66474.38962716162</v>
-      </c>
-      <c r="I84" t="n">
-        <v>952976.5233781033</v>
       </c>
     </row>
     <row r="85">
@@ -8922,16 +8922,16 @@
         <v>912.0511213163365</v>
       </c>
       <c r="F85" t="n">
+        <v>-5.063882670139944</v>
+      </c>
+      <c r="G85" t="n">
+        <v>45602.55606581683</v>
+      </c>
+      <c r="H85" t="n">
+        <v>985744.6615975786</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.08128074644420517</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-5.063882670139944</v>
-      </c>
-      <c r="H85" t="n">
-        <v>45602.55606581683</v>
-      </c>
-      <c r="I85" t="n">
-        <v>985744.6615975786</v>
       </c>
     </row>
     <row r="86">
@@ -8953,16 +8953,16 @@
         <v>111.5412539942281</v>
       </c>
       <c r="F86" t="n">
+        <v>0.625044569641935</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-5577.062699711405</v>
+      </c>
+      <c r="H86" t="n">
+        <v>982148.0592977717</v>
+      </c>
+      <c r="I86" t="n">
         <v>-0.009193175574328843</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.625044569641935</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-5577.062699711405</v>
-      </c>
-      <c r="I86" t="n">
-        <v>982148.0592977717</v>
       </c>
     </row>
     <row r="87">
@@ -8984,16 +8984,16 @@
         <v>843.1070412313007</v>
       </c>
       <c r="F87" t="n">
+        <v>-4.414894554520473</v>
+      </c>
+      <c r="G87" t="n">
+        <v>42155.35206156503</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1009717.017011143</v>
+      </c>
+      <c r="I87" t="n">
         <v>0.07013321676057116</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-4.414894554520473</v>
-      </c>
-      <c r="H87" t="n">
-        <v>42155.35206156503</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1009717.017011143</v>
       </c>
     </row>
     <row r="88">
@@ -9015,16 +9015,16 @@
         <v>239.2896153681126</v>
       </c>
       <c r="F88" t="n">
+        <v>1.276778862871855</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-11964.48076840563</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1002660.861666637</v>
+      </c>
+      <c r="I88" t="n">
         <v>-0.01860060411097991</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.276778862871855</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-11964.48076840563</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1002660.861666637</v>
       </c>
     </row>
     <row r="89">
@@ -9046,16 +9046,16 @@
         <v>1400.87871713438</v>
       </c>
       <c r="F89" t="n">
+        <v>-6.728136539644681</v>
+      </c>
+      <c r="G89" t="n">
+        <v>70043.93585671902</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1045270.876478239</v>
+      </c>
+      <c r="I89" t="n">
         <v>0.1109578285186684</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-6.728136539644681</v>
-      </c>
-      <c r="H89" t="n">
-        <v>70043.93585671902</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1045270.876478239</v>
       </c>
     </row>
     <row r="90">
@@ -9077,16 +9077,16 @@
         <v>80.54833660066494</v>
       </c>
       <c r="F90" t="n">
+        <v>0.3890917734520682</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-4027.416830033247</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1043215.063970765</v>
+      </c>
+      <c r="I90" t="n">
         <v>-0.005742703767975321</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.3890917734520682</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-4027.416830033247</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1043215.063970765</v>
       </c>
     </row>
     <row r="91">
@@ -9108,16 +9108,16 @@
         <v>1107.409493482436</v>
       </c>
       <c r="F91" t="n">
+        <v>5.810813709320609</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-55370.47467412182</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1014637.546818874</v>
+      </c>
+      <c r="I91" t="n">
         <v>-0.07940892074278194</v>
-      </c>
-      <c r="G91" t="n">
-        <v>5.810813709320609</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-55370.47467412182</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1014637.546818874</v>
       </c>
     </row>
     <row r="92">
@@ -9139,16 +9139,16 @@
         <v>755.7916220026896</v>
       </c>
       <c r="F92" t="n">
+        <v>4.213871731437552</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-37789.58110013448</v>
+      </c>
+      <c r="H92" t="n">
+        <v>991939.3039078271</v>
+      </c>
+      <c r="I92" t="n">
         <v>-0.05887031539139504</v>
-      </c>
-      <c r="G92" t="n">
-        <v>4.213871731437552</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-37789.58110013448</v>
-      </c>
-      <c r="I92" t="n">
-        <v>991939.3039078271</v>
       </c>
     </row>
     <row r="93">
@@ -9170,16 +9170,16 @@
         <v>1207.693042727554</v>
       </c>
       <c r="F93" t="n">
+        <v>7.481199396912248</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-60384.65213637768</v>
+      </c>
+      <c r="H93" t="n">
+        <v>951967.6871740192</v>
+      </c>
+      <c r="I93" t="n">
         <v>-0.0999542768764722</v>
-      </c>
-      <c r="G93" t="n">
-        <v>7.481199396912248</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-60384.65213637768</v>
-      </c>
-      <c r="I93" t="n">
-        <v>951967.6871740192</v>
       </c>
     </row>
     <row r="94">
@@ -9201,16 +9201,16 @@
         <v>3688.545525030424</v>
       </c>
       <c r="F94" t="n">
+        <v>34.5771570086259</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-184427.2762515212</v>
+      </c>
+      <c r="H94" t="n">
+        <v>809814.1837901787</v>
+      </c>
+      <c r="I94" t="n">
         <v>-0.3391840274209924</v>
-      </c>
-      <c r="G94" t="n">
-        <v>34.5771570086259</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-184427.2762515212</v>
-      </c>
-      <c r="I94" t="n">
-        <v>809814.1837901787</v>
       </c>
     </row>
     <row r="95">
@@ -9232,16 +9232,16 @@
         <v>2078.146079321094</v>
       </c>
       <c r="F95" t="n">
+        <v>-15.11106095221324</v>
+      </c>
+      <c r="G95" t="n">
+        <v>103907.3039660547</v>
+      </c>
+      <c r="H95" t="n">
+        <v>942171.1528581615</v>
+      </c>
+      <c r="I95" t="n">
         <v>0.2891850150841438</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-15.11106095221324</v>
-      </c>
-      <c r="H95" t="n">
-        <v>103907.3039660547</v>
-      </c>
-      <c r="I95" t="n">
-        <v>942171.1528581615</v>
       </c>
     </row>
     <row r="96">
@@ -9263,16 +9263,16 @@
         <v>414.3600518025332</v>
       </c>
       <c r="F96" t="n">
+        <v>3.154052465040624</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-20718.00259012666</v>
+      </c>
+      <c r="H96" t="n">
+        <v>920335.0268691758</v>
+      </c>
+      <c r="I96" t="n">
         <v>-0.04472623514260116</v>
-      </c>
-      <c r="G96" t="n">
-        <v>3.154052465040624</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-20718.00259012666</v>
-      </c>
-      <c r="I96" t="n">
-        <v>920335.0268691758</v>
       </c>
     </row>
     <row r="97">
@@ -9294,16 +9294,16 @@
         <v>1020.049609218479</v>
       </c>
       <c r="F97" t="n">
+        <v>-6.962036172912303</v>
+      </c>
+      <c r="G97" t="n">
+        <v>51002.48046092396</v>
+      </c>
+      <c r="H97" t="n">
+        <v>976430.238262212</v>
+      </c>
+      <c r="I97" t="n">
         <v>0.1152598120769127</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-6.962036172912303</v>
-      </c>
-      <c r="H97" t="n">
-        <v>51002.48046092396</v>
-      </c>
-      <c r="I97" t="n">
-        <v>976430.238262212</v>
       </c>
     </row>
     <row r="98">
@@ -9325,16 +9325,16 @@
         <v>458.7993454621918</v>
       </c>
       <c r="F98" t="n">
+        <v>3.284050141834022</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-22939.96727310959</v>
+      </c>
+      <c r="H98" t="n">
+        <v>953523.0378739198</v>
+      </c>
+      <c r="I98" t="n">
         <v>-0.0464839847613884</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3.284050141834022</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-22939.96727310959</v>
-      </c>
-      <c r="I98" t="n">
-        <v>953523.0378739198</v>
       </c>
     </row>
     <row r="99">
@@ -9356,16 +9356,16 @@
         <v>46.5761491057089</v>
       </c>
       <c r="F99" t="n">
+        <v>-0.3317466547648849</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2328.807455285445</v>
+      </c>
+      <c r="H99" t="n">
+        <v>955959.7778832426</v>
+      </c>
+      <c r="I99" t="n">
         <v>0.00494898510897475</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-0.3317466547648849</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2328.807455285445</v>
-      </c>
-      <c r="I99" t="n">
-        <v>955959.7778832426</v>
       </c>
     </row>
     <row r="100">
@@ -9387,16 +9387,16 @@
         <v>1274.810437899705</v>
       </c>
       <c r="F100" t="n">
+        <v>-8.001538540709301</v>
+      </c>
+      <c r="G100" t="n">
+        <v>63740.52189498523</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1022346.843523551</v>
+      </c>
+      <c r="I100" t="n">
         <v>0.1347889106618165</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-8.001538540709301</v>
-      </c>
-      <c r="H100" t="n">
-        <v>63740.52189498523</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1022346.843523551</v>
       </c>
     </row>
     <row r="101">
@@ -9418,16 +9418,16 @@
         <v>1650.757311605795</v>
       </c>
       <c r="F101" t="n">
+        <v>-8.980031728189596</v>
+      </c>
+      <c r="G101" t="n">
+        <v>82537.86558028974</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1098704.052645924</v>
+      </c>
+      <c r="I101" t="n">
         <v>0.1538072116984375</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-8.980031728189596</v>
-      </c>
-      <c r="H101" t="n">
-        <v>82537.86558028974</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1098704.052645924</v>
       </c>
     </row>
     <row r="102">
@@ -9449,16 +9449,16 @@
         <v>277.782317179255</v>
       </c>
       <c r="F102" t="n">
+        <v>1.545796032025773</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-13889.11585896275</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1087669.437314348</v>
+      </c>
+      <c r="I102" t="n">
         <v>-0.02243183577416169</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1.545796032025773</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-13889.11585896275</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1087669.437314348</v>
       </c>
     </row>
     <row r="103">
@@ -9480,16 +9480,16 @@
         <v>1264.732202479912</v>
       </c>
       <c r="F103" t="n">
+        <v>-6.372213793040589</v>
+      </c>
+      <c r="G103" t="n">
+        <v>63236.61012399558</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1139331.658364451</v>
+      </c>
+      <c r="I103" t="n">
         <v>0.1044748478473404</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-6.372213793040589</v>
-      </c>
-      <c r="H103" t="n">
-        <v>63236.61012399558</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1139331.658364451</v>
       </c>
     </row>
     <row r="104">
@@ -9511,16 +9511,16 @@
         <v>1220.747795906631</v>
       </c>
       <c r="F104" t="n">
+        <v>6.768593609092388</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-61037.38979533157</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1095124.323119399</v>
+      </c>
+      <c r="I104" t="n">
         <v>-0.09130263034541443</v>
-      </c>
-      <c r="G104" t="n">
-        <v>6.768593609092388</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-61037.38979533157</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1095124.323119399</v>
       </c>
     </row>
     <row r="105">
@@ -9542,16 +9542,16 @@
         <v>957.3796276959276</v>
       </c>
       <c r="F105" t="n">
+        <v>-4.920576911025245</v>
+      </c>
+      <c r="G105" t="n">
+        <v>47868.98138479638</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1134507.729947255</v>
+      </c>
+      <c r="I105" t="n">
         <v>0.07879928037681666</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-4.920576911025245</v>
-      </c>
-      <c r="H105" t="n">
-        <v>47868.98138479638</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1134507.729947255</v>
       </c>
     </row>
     <row r="106">
@@ -9573,16 +9573,16 @@
         <v>357.9406034598251</v>
       </c>
       <c r="F106" t="n">
+        <v>-1.790777573199191</v>
+      </c>
+      <c r="G106" t="n">
+        <v>17897.03017299126</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1147951.096744165</v>
+      </c>
+      <c r="I106" t="n">
         <v>0.02730916286298205</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-1.790777573199191</v>
-      </c>
-      <c r="H106" t="n">
-        <v>17897.03017299126</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1147951.096744165</v>
       </c>
     </row>
     <row r="107">
@@ -9604,16 +9604,16 @@
         <v>357.9086284484751</v>
       </c>
       <c r="F107" t="n">
+        <v>1.839513382305925</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-17895.43142242375</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1134975.134290378</v>
+      </c>
+      <c r="I107" t="n">
         <v>-0.0265808232896904</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.839513382305925</v>
-      </c>
-      <c r="H107" t="n">
-        <v>-17895.43142242375</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1134975.134290378</v>
       </c>
     </row>
     <row r="108">
@@ -9635,16 +9635,16 @@
         <v>135.2329721651708</v>
       </c>
       <c r="F108" t="n">
+        <v>-0.6879477505769089</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6761.648608258542</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1140058.945334449</v>
+      </c>
+      <c r="I108" t="n">
         <v>0.01031760637424594</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-0.6879477505769089</v>
-      </c>
-      <c r="H108" t="n">
-        <v>6761.648608258542</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1140058.945334449</v>
       </c>
     </row>
     <row r="109">
@@ -9666,16 +9666,16 @@
         <v>668.3771679509044</v>
       </c>
       <c r="F109" t="n">
+        <v>3.580858817573731</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-33418.85839754522</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1115267.108523338</v>
+      </c>
+      <c r="I109" t="n">
         <v>-0.05047310779516307</v>
-      </c>
-      <c r="G109" t="n">
-        <v>3.580858817573731</v>
-      </c>
-      <c r="H109" t="n">
-        <v>-33418.85839754522</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1115267.108523338</v>
       </c>
     </row>
     <row r="110">
@@ -9697,16 +9697,16 @@
         <v>147.15145348813</v>
       </c>
       <c r="F110" t="n">
+        <v>-0.7792505691021724</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7357.5726744065</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1121108.613875051</v>
+      </c>
+      <c r="I110" t="n">
         <v>0.01170296019032809</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-0.7792505691021724</v>
-      </c>
-      <c r="H110" t="n">
-        <v>7357.5726744065</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1121108.613875051</v>
       </c>
     </row>
     <row r="111">
@@ -9728,16 +9728,16 @@
         <v>15.29207048682364</v>
       </c>
       <c r="F111" t="n">
+        <v>0.08107766769683307</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-764.6035243411822</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1120510.228733057</v>
+      </c>
+      <c r="I111" t="n">
         <v>-0.001202110642241553</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.08107766769683307</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-764.6035243411822</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1120510.228733057</v>
       </c>
     </row>
     <row r="112">
@@ -9759,16 +9759,16 @@
         <v>183.1001278205375</v>
       </c>
       <c r="F112" t="n">
+        <v>-0.9569951210187647</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9155.006391026875</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1127685.811855428</v>
+      </c>
+      <c r="I112" t="n">
         <v>0.01441083621685025</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-0.9569951210187647</v>
-      </c>
-      <c r="H112" t="n">
-        <v>9155.006391026875</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1127685.811855428</v>
       </c>
     </row>
     <row r="113">
@@ -9790,16 +9790,16 @@
         <v>2114.261351463945</v>
       </c>
       <c r="F113" t="n">
+        <v>-9.493196442929897</v>
+      </c>
+      <c r="G113" t="n">
+        <v>105713.0675731972</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1209070.697330135</v>
+      </c>
+      <c r="I113" t="n">
         <v>0.1640383249941565</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-9.493196442929897</v>
-      </c>
-      <c r="H113" t="n">
-        <v>105713.0675731972</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1209070.697330135</v>
       </c>
     </row>
     <row r="114">
@@ -9821,16 +9821,16 @@
         <v>399.8871797866556</v>
       </c>
       <c r="F114" t="n">
+        <v>-1.748909424457632</v>
+      </c>
+      <c r="G114" t="n">
+        <v>19994.35898933278</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1221702.385047837</v>
+      </c>
+      <c r="I114" t="n">
         <v>0.02665366020234353</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1.748909424457632</v>
-      </c>
-      <c r="H114" t="n">
-        <v>19994.35898933278</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1221702.385047837</v>
       </c>
     </row>
     <row r="115">
@@ -9852,16 +9852,16 @@
         <v>276.023041276449</v>
       </c>
       <c r="F115" t="n">
+        <v>-1.185936615284029</v>
+      </c>
+      <c r="G115" t="n">
+        <v>13801.15206382245</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1230070.301255635</v>
+      </c>
+      <c r="I115" t="n">
         <v>0.01792011335844811</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1.185936615284029</v>
-      </c>
-      <c r="H115" t="n">
-        <v>13801.15206382245</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1230070.301255635</v>
       </c>
     </row>
     <row r="116">
@@ -9883,16 +9883,16 @@
         <v>806.026410528224</v>
       </c>
       <c r="F116" t="n">
+        <v>-3.293776467751445</v>
+      </c>
+      <c r="G116" t="n">
+        <v>40301.3205264112</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1253810.502560045</v>
+      </c>
+      <c r="I116" t="n">
         <v>0.05140803363494258</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-3.293776467751445</v>
-      </c>
-      <c r="H116" t="n">
-        <v>40301.3205264112</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1253810.502560045</v>
       </c>
     </row>
     <row r="117">
@@ -9914,16 +9914,16 @@
         <v>857.8589102752143</v>
       </c>
       <c r="F117" t="n">
+        <v>3.698027197607385</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-42892.94551376071</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1230598.942083259</v>
+      </c>
+      <c r="I117" t="n">
         <v>-0.05203868283688069</v>
-      </c>
-      <c r="G117" t="n">
-        <v>3.698027197607385</v>
-      </c>
-      <c r="H117" t="n">
-        <v>-42892.94551376071</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1230598.942083259</v>
       </c>
     </row>
     <row r="118">
@@ -9945,16 +9945,16 @@
         <v>822.0289977174783</v>
       </c>
       <c r="F118" t="n">
+        <v>-3.366487039670695</v>
+      </c>
+      <c r="G118" t="n">
+        <v>41101.44988587392</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1255052.186430013</v>
+      </c>
+      <c r="I118" t="n">
         <v>0.05260256857146822</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-3.366487039670695</v>
-      </c>
-      <c r="H118" t="n">
-        <v>41101.44988587392</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1255052.186430013</v>
       </c>
     </row>
     <row r="119">
@@ -9976,16 +9976,16 @@
         <v>2516.800037551126</v>
       </c>
       <c r="F119" t="n">
+        <v>12.16907026881476</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-125840.0018775563</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1186346.802176027</v>
+      </c>
+      <c r="I119" t="n">
         <v>-0.1530044632169563</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12.16907026881476</v>
-      </c>
-      <c r="H119" t="n">
-        <v>-125840.0018775563</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1186346.802176027</v>
       </c>
     </row>
     <row r="120">
@@ -10007,16 +10007,16 @@
         <v>912.3292453487499</v>
       </c>
       <c r="F120" t="n">
+        <v>-4.140129495286723</v>
+      </c>
+      <c r="G120" t="n">
+        <v>45616.46226743749</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1219327.73293575</v>
+      </c>
+      <c r="I120" t="n">
         <v>0.06548259213858945</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-4.140129495286723</v>
-      </c>
-      <c r="H120" t="n">
-        <v>45616.46226743749</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1219327.73293575</v>
       </c>
     </row>
     <row r="121">
@@ -10038,16 +10038,16 @@
         <v>360.5672369464636</v>
       </c>
       <c r="F121" t="n">
+        <v>1.676978528625542</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-18028.36184732318</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1207378.96702117</v>
+      </c>
+      <c r="I121" t="n">
         <v>-0.02428925359849708</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1.676978528625542</v>
-      </c>
-      <c r="H121" t="n">
-        <v>-18028.36184732318</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1207378.96702117</v>
       </c>
     </row>
     <row r="122">
@@ -10069,16 +10069,16 @@
         <v>423.9573463720801</v>
       </c>
       <c r="F122" t="n">
+        <v>-1.915728290309244</v>
+      </c>
+      <c r="G122" t="n">
+        <v>21197.867318604</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1221945.548962341</v>
+      </c>
+      <c r="I122" t="n">
         <v>0.02927042202879698</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1.915728290309244</v>
-      </c>
-      <c r="H122" t="n">
-        <v>21197.867318604</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1221945.548962341</v>
       </c>
     </row>
     <row r="123">
@@ -10100,16 +10100,16 @@
         <v>330.6595067296972</v>
       </c>
       <c r="F123" t="n">
+        <v>1.528036655528173</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-16532.97533648486</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1211045.312333747</v>
+      </c>
+      <c r="I123" t="n">
         <v>-0.02217983647582664</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.528036655528173</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-16532.97533648486</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1211045.312333747</v>
       </c>
     </row>
     <row r="124">
@@ -10131,16 +10131,16 @@
         <v>1135.158724835673</v>
       </c>
       <c r="F124" t="n">
+        <v>-4.86679017275157</v>
+      </c>
+      <c r="G124" t="n">
+        <v>56757.93624178363</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1249727.665726122</v>
+      </c>
+      <c r="I124" t="n">
         <v>0.07787085251797182</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-4.86679017275157</v>
-      </c>
-      <c r="H124" t="n">
-        <v>56757.93624178363</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1249727.665726122</v>
       </c>
     </row>
     <row r="125">
@@ -10162,16 +10162,16 @@
         <v>665.4422061580799</v>
       </c>
       <c r="F125" t="n">
+        <v>-2.737048267260613</v>
+      </c>
+      <c r="G125" t="n">
+        <v>33272.110307904</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1270048.004774161</v>
+      </c>
+      <c r="I125" t="n">
         <v>0.04235083258642066</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-2.737048267260613</v>
-      </c>
-      <c r="H125" t="n">
-        <v>33272.110307904</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1270048.004774161</v>
       </c>
     </row>
     <row r="126">
@@ -10193,16 +10193,16 @@
         <v>2393.708589529283</v>
       </c>
       <c r="F126" t="n">
+        <v>-8.590147842670904</v>
+      </c>
+      <c r="G126" t="n">
+        <v>119685.4294764641</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1338378.138243772</v>
+      </c>
+      <c r="I126" t="n">
         <v>0.1461534159801725</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-8.590147842670904</v>
-      </c>
-      <c r="H126" t="n">
-        <v>119685.4294764641</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1338378.138243772</v>
       </c>
     </row>
     <row r="127">
@@ -10224,16 +10224,16 @@
         <v>407.3156301508411</v>
       </c>
       <c r="F127" t="n">
+        <v>-1.430664361429579</v>
+      </c>
+      <c r="G127" t="n">
+        <v>20365.78150754205</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1347460.223148975</v>
+      </c>
+      <c r="I127" t="n">
         <v>0.02169831526141128</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1.430664361429579</v>
-      </c>
-      <c r="H127" t="n">
-        <v>20365.78150754205</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1347460.223148975</v>
       </c>
     </row>
     <row r="128">
@@ -10255,16 +10255,16 @@
         <v>1842.80560882031</v>
       </c>
       <c r="F128" t="n">
+        <v>-5.905304653393016</v>
+      </c>
+      <c r="G128" t="n">
+        <v>92140.28044101549</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1386632.328859812</v>
+      </c>
+      <c r="I128" t="n">
         <v>0.09608415767588732</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-5.905304653393016</v>
-      </c>
-      <c r="H128" t="n">
-        <v>92140.28044101549</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1386632.328859812</v>
       </c>
     </row>
     <row r="129">
@@ -10286,16 +10286,16 @@
         <v>3236.657641924308</v>
       </c>
       <c r="F129" t="n">
+        <v>-8.988070983077979</v>
+      </c>
+      <c r="G129" t="n">
+        <v>161832.8820962154</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1441530.484207547</v>
+      </c>
+      <c r="I129" t="n">
         <v>0.1539661057647315</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-8.988070983077979</v>
-      </c>
-      <c r="H129" t="n">
-        <v>161832.8820962154</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1441530.484207547</v>
       </c>
     </row>
     <row r="130">
@@ -10317,16 +10317,16 @@
         <v>2006.129012023406</v>
       </c>
       <c r="F130" t="n">
+        <v>-5.145425773204352</v>
+      </c>
+      <c r="G130" t="n">
+        <v>100306.4506011703</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1462441.620098865</v>
+      </c>
+      <c r="I130" t="n">
         <v>0.08269784009874716</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-5.145425773204352</v>
-      </c>
-      <c r="H130" t="n">
-        <v>100306.4506011703</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1462441.620098865</v>
       </c>
     </row>
     <row r="131">
@@ -10348,16 +10348,16 @@
         <v>416.1041114603655</v>
       </c>
       <c r="F131" t="n">
+        <v>1.084426099311458</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-20805.20557301828</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1459661.652551037</v>
+      </c>
+      <c r="I131" t="n">
         <v>-0.01584273087620427</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.084426099311458</v>
-      </c>
-      <c r="H131" t="n">
-        <v>-20805.20557301828</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1459661.652551037</v>
       </c>
     </row>
     <row r="132">
@@ -10379,16 +10379,16 @@
         <v>661.0828922022284</v>
       </c>
       <c r="F132" t="n">
+        <v>1.768094833131153</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-33054.14461011142</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1454723.540067547</v>
+      </c>
+      <c r="I132" t="n">
         <v>-0.02557522432418184</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1.768094833131153</v>
-      </c>
-      <c r="H132" t="n">
-        <v>-33054.14461011142</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1454723.540067547</v>
       </c>
     </row>
     <row r="133">
@@ -10410,16 +10410,16 @@
         <v>1509.435031367452</v>
       </c>
       <c r="F133" t="n">
+        <v>-3.808795932558138</v>
+      </c>
+      <c r="G133" t="n">
+        <v>75471.75156837258</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1467939.867009003</v>
+      </c>
+      <c r="I133" t="n">
         <v>0.05992798018131523</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-3.808795932558138</v>
-      </c>
-      <c r="H133" t="n">
-        <v>75471.75156837258</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1467939.867009003</v>
       </c>
     </row>
     <row r="134">
@@ -10441,16 +10441,16 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1497844.341164918</v>
+      </c>
+      <c r="I134" t="n">
         <v>0.2246869969184118</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1497844.341164918</v>
       </c>
     </row>
     <row r="135">
@@ -10472,16 +10472,16 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1522368.253983773</v>
+      </c>
+      <c r="I135" t="n">
         <v>0.1504549311727688</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1522368.253983773</v>
       </c>
     </row>
     <row r="136">
@@ -10503,16 +10503,16 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1567970.602715163</v>
+      </c>
+      <c r="I136" t="n">
         <v>0.2431835893274927</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1567970.602715163</v>
       </c>
     </row>
     <row r="137">
@@ -10534,16 +10534,16 @@
         <v>77.3076229638815</v>
       </c>
       <c r="F137" t="n">
+        <v>0.1116927662983694</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3865.381148194075</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1567218.224181713</v>
+      </c>
+      <c r="I137" t="n">
         <v>-0.002895750756307529</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.1116927662983694</v>
-      </c>
-      <c r="H137" t="n">
-        <v>-3865.381148194075</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1567218.224181713</v>
       </c>
     </row>
     <row r="138">
@@ -10565,16 +10565,16 @@
         <v>1675.733051810682</v>
       </c>
       <c r="F138" t="n">
+        <v>-2.277688289688022</v>
+      </c>
+      <c r="G138" t="n">
+        <v>83786.6525905341</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1583765.371239922</v>
+      </c>
+      <c r="I138" t="n">
         <v>0.06295107157042196</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2.277688289688022</v>
-      </c>
-      <c r="H138" t="n">
-        <v>83786.6525905341</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1583765.371239922</v>
       </c>
     </row>
     <row r="139">
@@ -10596,16 +10596,16 @@
         <v>2736.188489244166</v>
       </c>
       <c r="F139" t="n">
+        <v>4.117218752864177</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-136809.4244622083</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1564686.889564168</v>
+      </c>
+      <c r="I139" t="n">
         <v>-0.09670101419682935</v>
-      </c>
-      <c r="G139" t="n">
-        <v>4.117218752864177</v>
-      </c>
-      <c r="H139" t="n">
-        <v>-136809.4244622083</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1564686.889564168</v>
       </c>
     </row>
     <row r="140">
@@ -10627,16 +10627,16 @@
         <v>2312.904420603597</v>
       </c>
       <c r="F140" t="n">
+        <v>-3.191486784813114</v>
+      </c>
+      <c r="G140" t="n">
+        <v>115645.2210301798</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1592946.543084302</v>
+      </c>
+      <c r="I140" t="n">
         <v>0.09049220714640885</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-3.191486784813114</v>
-      </c>
-      <c r="H140" t="n">
-        <v>115645.2210301798</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1592946.543084302</v>
       </c>
     </row>
     <row r="141">
@@ -10658,16 +10658,16 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1654465.644417117</v>
+      </c>
+      <c r="I141" t="n">
         <v>0.3086084640282527</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1654465.644417117</v>
       </c>
     </row>
     <row r="142">
@@ -10689,16 +10689,16 @@
         <v>1641.932029750223</v>
       </c>
       <c r="F142" t="n">
+        <v>-1.635015698790239</v>
+      </c>
+      <c r="G142" t="n">
+        <v>82096.60148751113</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1671474.890894083</v>
+      </c>
+      <c r="I142" t="n">
         <v>0.05890960399426363</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1.635015698790239</v>
-      </c>
-      <c r="H142" t="n">
-        <v>82096.60148751113</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1671474.890894083</v>
       </c>
     </row>
     <row r="143">
@@ -10720,16 +10720,16 @@
         <v>223.2347991635979</v>
       </c>
       <c r="F143" t="n">
+        <v>0.2239886459336868</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-11161.73995817989</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1669770.871839983</v>
+      </c>
+      <c r="I143" t="n">
         <v>-0.007563693766499335</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.2239886459336868</v>
-      </c>
-      <c r="H143" t="n">
-        <v>-11161.73995817989</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1669770.871839983</v>
       </c>
     </row>
     <row r="144">
@@ -10751,16 +10751,16 @@
         <v>251.4752191867102</v>
       </c>
       <c r="F144" t="n">
+        <v>0.2545095181241706</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-12573.76095933551</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1667757.372758849</v>
+      </c>
+      <c r="I144" t="n">
         <v>-0.008585480237468966</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.2545095181241706</v>
-      </c>
-      <c r="H144" t="n">
-        <v>-12573.76095933551</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1667757.372758849</v>
       </c>
     </row>
     <row r="145">
@@ -10782,16 +10782,16 @@
         <v>3843.566790509622</v>
       </c>
       <c r="F145" t="n">
+        <v>-3.435260729973211</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1507984.456576995</v>
+      </c>
+      <c r="I145" t="n">
         <v>0.1323574997683535</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-3.435260729973211</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1507984.456576995</v>
       </c>
     </row>
     <row r="146">
@@ -10813,16 +10813,16 @@
         <v>1060.32644972598</v>
       </c>
       <c r="F146" t="n">
+        <v>-0.9143024755169569</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1458073.96061009</v>
+      </c>
+      <c r="I146" t="n">
         <v>0.03651352128718374</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-0.9143024755169569</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1458073.96061009</v>
       </c>
     </row>
     <row r="147">
@@ -10844,16 +10844,16 @@
         <v>1080.986432157696</v>
       </c>
       <c r="F147" t="n">
+        <v>0.9681568574222499</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-54049.32160788481</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1456765.535216053</v>
+      </c>
+      <c r="I147" t="n">
         <v>-0.03722497077380953</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.9681568574222499</v>
-      </c>
-      <c r="H147" t="n">
-        <v>-54049.32160788481</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1456765.535216053</v>
       </c>
     </row>
     <row r="148">
@@ -10875,16 +10875,16 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1461304.65952495</v>
+      </c>
+      <c r="I148" t="n">
         <v>0.07712942748198875</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1461304.65952495</v>
       </c>
     </row>
     <row r="149">
@@ -10906,16 +10906,16 @@
         <v>352.866497109407</v>
       </c>
       <c r="F149" t="n">
+        <v>0.2971557977129057</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-17643.32485547035</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1460151.738493621</v>
+      </c>
+      <c r="I149" t="n">
         <v>-0.01262117332581828</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.2971557977129057</v>
-      </c>
-      <c r="H149" t="n">
-        <v>-17643.32485547035</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1460151.738493621</v>
       </c>
     </row>
     <row r="150">
@@ -10937,16 +10937,16 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1467478.878563842</v>
+      </c>
+      <c r="I150" t="n">
         <v>0.09172652690181955</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1467478.878563842</v>
       </c>
     </row>
     <row r="151">
@@ -10968,16 +10968,16 @@
         <v>3064.850315357407</v>
       </c>
       <c r="F151" t="n">
+        <v>2.659370753088848</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-153242.5157678703</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1454731.95931271</v>
+      </c>
+      <c r="I151" t="n">
         <v>-0.1110234614504928</v>
-      </c>
-      <c r="G151" t="n">
-        <v>2.659370753088848</v>
-      </c>
-      <c r="H151" t="n">
-        <v>-153242.5157678703</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1454731.95931271</v>
       </c>
     </row>
     <row r="152">
@@ -10999,16 +10999,16 @@
         <v>623.3844431053092</v>
       </c>
       <c r="F152" t="n">
+        <v>0.555009156519798</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-31169.22215526546</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1448324.419803841</v>
+      </c>
+      <c r="I152" t="n">
         <v>-0.02540218971918909</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.555009156519798</v>
-      </c>
-      <c r="H152" t="n">
-        <v>-31169.22215526546</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1448324.419803841</v>
       </c>
     </row>
     <row r="153">
@@ -11030,16 +11030,16 @@
         <v>775.475787735024</v>
       </c>
       <c r="F153" t="n">
+        <v>0.7135543460114574</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-38773.7893867512</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1439363.19061271</v>
+      </c>
+      <c r="I153" t="n">
         <v>-0.03242335912316351</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.7135543460114574</v>
-      </c>
-      <c r="H153" t="n">
-        <v>-38773.7893867512</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1439363.19061271</v>
       </c>
     </row>
     <row r="154">
@@ -11061,16 +11061,16 @@
         <v>1504.636596771181</v>
       </c>
       <c r="F154" t="n">
+        <v>-1.299970027449454</v>
+      </c>
+      <c r="G154" t="n">
+        <v>75231.82983855903</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1459221.031221746</v>
+      </c>
+      <c r="I154" t="n">
         <v>0.06501835982827006</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1.299970027449454</v>
-      </c>
-      <c r="H154" t="n">
-        <v>75231.82983855903</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1459221.031221746</v>
       </c>
     </row>
     <row r="155">
@@ -11092,16 +11092,16 @@
         <v>5983.817437516745</v>
       </c>
       <c r="F155" t="n">
+        <v>6.82750546172033</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-299190.8718758372</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1398148.025637036</v>
+      </c>
+      <c r="I155" t="n">
         <v>-0.2427871120569078</v>
-      </c>
-      <c r="G155" t="n">
-        <v>6.82750546172033</v>
-      </c>
-      <c r="H155" t="n">
-        <v>-299190.8718758372</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1398148.025637036</v>
       </c>
     </row>
     <row r="156">
@@ -11123,16 +11123,16 @@
         <v>1978.309149548528</v>
       </c>
       <c r="F156" t="n">
+        <v>2.52488991599898</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-98915.45747742637</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1346875.480036826</v>
+      </c>
+      <c r="I156" t="n">
         <v>-0.1060042936874004</v>
-      </c>
-      <c r="G156" t="n">
-        <v>2.52488991599898</v>
-      </c>
-      <c r="H156" t="n">
-        <v>-98915.45747742637</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1346875.480036826</v>
       </c>
     </row>
     <row r="157">
@@ -11154,16 +11154,16 @@
         <v>735.5945928312283</v>
       </c>
       <c r="F157" t="n">
+        <v>0.9821310831442527</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-36779.72964156141</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1323536.928923331</v>
+      </c>
+      <c r="I157" t="n">
         <v>-0.04408921763176005</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.9821310831442527</v>
-      </c>
-      <c r="H157" t="n">
-        <v>-36779.72964156141</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1323536.928923331</v>
       </c>
     </row>
     <row r="158">
@@ -11185,16 +11185,16 @@
         <v>1426.664846884827</v>
       </c>
       <c r="F158" t="n">
+        <v>2.091947925726519</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-71333.24234424136</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1275048.188663661</v>
+      </c>
+      <c r="I158" t="n">
         <v>-0.08945373201890078</v>
-      </c>
-      <c r="G158" t="n">
-        <v>2.091947925726519</v>
-      </c>
-      <c r="H158" t="n">
-        <v>-71333.24234424136</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1275048.188663661</v>
       </c>
     </row>
     <row r="159">
@@ -11216,16 +11216,16 @@
         <v>2934.082265517826</v>
       </c>
       <c r="F159" t="n">
+        <v>-3.579156544216044</v>
+      </c>
+      <c r="G159" t="n">
+        <v>146704.1132758913</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1388894.476449267</v>
+      </c>
+      <c r="I159" t="n">
         <v>0.2020443784685333</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-3.579156544216044</v>
-      </c>
-      <c r="H159" t="n">
-        <v>146704.1132758913</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1388894.476449267</v>
       </c>
     </row>
     <row r="160">
@@ -11247,16 +11247,16 @@
         <v>3325.74310575346</v>
       </c>
       <c r="F160" t="n">
+        <v>5.01177402035174</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-166287.155287673</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1287242.427397712</v>
+      </c>
+      <c r="I160" t="n">
         <v>-0.1905209256141352</v>
-      </c>
-      <c r="G160" t="n">
-        <v>5.01177402035174</v>
-      </c>
-      <c r="H160" t="n">
-        <v>-166287.155287673</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1287242.427397712</v>
       </c>
     </row>
     <row r="161">
@@ -11278,16 +11278,16 @@
         <v>1474.349485863903</v>
       </c>
       <c r="F161" t="n">
+        <v>-2.011873234374586</v>
+      </c>
+      <c r="G161" t="n">
+        <v>73717.47429319513</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1349309.548800119</v>
+      </c>
+      <c r="I161" t="n">
         <v>0.1043395116188483</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-2.011873234374586</v>
-      </c>
-      <c r="H161" t="n">
-        <v>73717.47429319513</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1349309.548800119</v>
       </c>
     </row>
     <row r="162">
@@ -11309,16 +11309,16 @@
         <v>731.2519401080687</v>
       </c>
       <c r="F162" t="n">
+        <v>1.046914034135004</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-36562.59700540343</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1321910.720701579</v>
+      </c>
+      <c r="I162" t="n">
         <v>-0.04686113221392567</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1.046914034135004</v>
-      </c>
-      <c r="H162" t="n">
-        <v>-36562.59700540343</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1321910.720701579</v>
       </c>
     </row>
     <row r="163">
@@ -11340,16 +11340,16 @@
         <v>652.6500222931213</v>
       </c>
       <c r="F163" t="n">
+        <v>0.9772644402341865</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-32632.50111465606</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1295884.68801582</v>
+      </c>
+      <c r="I163" t="n">
         <v>-0.04388033387560138</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.9772644402341865</v>
-      </c>
-      <c r="H163" t="n">
-        <v>-32632.50111465606</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1295884.68801582</v>
       </c>
     </row>
     <row r="164">
@@ -11371,16 +11371,16 @@
         <v>1272.225810572425</v>
       </c>
       <c r="F164" t="n">
+        <v>2.09217569487094</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-63611.29052862124</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1242290.538833235</v>
+      </c>
+      <c r="I164" t="n">
         <v>-0.08946260031681084</v>
-      </c>
-      <c r="G164" t="n">
-        <v>2.09217569487094</v>
-      </c>
-      <c r="H164" t="n">
-        <v>-63611.29052862124</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1242290.538833235</v>
       </c>
     </row>
     <row r="165">
@@ -11402,16 +11402,16 @@
         <v>4218.313954983824</v>
       </c>
       <c r="F165" t="n">
+        <v>-5.232423162431976</v>
+      </c>
+      <c r="G165" t="n">
+        <v>210915.6977491912</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1440300.981942681</v>
+      </c>
+      <c r="I165" t="n">
         <v>0.3257755044031462</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-5.232423162431976</v>
-      </c>
-      <c r="H165" t="n">
-        <v>210915.6977491912</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1440300.981942681</v>
       </c>
     </row>
     <row r="166">
@@ -11433,16 +11433,16 @@
         <v>560.5299268524242</v>
       </c>
       <c r="F166" t="n">
+        <v>0.7187535082607136</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-28026.49634262121</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1420738.397444676</v>
+      </c>
+      <c r="I166" t="n">
         <v>-0.03265189116953973</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.7187535082607136</v>
-      </c>
-      <c r="H166" t="n">
-        <v>-28026.49634262121</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1420738.397444676</v>
       </c>
     </row>
     <row r="167">
@@ -11464,16 +11464,16 @@
         <v>3209.885374053574</v>
       </c>
       <c r="F167" t="n">
+        <v>-3.449241320188128</v>
+      </c>
+      <c r="G167" t="n">
+        <v>160494.2687026787</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1538072.893508539</v>
+      </c>
+      <c r="I167" t="n">
         <v>0.1932930649910035</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-3.449241320188128</v>
-      </c>
-      <c r="H167" t="n">
-        <v>160494.2687026787</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1538072.893508539</v>
       </c>
     </row>
     <row r="168">
@@ -11495,16 +11495,16 @@
         <v>396.7408037760183</v>
       </c>
       <c r="F168" t="n">
+        <v>0.4350349719468649</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-19837.04018880091</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1526719.383359196</v>
+      </c>
+      <c r="I168" t="n">
         <v>-0.02002103389529397</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.4350349719468649</v>
-      </c>
-      <c r="H168" t="n">
-        <v>-19837.04018880091</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1526719.383359196</v>
       </c>
     </row>
     <row r="169">
@@ -11526,16 +11526,16 @@
         <v>1321.308387210581</v>
       </c>
       <c r="F169" t="n">
+        <v>-1.35654373336073</v>
+      </c>
+      <c r="G169" t="n">
+        <v>66065.41936052908</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1565853.920487874</v>
+      </c>
+      <c r="I169" t="n">
         <v>0.06804043312362733</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1.35654373336073</v>
-      </c>
-      <c r="H169" t="n">
-        <v>66065.41936052908</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1565853.920487874</v>
       </c>
     </row>
     <row r="170">
@@ -11557,16 +11557,16 @@
         <v>272.6838967955426</v>
       </c>
       <c r="F170" t="n">
+        <v>0.2836852401069999</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-13634.19483977713</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1558628.770138678</v>
+      </c>
+      <c r="I170" t="n">
         <v>-0.01314724255105727</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.2836852401069999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>-13634.19483977713</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1558628.770138678</v>
       </c>
     </row>
     <row r="171">
@@ -11588,16 +11588,16 @@
         <v>118.2076570651892</v>
       </c>
       <c r="F171" t="n">
+        <v>0.1236910494833713</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-5910.38285325946</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1555419.523334899</v>
+      </c>
+      <c r="I171" t="n">
         <v>-0.005775218687366955</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.1236910494833713</v>
-      </c>
-      <c r="H171" t="n">
-        <v>-5910.38285325946</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1555419.523334899</v>
       </c>
     </row>
     <row r="172">
@@ -11619,16 +11619,16 @@
         <v>117.435537303006</v>
       </c>
       <c r="F172" t="n">
+        <v>-0.1221780448754091</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5871.776865150297</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1558641.23330193</v>
+      </c>
+      <c r="I172" t="n">
         <v>0.005770823343937898</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-0.1221780448754091</v>
-      </c>
-      <c r="H172" t="n">
-        <v>5871.776865150297</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1558641.23330193</v>
       </c>
     </row>
     <row r="173">
@@ -11650,16 +11650,16 @@
         <v>2789.949232175797</v>
       </c>
       <c r="F173" t="n">
+        <v>3.360727277168621</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-139497.4616087899</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1482886.547903558</v>
+      </c>
+      <c r="I173" t="n">
         <v>-0.1363124452475135</v>
-      </c>
-      <c r="G173" t="n">
-        <v>3.360727277168621</v>
-      </c>
-      <c r="H173" t="n">
-        <v>-139497.4616087899</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1482886.547903558</v>
       </c>
     </row>
     <row r="174">
@@ -11681,16 +11681,16 @@
         <v>168.190703301889</v>
       </c>
       <c r="F174" t="n">
+        <v>-0.2006903125014508</v>
+      </c>
+      <c r="G174" t="n">
+        <v>8409.53516509445</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1488754.080795444</v>
+      </c>
+      <c r="I174" t="n">
         <v>0.009514468503086225</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-0.2006903125014508</v>
-      </c>
-      <c r="H174" t="n">
-        <v>8409.53516509445</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1488754.080795444</v>
       </c>
     </row>
     <row r="175">
@@ -11712,16 +11712,16 @@
         <v>4528.935677627027</v>
       </c>
       <c r="F175" t="n">
+        <v>-4.310200418189371</v>
+      </c>
+      <c r="G175" t="n">
+        <v>226446.7838813514</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1644659.862390412</v>
+      </c>
+      <c r="I175" t="n">
         <v>0.2537851178193385</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-4.310200418189371</v>
-      </c>
-      <c r="H175" t="n">
-        <v>226446.7838813514</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1644659.862390412</v>
       </c>
     </row>
     <row r="176">
@@ -11743,16 +11743,16 @@
         <v>1977.978555830852</v>
       </c>
       <c r="F176" t="n">
+        <v>-1.729549682441357</v>
+      </c>
+      <c r="G176" t="n">
+        <v>98898.92779154259</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1693132.268936423</v>
+      </c>
+      <c r="I176" t="n">
         <v>0.0884032979137717</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1.729549682441357</v>
-      </c>
-      <c r="H176" t="n">
-        <v>98898.92779154259</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1693132.268936423</v>
       </c>
     </row>
     <row r="177">
@@ -11774,16 +11774,16 @@
         <v>3583.595832388652</v>
       </c>
       <c r="F177" t="n">
+        <v>-2.731544312474075</v>
+      </c>
+      <c r="G177" t="n">
+        <v>179179.7916194326</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1766689.548064585</v>
+      </c>
+      <c r="I177" t="n">
         <v>0.1471553519393479</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-2.731544312474075</v>
-      </c>
-      <c r="H177" t="n">
-        <v>179179.7916194326</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1766689.548064585</v>
       </c>
     </row>
     <row r="178">
@@ -11805,16 +11805,16 @@
         <v>1708.979079389604</v>
       </c>
       <c r="F178" t="n">
+        <v>1.387526126804027</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-85448.95396948019</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1742352.894192796</v>
+      </c>
+      <c r="I178" t="n">
         <v>-0.06117465792463559</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1.387526126804027</v>
-      </c>
-      <c r="H178" t="n">
-        <v>-85448.95396948019</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1742352.894192796</v>
       </c>
     </row>
     <row r="179">
@@ -11836,16 +11836,16 @@
         <v>1261.264208718909</v>
       </c>
       <c r="F179" t="n">
+        <v>-0.9770389072064581</v>
+      </c>
+      <c r="G179" t="n">
+        <v>63063.21043594546</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1764340.948266502</v>
+      </c>
+      <c r="I179" t="n">
         <v>0.04809014326558194</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-0.9770389072064581</v>
-      </c>
-      <c r="H179" t="n">
-        <v>63063.21043594546</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1764340.948266502</v>
       </c>
     </row>
     <row r="180">
@@ -11867,16 +11867,16 @@
         <v>1607.471207050122</v>
       </c>
       <c r="F180" t="n">
+        <v>-1.17643257060228</v>
+      </c>
+      <c r="G180" t="n">
+        <v>80373.56035250609</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1788750.477075289</v>
+      </c>
+      <c r="I180" t="n">
         <v>0.05847827658005404</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1.17643257060228</v>
-      </c>
-      <c r="H180" t="n">
-        <v>80373.56035250609</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1788750.477075289</v>
       </c>
     </row>
     <row r="181">
@@ -11898,16 +11898,16 @@
         <v>2961.028447784572</v>
       </c>
       <c r="F181" t="n">
+        <v>2.412559202669763</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-148051.4223892286</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1751802.996705072</v>
+      </c>
+      <c r="I181" t="n">
         <v>-0.1017681765258305</v>
-      </c>
-      <c r="G181" t="n">
-        <v>2.412559202669763</v>
-      </c>
-      <c r="H181" t="n">
-        <v>-148051.4223892286</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1751802.996705072</v>
       </c>
     </row>
     <row r="182">
@@ -11929,16 +11929,16 @@
         <v>1118.479628709345</v>
       </c>
       <c r="F182" t="n">
+        <v>0.9520488571267952</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-55923.98143546724</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1731637.32326026</v>
+      </c>
+      <c r="I182" t="n">
         <v>-0.04279657894899203</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.9520488571267952</v>
-      </c>
-      <c r="H182" t="n">
-        <v>-55923.98143546724</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1731637.32326026</v>
       </c>
     </row>
     <row r="183">
@@ -11960,16 +11960,16 @@
         <v>285.8954601990259</v>
       </c>
       <c r="F183" t="n">
+        <v>0.2461672478339883</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-14294.7730099513</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1725856.422443434</v>
+      </c>
+      <c r="I183" t="n">
         <v>-0.01142836210605558</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.2461672478339883</v>
-      </c>
-      <c r="H183" t="n">
-        <v>-14294.7730099513</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1725856.422443434</v>
       </c>
     </row>
     <row r="184">
@@ -11991,16 +11991,16 @@
         <v>2711.846720597349</v>
       </c>
       <c r="F184" t="n">
+        <v>2.622590457494673</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-135592.3360298674</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1669485.822153309</v>
+      </c>
+      <c r="I184" t="n">
         <v>-0.1096563347555046</v>
-      </c>
-      <c r="G184" t="n">
-        <v>2.622590457494673</v>
-      </c>
-      <c r="H184" t="n">
-        <v>-135592.3360298674</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1669485.822153309</v>
       </c>
     </row>
     <row r="185">
@@ -12022,16 +12022,16 @@
         <v>994.2466562600939</v>
       </c>
       <c r="F185" t="n">
+        <v>1.00699325435049</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-49712.33281300469</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1642818.413773268</v>
+      </c>
+      <c r="I185" t="n">
         <v>-0.04515491748205042</v>
-      </c>
-      <c r="G185" t="n">
-        <v>1.00699325435049</v>
-      </c>
-      <c r="H185" t="n">
-        <v>-49712.33281300469</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1642818.413773268</v>
       </c>
     </row>
     <row r="186">
@@ -12053,16 +12053,16 @@
         <v>242.2033811322999</v>
       </c>
       <c r="F186" t="n">
+        <v>-0.2425147089444721</v>
+      </c>
+      <c r="G186" t="n">
+        <v>12110.16905661499</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1649875.965510014</v>
+      </c>
+      <c r="I186" t="n">
         <v>0.01152015174261454</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-0.2425147089444721</v>
-      </c>
-      <c r="H186" t="n">
-        <v>12110.16905661499</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1649875.965510014</v>
       </c>
     </row>
     <row r="187">
@@ -12084,16 +12084,16 @@
         <v>570.6867337306358</v>
       </c>
       <c r="F187" t="n">
+        <v>0.5871771799036838</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-28534.33668653179</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1633565.231023567</v>
+      </c>
+      <c r="I187" t="n">
         <v>-0.02683497751636317</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.5871771799036838</v>
-      </c>
-      <c r="H187" t="n">
-        <v>-28534.33668653179</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1633565.231023567</v>
       </c>
     </row>
     <row r="188">
@@ -12115,16 +12115,16 @@
         <v>749.4186459126128</v>
       </c>
       <c r="F188" t="n">
+        <v>0.800044154379792</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-37470.93229563064</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1611133.585573149</v>
+      </c>
+      <c r="I188" t="n">
         <v>-0.03621107867426353</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.800044154379792</v>
-      </c>
-      <c r="H188" t="n">
-        <v>-37470.93229563064</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1611133.585573149</v>
       </c>
     </row>
     <row r="189">
@@ -12146,16 +12146,16 @@
         <v>1372.011439742807</v>
       </c>
       <c r="F189" t="n">
+        <v>1.57288568454594</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-68600.57198714036</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1567540.570285739</v>
+      </c>
+      <c r="I189" t="n">
         <v>-0.06878484616493365</v>
-      </c>
-      <c r="G189" t="n">
-        <v>1.57288568454594</v>
-      </c>
-      <c r="H189" t="n">
-        <v>-68600.57198714036</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1567540.570285739</v>
       </c>
     </row>
     <row r="190">
@@ -12177,16 +12177,16 @@
         <v>159.9811287946782</v>
       </c>
       <c r="F190" t="n">
+        <v>0.1849971161138044</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-7999.056439733911</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1561878.440032932</v>
+      </c>
+      <c r="I190" t="n">
         <v>-0.00861298636837551</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.1849971161138044</v>
-      </c>
-      <c r="H190" t="n">
-        <v>-7999.056439733911</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1561878.440032932</v>
       </c>
     </row>
     <row r="191">
@@ -12208,16 +12208,16 @@
         <v>2356.894011784249</v>
       </c>
       <c r="F191" t="n">
+        <v>3.125472191896607</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-117844.7005892124</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1477458.759318584</v>
+      </c>
+      <c r="I191" t="n">
         <v>-0.1279917067602017</v>
-      </c>
-      <c r="G191" t="n">
-        <v>3.125472191896607</v>
-      </c>
-      <c r="H191" t="n">
-        <v>-117844.7005892124</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1477458.759318584</v>
       </c>
     </row>
     <row r="192">
@@ -12239,16 +12239,16 @@
         <v>779.2678072749771</v>
       </c>
       <c r="F192" t="n">
+        <v>-0.9855566019881609</v>
+      </c>
+      <c r="G192" t="n">
+        <v>38963.39036374885</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1510975.315114142</v>
+      </c>
+      <c r="I192" t="n">
         <v>0.04852973248816851</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-0.9855566019881609</v>
-      </c>
-      <c r="H192" t="n">
-        <v>38963.39036374885</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1510975.315114142</v>
       </c>
     </row>
     <row r="193">
@@ -12270,16 +12270,16 @@
         <v>2326.241837177846</v>
       </c>
       <c r="F193" t="n">
+        <v>-2.584906317603927</v>
+      </c>
+      <c r="G193" t="n">
+        <v>116312.0918588923</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1605752.039394967</v>
+      </c>
+      <c r="I193" t="n">
         <v>0.1381641197009027</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-2.584906317603927</v>
-      </c>
-      <c r="H193" t="n">
-        <v>116312.0918588923</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1605752.039394967</v>
       </c>
     </row>
     <row r="194">
@@ -12301,16 +12301,16 @@
         <v>209.2759487376603</v>
       </c>
       <c r="F194" t="n">
+        <v>-0.2300340515599616</v>
+      </c>
+      <c r="G194" t="n">
+        <v>10463.79743688301</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1613033.630422448</v>
+      </c>
+      <c r="I194" t="n">
         <v>0.01092080974235196</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-0.2300340515599616</v>
-      </c>
-      <c r="H194" t="n">
-        <v>10463.79743688301</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1613033.630422448</v>
       </c>
     </row>
     <row r="195">
@@ -12332,16 +12332,16 @@
         <v>2734.737426109666</v>
       </c>
       <c r="F195" t="n">
+        <v>3.500095199620459</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-136736.8713054833</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1519328.208607773</v>
+      </c>
+      <c r="I195" t="n">
         <v>-0.1411672710347721</v>
-      </c>
-      <c r="G195" t="n">
-        <v>3.500095199620459</v>
-      </c>
-      <c r="H195" t="n">
-        <v>-136736.8713054833</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1519328.208607773</v>
       </c>
     </row>
     <row r="196">
@@ -12363,16 +12363,16 @@
         <v>2638.84509703743</v>
       </c>
       <c r="F196" t="n">
+        <v>-2.915021672270452</v>
+      </c>
+      <c r="G196" t="n">
+        <v>131942.2548518715</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1631001.634541718</v>
+      </c>
+      <c r="I196" t="n">
         <v>0.1586074913396074</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-2.915021672270452</v>
-      </c>
-      <c r="H196" t="n">
-        <v>131942.2548518715</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1631001.634541718</v>
       </c>
     </row>
     <row r="197">
@@ -12394,16 +12394,16 @@
         <v>2440.01541697756</v>
       </c>
       <c r="F197" t="n">
+        <v>3.086010970008467</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-122000.770848878</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1544109.753644212</v>
+      </c>
+      <c r="I197" t="n">
         <v>-0.1265802755540562</v>
-      </c>
-      <c r="G197" t="n">
-        <v>3.086010970008467</v>
-      </c>
-      <c r="H197" t="n">
-        <v>-122000.770848878</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1544109.753644212</v>
       </c>
     </row>
     <row r="198">
@@ -12425,16 +12425,16 @@
         <v>257.5919811287856</v>
       </c>
       <c r="F198" t="n">
+        <v>-0.3208802431956277</v>
+      </c>
+      <c r="G198" t="n">
+        <v>12879.59905643928</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1555112.156860271</v>
+      </c>
+      <c r="I198" t="n">
         <v>0.01529969630436847</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-0.3208802431956277</v>
-      </c>
-      <c r="H198" t="n">
-        <v>12879.59905643928</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1555112.156860271</v>
       </c>
     </row>
     <row r="199">
@@ -12456,16 +12456,16 @@
         <v>1316.22513833157</v>
       </c>
       <c r="F199" t="n">
+        <v>-1.522388259828282</v>
+      </c>
+      <c r="G199" t="n">
+        <v>65811.25691657852</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1610359.567463411</v>
+      </c>
+      <c r="I199" t="n">
         <v>0.07699923240465407</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1.522388259828282</v>
-      </c>
-      <c r="H199" t="n">
-        <v>65811.25691657852</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1610359.567463411</v>
       </c>
     </row>
     <row r="200">
@@ -12487,16 +12487,16 @@
         <v>2213.048849720715</v>
       </c>
       <c r="F200" t="n">
+        <v>-2.285008089925575</v>
+      </c>
+      <c r="G200" t="n">
+        <v>110652.4424860357</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1695497.585780439</v>
+      </c>
+      <c r="I200" t="n">
         <v>0.1202075709453263</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2.285008089925575</v>
-      </c>
-      <c r="H200" t="n">
-        <v>110652.4424860357</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1695497.585780439</v>
       </c>
     </row>
     <row r="201">
@@ -12518,16 +12518,16 @@
         <v>831.1304452798975</v>
       </c>
       <c r="F201" t="n">
+        <v>0.894191854606702</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-41556.52226399487</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1667893.408109808</v>
+      </c>
+      <c r="I201" t="n">
         <v>-0.04030059969557175</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.894191854606702</v>
-      </c>
-      <c r="H201" t="n">
-        <v>-41556.52226399487</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1667893.408109808</v>
       </c>
     </row>
     <row r="202">
@@ -12549,16 +12549,16 @@
         <v>2355.703328582454</v>
       </c>
       <c r="F202" t="n">
+        <v>2.876849288111303</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-117785.1664291227</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1584806.658178265</v>
+      </c>
+      <c r="I202" t="n">
         <v>-0.1190221221972797</v>
-      </c>
-      <c r="G202" t="n">
-        <v>2.876849288111303</v>
-      </c>
-      <c r="H202" t="n">
-        <v>-117785.1664291227</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1584806.658178265</v>
       </c>
     </row>
     <row r="203">
@@ -12580,16 +12580,16 @@
         <v>598.9113559825058</v>
       </c>
       <c r="F203" t="n">
+        <v>-0.7071186279168006</v>
+      </c>
+      <c r="G203" t="n">
+        <v>29945.56779912529</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1609895.339993903</v>
+      </c>
+      <c r="I203" t="n">
         <v>0.03434825186900323</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-0.7071186279168006</v>
-      </c>
-      <c r="H203" t="n">
-        <v>29945.56779912529</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1609895.339993903</v>
       </c>
     </row>
     <row r="204">
@@ -12611,16 +12611,16 @@
         <v>1469.468350495625</v>
       </c>
       <c r="F204" t="n">
+        <v>1.888860901057481</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-73473.41752478127</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1550729.691598511</v>
+      </c>
+      <c r="I204" t="n">
         <v>-0.08147709625035272</v>
-      </c>
-      <c r="G204" t="n">
-        <v>1.888860901057481</v>
-      </c>
-      <c r="H204" t="n">
-        <v>-73473.41752478127</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1550729.691598511</v>
       </c>
     </row>
     <row r="205">
@@ -12642,16 +12642,16 @@
         <v>161.7858835040842</v>
       </c>
       <c r="F205" t="n">
+        <v>0.2100112801490531</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-8089.294175204212</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1543512.452167248</v>
+      </c>
+      <c r="I205" t="n">
         <v>-0.009766207357100294</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.2100112801490531</v>
-      </c>
-      <c r="H205" t="n">
-        <v>-8089.294175204212</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1543512.452167248</v>
       </c>
     </row>
     <row r="206">
@@ -12673,16 +12673,16 @@
         <v>2925.441555501367</v>
       </c>
       <c r="F206" t="n">
+        <v>4.621672414525833</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-146272.0777750684</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1411595.265672087</v>
+      </c>
+      <c r="I206" t="n">
         <v>-0.1783359909589517</v>
-      </c>
-      <c r="G206" t="n">
-        <v>4.621672414525833</v>
-      </c>
-      <c r="H206" t="n">
-        <v>-146272.0777750684</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1411595.265672087</v>
       </c>
     </row>
     <row r="207">
@@ -12704,16 +12704,16 @@
         <v>257.1357753569303</v>
       </c>
       <c r="F207" t="n">
+        <v>0.4141287974522504</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-12856.78876784651</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1397265.560259585</v>
+      </c>
+      <c r="I207" t="n">
         <v>-0.01907725185814488</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.4141287974522504</v>
-      </c>
-      <c r="H207" t="n">
-        <v>-12856.78876784651</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1397265.560259585</v>
       </c>
     </row>
     <row r="208">
@@ -12735,16 +12735,16 @@
         <v>335.201852703858</v>
       </c>
       <c r="F208" t="n">
+        <v>0.5539006456436346</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-16760.0926351929</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1378265.939723051</v>
+      </c>
+      <c r="I208" t="n">
         <v>-0.02535274061463468</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.5539006456436346</v>
-      </c>
-      <c r="H208" t="n">
-        <v>-16760.0926351929</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1378265.939723051</v>
       </c>
     </row>
     <row r="209">
@@ -12766,16 +12766,16 @@
         <v>929.7241136167939</v>
       </c>
       <c r="F209" t="n">
+        <v>-1.43292929028223</v>
+      </c>
+      <c r="G209" t="n">
+        <v>46486.2056808397</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1432148.780443043</v>
+      </c>
+      <c r="I209" t="n">
         <v>0.07214813877443457</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1.43292929028223</v>
-      </c>
-      <c r="H209" t="n">
-        <v>46486.2056808397</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1432148.780443043</v>
       </c>
     </row>
   </sheetData>
